--- a/App_QC_Regression_Test_Case.xlsx
+++ b/App_QC_Regression_Test_Case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ff07052f40021dd/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProject\BluePrint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="738" documentId="11_18E4F23C845A059123A4A249ED04B09E4AA3B3A7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FD194F5-8061-43E0-9B34-DB4122282B1B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797B72D2-ED29-4CD0-82EE-D2EFC3345FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="20730" windowHeight="11160" tabRatio="892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Page" sheetId="14" r:id="rId1"/>
@@ -24,13 +24,17 @@
     <sheet name="File Support" sheetId="20" r:id="rId9"/>
     <sheet name="Search" sheetId="21" r:id="rId10"/>
     <sheet name="PeripheralPages-GoogleAnalytic" sheetId="22" r:id="rId11"/>
-    <sheet name="Info" sheetId="10" r:id="rId12"/>
+    <sheet name="BrowserDeviceSupport Test" sheetId="27" r:id="rId12"/>
+    <sheet name="Permissions" sheetId="23" r:id="rId13"/>
+    <sheet name="Concurrent User Test" sheetId="24" r:id="rId14"/>
+    <sheet name="Security Tests" sheetId="25" r:id="rId15"/>
+    <sheet name="Accessibility Test" sheetId="26" r:id="rId16"/>
+    <sheet name="Info" sheetId="10" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="565">
   <si>
     <t>Test Area</t>
   </si>
@@ -880,11 +884,6 @@
   </si>
   <si>
     <t>Company Logo</t>
-  </si>
-  <si>
-    <t>1) New browser instance should be opened
-2) User should be albe to see login page
-3) Login form should be visible with Username, Password field and Sign In button</t>
   </si>
   <si>
     <t>TC005</t>
@@ -978,16 +977,6 @@
   </si>
   <si>
     <t>Verify that a user should be able to login to blueprint application with correct username and password</t>
-  </si>
-  <si>
-    <t>1)  Open a browser in either Incognito mode or in new session by clearing all cache.
-2) Use following URL to open up login page:
-https://test.internal.noble.ai/</t>
-  </si>
-  <si>
-    <t>1)  Open a browser in either Incognito mode or in new session by clearing all cache.
-2) Use following URL to open up login page:
-https://test.internal.noble.ai/admin</t>
   </si>
   <si>
     <t>1) User should not be logged in and must not land on a dashboard Page.
@@ -1830,6 +1819,334 @@
 Without limiting the generality of the foregoing, you acknowledge that Noble.AI tracks and performs analytics regarding use of the service using a variety of tools, including Google Analytics.
 For more information on Google Analytics, click here.
 3) user should be redireted to Google Analytics page. Left navigation should land user to the section selected by the user.</t>
+  </si>
+  <si>
+    <t>1) Being logged in as a normal user (eg User A), create a collection
+2) Upload some files.
+3) Again login as Staff user and create cluster 
+4) Injest some files 
+5) Again login with User A and download all records from the created collection.
+6) Finally login as User B and observe
+7) Find other ways to ‘attack’ CollectX-related API endpoints as UserB and confirm access is blocked - Upload Docs, Get List of Docs for Cluster / ‘Ingested Documents, etc.</t>
+  </si>
+  <si>
+    <t>1) User should be able to create a collection.
+2) Files should be uploaded
+3) Staff user should be able to create a cluster
+4) Files should be injested and all process should be completed.
+5) User A should be able to login and must be able to download all files.
+6) User B should not be able to do following:
+- view collection created by user A in dashboard
+- see collection id in left navigation of collection details page
+- view collection upload page via deep link (ie copying url from user a and applying same url by user b)
+- view Injested document page via deep link (ie copying url from user a and applying same url by user b)
+- view cluster created for User A.
+- view documents while sarching for a documents uploaded by User A
+7) In any scenario, User A's data or information should not be visible by User B</t>
+  </si>
+  <si>
+    <t>Verify that a any artifacts created/updated by a normal user is not visible by other normal user in any circumstance</t>
+  </si>
+  <si>
+    <t>Verify that a any artifacts created/updated by a normal user is visible by other normal user if other normal user is provided a permission</t>
+  </si>
+  <si>
+    <t>1) Login to Admin application and Edit the normal User (User B)
+2) Edit User B and add User B to a Group where User A has access.
+3) Add the group to the collection created by User A
+4) Assign permission to Collectioon created by User A
+5) Now login to Applicaiton using User B and Navigate to the Collection created by User A.
+6) Observe and operate on the collection being User B</t>
+  </si>
+  <si>
+    <t>1) User should be loged in to admin app
+2) User should be able to land on Edit user page and User B should be assigned to provided Group
+3) Group should be added to the Collection created by User A
+4) User B should be provided with the permission on the collection created by User A
+5) User B should login and must be able to see the collection and must land on Collection Detail page
+6) Now User B should be able to:
+-  do all the actions on CollectionX
+- see all Collections on the Dashboard created by User A as well
+- load any Collection or Cluster page
+- see list of all files through global Search
+- download records
+- preview file images
+- download any file.</t>
+  </si>
+  <si>
+    <t>Verify that staff user can do all the actions done by User A and user B</t>
+  </si>
+  <si>
+    <t>1) login to application and navigate to Dashboard
+2) Now edit everything you can on the collection created by user A</t>
+  </si>
+  <si>
+    <t>1) User should be able land on dashboard and view all the collections that both User A and User B created.
+2) Staff usre should be able to :
+-  do all the actions on Collection created by user a
+- see all Collections on the Dashboard created by User A as well
+- load any Collection or Cluster page
+- see list of all files through global Search
+- download records
+- preview file images
+- download any file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify admin/staff User can assign any kind of group (for eg "Everyone" group) to Collection created by anyuser </t>
+  </si>
+  <si>
+    <t>1) Login as Admin user to land on Django app
+2) From Django app update group of Collection created by User A to "EveryOne" (If not available create a group called "Everyone" and assign it) and save
+3) Now login to Blue print application Using any third account lets say User C and navigate to Collection created by User A</t>
+  </si>
+  <si>
+    <t>1) User should be logged in and must land on a dashboard Page.
+2) Group called "Everyone" should be assigned successfully to the collection.
+3) User C should be able to view collection in his/her dashboard and :
+-  do all the actions on Collection created by user a
+- see all Collections on the Dashboard created by User A as well
+- load any Collection or Cluster page
+- see list of all files through global Search
+- download records
+- preview file images
+- download any file.</t>
+  </si>
+  <si>
+    <t>Verify 5 user should be able to login to Blueprint application with correct username and password</t>
+  </si>
+  <si>
+    <t>Verify Login page in 5 new browser instance all incognito mode or private mode</t>
+  </si>
+  <si>
+    <t>Verify concurrent uses of the blueprint application over a 20-30 minutes timeframe</t>
+  </si>
+  <si>
+    <t>1) As a precondition, Start user browsing with 2-3 collections with 2-3 cluster each with 50-60 documents.
+2) User 1 - Create a new Collection with a Upload a mid-sized ZIP file (200MB).  
+3) Repeat (either with new Collection or existing collection) every 5 minutes.
+4) Verify admin email
+5) User 2 - Login as staff user and Go to one of the new Collections, create a Cluster and add files, Create an IngestPlan, preview a number of documents, Publish and Ingest the plan/documents.
+6) Repeat on additional documents  
+7) User 3 - View Collection Dashboard, click between Collections every 20 seconds or so Download the entire Collection every 4th or 5th time.
+8) User 4 - View a Collection, click between Clusters every 20 seconds or so.  Within a Cluster, click between 5-10 of the documents.
+9) User 5 - Execute a site search that returns at least 10 documents, wait 10 seconds.  View a Collection, perform a search that returns at least 10 documents, wait 10 seconds.  View a Cluster, perform a search for that returns at least 10 documents.</t>
+  </si>
+  <si>
+    <t>1) All 5 user should be albe to see all the clusters, collections and documents
+2) For user 1 Collection should be created as per the specs provided
+3) For every 5 minutes, collection should eiter be creted or be updated as per the users action provided without any error.
+4) For every action Admin Notification email should be received by user 1 at resonable amout of time.
+5) For User 2, cluster should be created, files should be added, Injest plan should be created, documents should be previewd and publishing should be success
+6) For every repeated action process should be successfully completed.
+7) For user 3, every time download is triggerred, all the files selected by users should be downloaded without any error.
+8) For User 4, for every click on the cluster's files, a preview should be generated in the UI without any lag.
+9) For user 5, every search action in collection level, cluster level and global dashboard level, result should be accurate without any issue. Lag during the search should be resonable and as less as possible.</t>
+  </si>
+  <si>
+    <t>Verify https uses valid certificate when any page in a new browser instance is open</t>
+  </si>
+  <si>
+    <t>1) New browser instance should be opened
+2) User should be albe to see login page
+3) Login form should be visible with Username, Password field and Sign In button
+4) HTTPS certifcate should be valid with proper expiration date. View site information (ie lock icon) in browser should not be seen in error</t>
+  </si>
+  <si>
+    <t>Verify that http in the url of the application is automatically converted to https when valid url is entered</t>
+  </si>
+  <si>
+    <t>1)  Open a browser in either Incognito mode or in new session by clearing all cache.
+2) Use following URL to open up login page:
+http://test.internal.noble.ai</t>
+  </si>
+  <si>
+    <t>1) New browser instance should be opened
+2) User should be albe to see login page
+3) Login form should be visible with Username, Password field and Sign In button
+4) http in the url should be converted to https automatically.
+5) HTTPS certifcate should be valid with proper expiration date. View site information (ie lock icon) in browser should not be seen in error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)  Open a browser in either Incognito mode or in new session by clearing all cache.
+2) Use following URL to open up login page:
+http://test.internal.noble.ai
+3) Use correct Username and password and click submit </t>
+  </si>
+  <si>
+    <t>1) New browser instance should be opened
+2) User should be albe to see a browser level pop up every time before user gets to see login page of the application.
+3) User should be able to land on Login page</t>
+  </si>
+  <si>
+    <t>1) New browser instance should be opened
+2) User should be albe to see a browser level pop up every time before user gets to see login page of the application.
+3) User should be able to land on Login page.</t>
+  </si>
+  <si>
+    <t>Verify that http auth (Basic authentication or browser level authentication) is available for every url request for /api</t>
+  </si>
+  <si>
+    <t>1) API Request app should be visible
+2) 404 not authorized message should be visible.
+3) Now user should be logged in and response json with value called "key" :"&lt;some key&gt;" should be visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)  Open any api testing app (for eg: postman).
+2) Set up all request(get/post etc what ever is required) and click submit for any api url of application
+3) Edit the request to send json payload with username and password and again click submit
+</t>
+  </si>
+  <si>
+    <t>Verify that http auth (Basic authentication or browser level authentication) is available for every url request including the deep link to Main Blueprint app</t>
+  </si>
+  <si>
+    <t>Verify that http auth (Basic authentication or browser level authentication) is available for every url request including the deep link to admin app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)  Open a browser in either Incognito mode or in new session by clearing all cache.
+2) Use following URL to open up login page:
+http://test.internal.noble.ai/admin
+3) Use correct Username and password and click submit </t>
+  </si>
+  <si>
+    <t>Verify that http auth (Basic authentication or browser level authentication) is available for every url request including the deep link to AI Training tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)  Open a browser in either Incognito mode or in new session by clearing all cache.
+2) Use following URL to open up login page:
+http://test.internal.noble.ai/organize
+3) Use correct Username and password and click submit </t>
+  </si>
+  <si>
+    <t>Verify that S3 buckets with files, RDS database and Redis cache are not accessed from outside world</t>
+  </si>
+  <si>
+    <t>1) Try to access  S3 buckets with files, RDS database and Redis cache from outside world, Out side the domain and from different ip address</t>
+  </si>
+  <si>
+    <t>1) in any circumstances, they should be accessilble.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify notification are available in AWS Security hub if there are any security vulnerabilities </t>
+  </si>
+  <si>
+    <t>1) Login to AWS Security Hub and check the notifications</t>
+  </si>
+  <si>
+    <t>1) If there are anby security threats then it should be visible in the notification area</t>
+  </si>
+  <si>
+    <t>Verify that system is not accessible via any penitration tests</t>
+  </si>
+  <si>
+    <t>1) Execute passive pen-test monitor on the site</t>
+  </si>
+  <si>
+    <t>1) Security Threats should not be present during tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)  Open a browser in either Incognito mode or in new session by clearing all cache.
+2) Use following URL to open up login page:
+http://test.internal.noble.ai
+3) Use correct Username and password and press tab and enter to submit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Use correct username and password for normal user and press tab and enter to submit </t>
+  </si>
+  <si>
+    <t>Verify that all functionalities of applications are working while user tired to use the site purely with keyboard</t>
+  </si>
+  <si>
+    <t>1) Press tab key multiple time and perfrom actions like typing and pressing enter keys all around the application as far as possible</t>
+  </si>
+  <si>
+    <t>1) For alt text and screen reader items verfiy:
+- font sizes / contrast should not be affected
+- for color-only feature designations (color blindness, visibility, etc.)</t>
+  </si>
+  <si>
+    <t>Verify that all tests in the smoke test checklist are passed for Windows OS</t>
+  </si>
+  <si>
+    <t>1) Open up the smoke test checklist and execute all test cases in it</t>
+  </si>
+  <si>
+    <t>1) All the testcases in the smoke test checklist should pass</t>
+  </si>
+  <si>
+    <t>Blueprint/AI Tool/ Django Application</t>
+  </si>
+  <si>
+    <t>All Application</t>
+  </si>
+  <si>
+    <t>Verify Login page in a new chrome browser instance in Windows Platform</t>
+  </si>
+  <si>
+    <t>Verify Login page in a new firefox browser instance in Windows Platform</t>
+  </si>
+  <si>
+    <t>Verify Login page in a new Safari browser instance in MAC Platform</t>
+  </si>
+  <si>
+    <t>Verify that all tests in the smoke test checklist are passed for MAC OS</t>
+  </si>
+  <si>
+    <t>Verify Login page in a new browser instance in iphone</t>
+  </si>
+  <si>
+    <t>Verify that all tests in the smoke test checklist are passed for iPhone</t>
+  </si>
+  <si>
+    <t>Verify Login page in a new browser instance in Android</t>
+  </si>
+  <si>
+    <t>Verify that all tests in the smoke test checklist are passed for Android</t>
+  </si>
+  <si>
+    <t>Windows+ Chrome</t>
+  </si>
+  <si>
+    <t>Windows+ Firefox</t>
+  </si>
+  <si>
+    <t>Mac + Safari</t>
+  </si>
+  <si>
+    <t>iPhone</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Non-Mac laptop and Laptop screen</t>
+  </si>
+  <si>
+    <t>Non-Mac laptop and TV Monitor with HDMI cable</t>
+  </si>
+  <si>
+    <t>Mac laptop and TV Monitor with HDMI cable</t>
+  </si>
+  <si>
+    <t>Resolution 1336x768</t>
+  </si>
+  <si>
+    <t>Resolution 1440x???</t>
+  </si>
+  <si>
+    <t>TC026</t>
+  </si>
+  <si>
+    <t>TC027</t>
+  </si>
+  <si>
+    <t>TC028</t>
+  </si>
+  <si>
+    <t>TC029</t>
+  </si>
+  <si>
+    <t>TC030</t>
   </si>
 </sst>
 </file>
@@ -2255,7 +2572,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2505,6 +2822,24 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2532,26 +2867,14 @@
     <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2562,29 +2885,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2597,7 +2945,791 @@
     <cellStyle name="Normal 2 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="112">
+  <dxfs count="224">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3399,20 +4531,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Summary Page"/>
-      <sheetName val="Smoke Test Checklist"/>
-      <sheetName val="Defect"/>
-      <sheetName val="Sumit"/>
-      <sheetName val="QM_List"/>
       <sheetName val="Info"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3741,7 +4863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -3765,7 +4887,7 @@
     </row>
     <row r="3" spans="1:55" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -3788,11 +4910,11 @@
       <c r="I4" s="33"/>
     </row>
     <row r="5" spans="1:55" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="103" t="s">
         <v>266</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="99"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="105"/>
       <c r="D5" s="58"/>
       <c r="E5" s="58"/>
       <c r="F5" s="58"/>
@@ -3805,8 +4927,8 @@
       <c r="A6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="103"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="50"/>
       <c r="P6" s="35"/>
     </row>
@@ -3814,8 +4936,8 @@
       <c r="A7" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="103"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="109"/>
       <c r="D7" s="51"/>
       <c r="P7" s="35"/>
     </row>
@@ -3823,8 +4945,8 @@
       <c r="A8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="103"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="109"/>
       <c r="D8" s="51"/>
       <c r="P8" s="35"/>
     </row>
@@ -3832,8 +4954,8 @@
       <c r="A9" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="103"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="109"/>
       <c r="D9" s="29"/>
       <c r="P9" s="35"/>
     </row>
@@ -3935,7 +5057,7 @@
     </row>
     <row r="12" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B12" s="60"/>
       <c r="C12" s="60"/>
@@ -4052,10 +5174,10 @@
       <c r="B14" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="110" t="s">
         <v>263</v>
       </c>
-      <c r="D14" s="105"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="52" t="s">
         <v>264</v>
       </c>
@@ -4119,10 +5241,10 @@
       <c r="B15" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="106" t="s">
         <v>267</v>
       </c>
-      <c r="D15" s="101"/>
+      <c r="D15" s="107"/>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
@@ -4176,8 +5298,8 @@
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="57"/>
       <c r="B16" s="55"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="107"/>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
@@ -4202,21 +5324,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E770E50-07CD-413E-AED0-C91E188B4592}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.42578125" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" customWidth="1"/>
     <col min="7" max="7" width="42.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
         <v>27</v>
       </c>
@@ -4229,7 +5352,7 @@
       <c r="H1" s="90"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
@@ -4262,7 +5385,7 @@
       <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="112" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="85"/>
@@ -4273,10 +5396,10 @@
         <v>275</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>279</v>
+        <v>514</v>
       </c>
       <c r="H3" s="87" t="s">
         <v>5</v>
@@ -4287,17 +5410,17 @@
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="109"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="85"/>
       <c r="D4" s="85"/>
       <c r="E4" s="65" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H4" s="87" t="s">
         <v>5</v>
@@ -4311,14 +5434,14 @@
       <c r="B5" s="11"/>
       <c r="C5" s="85"/>
       <c r="D5" s="85"/>
-      <c r="E5" s="121" t="s">
-        <v>452</v>
+      <c r="E5" s="100" t="s">
+        <v>449</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H5" s="67" t="s">
         <v>5</v>
@@ -4332,14 +5455,14 @@
       <c r="B6" s="11"/>
       <c r="C6" s="85"/>
       <c r="D6" s="85"/>
-      <c r="E6" s="121" t="s">
-        <v>452</v>
+      <c r="E6" s="100" t="s">
+        <v>449</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H6" s="67" t="s">
         <v>5</v>
@@ -4348,19 +5471,19 @@
     </row>
     <row r="7" spans="1:9" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="86"/>
       <c r="C7" s="85"/>
       <c r="D7" s="85"/>
-      <c r="E7" s="121" t="s">
-        <v>455</v>
+      <c r="E7" s="100" t="s">
+        <v>452</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H7" s="67" t="s">
         <v>5</v>
@@ -4373,71 +5496,71 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H6:H7">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="cellIs" dxfId="34" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="15" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="16" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="18" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="19" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="20" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="21" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="8" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="10" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="11" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="13" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="14" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4461,18 +5584,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B34DC5-3B1D-4F88-80C7-64FF85C66D8A}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.42578125" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" customWidth="1"/>
     <col min="7" max="7" width="42.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4488,7 +5612,7 @@
       <c r="H1" s="90"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
@@ -4517,11 +5641,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="112" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="85"/>
@@ -4532,10 +5656,10 @@
         <v>275</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>279</v>
+        <v>514</v>
       </c>
       <c r="H3" s="87" t="s">
         <v>5</v>
@@ -4546,17 +5670,17 @@
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="109"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="85"/>
       <c r="D4" s="85"/>
       <c r="E4" s="65" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H4" s="87" t="s">
         <v>5</v>
@@ -4571,13 +5695,13 @@
       <c r="C5" s="85"/>
       <c r="D5" s="85"/>
       <c r="E5" s="65" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H5" s="87" t="s">
         <v>5</v>
@@ -4591,14 +5715,14 @@
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="123" t="s">
-        <v>481</v>
+      <c r="E6" s="102" t="s">
+        <v>478</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H6" s="87" t="s">
         <v>5</v>
@@ -4607,19 +5731,19 @@
     </row>
     <row r="7" spans="1:9" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="123" t="s">
-        <v>483</v>
+      <c r="E7" s="102" t="s">
+        <v>480</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H7" s="87" t="s">
         <v>5</v>
@@ -4628,19 +5752,19 @@
     </row>
     <row r="8" spans="1:9" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A8" s="85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="102" t="s">
+        <v>483</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="G8" s="27" t="s">
         <v>486</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>488</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>489</v>
       </c>
       <c r="H8" s="87" t="s">
         <v>5</v>
@@ -4649,19 +5773,19 @@
     </row>
     <row r="9" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="123" t="s">
-        <v>490</v>
+      <c r="E9" s="102" t="s">
+        <v>487</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H9" s="87" t="s">
         <v>5</v>
@@ -4674,25 +5798,25 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H9">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4713,10 +5837,1919 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D912786-D8AD-44CE-A923-11DF1A3393A0}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="93" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="94" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A3" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98" t="s">
+        <v>550</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>542</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="H3" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="112"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="98" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>540</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>537</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="H5" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A6" s="98" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98" t="s">
+        <v>551</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>543</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="112"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="H7" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="98" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="86" t="s">
+        <v>540</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>537</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="H8" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A9" s="98" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98" t="s">
+        <v>552</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>544</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="H9" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="112"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="H10" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>540</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>545</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="H11" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A12" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98" t="s">
+        <v>553</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>546</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="H12" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="98" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" s="112"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="H13" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="98" t="s">
+        <v>286</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>540</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>547</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="H14" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A15" s="98" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98" t="s">
+        <v>554</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>548</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="H15" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="98" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" s="112"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="H16" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="98" t="s">
+        <v>289</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>540</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>549</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="H17" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A18" s="98" t="s">
+        <v>290</v>
+      </c>
+      <c r="B18" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98" t="s">
+        <v>555</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>548</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="H18" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="98" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" s="112"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="H19" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="98" t="s">
+        <v>292</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>540</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>549</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="H20" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A21" s="98" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98" t="s">
+        <v>556</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>548</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="H21" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="98" t="s">
+        <v>455</v>
+      </c>
+      <c r="B22" s="112"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="H22" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="98" t="s">
+        <v>456</v>
+      </c>
+      <c r="B23" s="86" t="s">
+        <v>540</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>549</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="H23" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A24" s="98" t="s">
+        <v>457</v>
+      </c>
+      <c r="B24" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98" t="s">
+        <v>557</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>548</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="H24" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="98" t="s">
+        <v>458</v>
+      </c>
+      <c r="B25" s="112"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="H25" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="98" t="s">
+        <v>459</v>
+      </c>
+      <c r="B26" s="86" t="s">
+        <v>540</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>549</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="H26" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A27" s="98" t="s">
+        <v>460</v>
+      </c>
+      <c r="B27" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98" t="s">
+        <v>558</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>548</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="H27" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="98" t="s">
+        <v>560</v>
+      </c>
+      <c r="B28" s="112"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="H28" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="98" t="s">
+        <v>561</v>
+      </c>
+      <c r="B29" s="86" t="s">
+        <v>540</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="E29" s="65" t="s">
+        <v>549</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="H29" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A30" s="98" t="s">
+        <v>562</v>
+      </c>
+      <c r="B30" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98" t="s">
+        <v>559</v>
+      </c>
+      <c r="E30" s="65" t="s">
+        <v>548</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="H30" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="98" t="s">
+        <v>563</v>
+      </c>
+      <c r="B31" s="112"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="H31" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="27"/>
+    </row>
+    <row r="32" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="98" t="s">
+        <v>564</v>
+      </c>
+      <c r="B32" s="86" t="s">
+        <v>540</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="E32" s="65" t="s">
+        <v>549</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="H32" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B16"/>
+  </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <conditionalFormatting sqref="H3:H5">
+    <cfRule type="cellIs" dxfId="83" priority="78" operator="equal">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="79" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="80" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="82" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="83" operator="equal">
+      <formula>"Partially Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="84" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H8">
+    <cfRule type="cellIs" dxfId="62" priority="57" operator="equal">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="58" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="59" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="61" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="62" operator="equal">
+      <formula>"Partially Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="63" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H11">
+    <cfRule type="cellIs" dxfId="55" priority="50" operator="equal">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="51" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
+      <formula>"Partially Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="56" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H14">
+    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
+      <formula>"Partially Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:H17">
+    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
+      <formula>"Partially Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H20">
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
+      <formula>"Partially Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:H23">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+      <formula>"Partially Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:H26">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+      <formula>"Partially Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:H29">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+      <formula>"Partially Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:H32">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"Partially Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A788DD08-35F4-4849-975C-51A2B96EC683}">
+          <x14:formula1>
+            <xm:f>Info!$A$3:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H32</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB3BBFD-A251-4E1C-A5B0-C0BFF5C676D1}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="93" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="94" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A3" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="H3" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="112"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" ht="280.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="98" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="65" t="s">
+        <v>492</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>491</v>
+      </c>
+      <c r="H5" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="A6" s="98" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="65" t="s">
+        <v>493</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="102" t="s">
+        <v>496</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="H7" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="98" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="102" t="s">
+        <v>499</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="H8" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <conditionalFormatting sqref="H3:H8">
+    <cfRule type="cellIs" dxfId="125" priority="1" operator="equal">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="2" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="3" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="4" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="5" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="6" operator="equal">
+      <formula>"Partially Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="7" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B7B61F1A-7ADB-44EB-A2C4-96C6DCE858AD}">
+          <x14:formula1>
+            <xm:f>Info!$A$3:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F19A89-CD4F-45CE-B00A-FA55D60DADCB}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="93" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="94" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A3" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>503</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="H3" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="112"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" ht="382.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="98" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65" t="s">
+        <v>504</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="H5" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <conditionalFormatting sqref="H3:H5">
+    <cfRule type="cellIs" dxfId="118" priority="1" operator="equal">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="2" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="3" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="4" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="5" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="6" operator="equal">
+      <formula>"Partially Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="7" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8266F2AD-6BC2-4EE3-80D3-4224E2F889B7}">
+          <x14:formula1>
+            <xm:f>Info!$A$3:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230FFEBC-2D28-4B3D-8927-5BB4A64E5951}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="128"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="130" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="131" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="131" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="133" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+      <c r="A3" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="98"/>
+      <c r="D3" s="124" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>518</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="H3" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="134"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="65" t="s">
+        <v>507</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="H4" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="98" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="125"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="65" t="s">
+        <v>509</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="H5" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A6" s="98" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="65" t="s">
+        <v>519</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A7" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="65" t="s">
+        <v>521</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="H7" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="98" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="65" t="s">
+        <v>515</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>516</v>
+      </c>
+      <c r="H8" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="98" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="102" t="s">
+        <v>523</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>524</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="H9" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="102" t="s">
+        <v>526</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="H10" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="102" t="s">
+        <v>529</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>531</v>
+      </c>
+      <c r="H11" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D3:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <conditionalFormatting sqref="H3:H11">
+    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="2" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="3" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="6" operator="equal">
+      <formula>"Partially Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="7" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{365382CB-E5EF-4E2B-9320-9600DC13F802}">
+          <x14:formula1>
+            <xm:f>Info!$A$3:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FF152D-F7C3-4B14-8630-4C058BA2AAA3}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="93" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="94" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A3" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>532</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="H3" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="112"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+      <c r="A5" s="98" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="65" t="s">
+        <v>534</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>535</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>536</v>
+      </c>
+      <c r="H5" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <conditionalFormatting sqref="H3:H5">
+    <cfRule type="cellIs" dxfId="97" priority="1" operator="equal">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="2" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="3" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="4" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="5" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="6" operator="equal">
+      <formula>"Partially Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="7" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2AAA5A02-EEDE-4751-9546-8138ADF1EBCA}">
+          <x14:formula1>
+            <xm:f>Info!$A$3:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="87" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4798,20 +7831,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P188"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13" style="31" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="17" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="31" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5703125" style="66" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" style="41" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="41" customWidth="1"/>
     <col min="7" max="7" width="38.85546875" style="32" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="31" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" style="32" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" style="32" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="32"/>
@@ -4830,7 +7864,7 @@
       <c r="H1" s="90"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
@@ -4861,25 +7895,25 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="29" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="112" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="85"/>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="97" t="s">
         <v>273</v>
       </c>
       <c r="E3" s="65" t="s">
         <v>275</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>310</v>
+        <v>512</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>279</v>
+        <v>513</v>
       </c>
       <c r="H3" s="67" t="s">
         <v>5</v>
@@ -4890,19 +7924,19 @@
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="109"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="85"/>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="112" t="s">
         <v>260</v>
       </c>
       <c r="E4" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>298</v>
-      </c>
       <c r="G4" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H4" s="67" t="s">
         <v>5</v>
@@ -4915,17 +7949,17 @@
       <c r="A5" s="85" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="109"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="85"/>
-      <c r="D5" s="109"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="65" t="s">
+        <v>298</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>300</v>
-      </c>
       <c r="G5" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H5" s="67" t="s">
         <v>5</v>
@@ -4937,17 +7971,17 @@
       <c r="A6" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="109"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="85"/>
-      <c r="D6" s="109"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>302</v>
-      </c>
       <c r="G6" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H6" s="67" t="s">
         <v>5</v>
@@ -4956,19 +7990,19 @@
     </row>
     <row r="7" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="B7" s="109"/>
+        <v>279</v>
+      </c>
+      <c r="B7" s="112"/>
       <c r="C7" s="85"/>
-      <c r="D7" s="109"/>
+      <c r="D7" s="112"/>
       <c r="E7" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>304</v>
-      </c>
       <c r="G7" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H7" s="67" t="s">
         <v>5</v>
@@ -4977,19 +8011,19 @@
     </row>
     <row r="8" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="85" t="s">
-        <v>281</v>
-      </c>
-      <c r="B8" s="109"/>
+        <v>280</v>
+      </c>
+      <c r="B8" s="112"/>
       <c r="C8" s="85"/>
-      <c r="D8" s="109"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F8" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" s="27" t="s">
         <v>307</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>308</v>
       </c>
       <c r="H8" s="67" t="s">
         <v>5</v>
@@ -4998,21 +8032,21 @@
     </row>
     <row r="9" spans="1:11" s="29" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A9" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B9" s="85" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="86"/>
       <c r="E9" s="65" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H9" s="67" t="s">
         <v>5</v>
@@ -5021,21 +8055,21 @@
     </row>
     <row r="10" spans="1:11" s="29" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="85" t="s">
-        <v>283</v>
-      </c>
-      <c r="B10" s="109" t="s">
-        <v>344</v>
+        <v>282</v>
+      </c>
+      <c r="B10" s="112" t="s">
+        <v>341</v>
       </c>
       <c r="C10" s="85"/>
       <c r="D10" s="86"/>
       <c r="E10" s="65" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H10" s="67" t="s">
         <v>5</v>
@@ -5044,19 +8078,19 @@
     </row>
     <row r="11" spans="1:11" s="29" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A11" s="85" t="s">
-        <v>284</v>
-      </c>
-      <c r="B11" s="109"/>
+        <v>283</v>
+      </c>
+      <c r="B11" s="112"/>
       <c r="C11" s="85"/>
       <c r="D11" s="85"/>
       <c r="E11" s="65" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H11" s="67" t="s">
         <v>5</v>
@@ -5065,21 +8099,21 @@
     </row>
     <row r="12" spans="1:11" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A12" s="85" t="s">
-        <v>285</v>
-      </c>
-      <c r="B12" s="109" t="s">
-        <v>348</v>
+        <v>284</v>
+      </c>
+      <c r="B12" s="112" t="s">
+        <v>345</v>
       </c>
       <c r="C12" s="85"/>
       <c r="D12" s="85"/>
       <c r="E12" s="65" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H12" s="67" t="s">
         <v>5</v>
@@ -5088,19 +8122,19 @@
     </row>
     <row r="13" spans="1:11" s="29" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A13" s="85" t="s">
-        <v>286</v>
-      </c>
-      <c r="B13" s="109"/>
+        <v>285</v>
+      </c>
+      <c r="B13" s="112"/>
       <c r="C13" s="85"/>
       <c r="D13" s="85"/>
       <c r="E13" s="65" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H13" s="67" t="s">
         <v>5</v>
@@ -5109,21 +8143,21 @@
     </row>
     <row r="14" spans="1:11" s="29" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="85" t="s">
-        <v>287</v>
-      </c>
-      <c r="B14" s="120" t="s">
-        <v>433</v>
-      </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="121" t="s">
-        <v>429</v>
+        <v>286</v>
+      </c>
+      <c r="B14" s="114" t="s">
+        <v>430</v>
+      </c>
+      <c r="C14" s="99"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="100" t="s">
+        <v>426</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H14" s="67" t="s">
         <v>5</v>
@@ -5132,19 +8166,19 @@
     </row>
     <row r="15" spans="1:11" s="29" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A15" s="85" t="s">
-        <v>288</v>
-      </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="121" t="s">
-        <v>430</v>
+        <v>287</v>
+      </c>
+      <c r="B15" s="114"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="100" t="s">
+        <v>427</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H15" s="67" t="s">
         <v>5</v>
@@ -5153,19 +8187,19 @@
     </row>
     <row r="16" spans="1:11" s="29" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A16" s="85" t="s">
-        <v>289</v>
-      </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
+        <v>288</v>
+      </c>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="85"/>
-      <c r="E16" s="121" t="s">
-        <v>434</v>
+      <c r="E16" s="100" t="s">
+        <v>431</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H16" s="67" t="s">
         <v>5</v>
@@ -5174,19 +8208,19 @@
     </row>
     <row r="17" spans="1:9" s="29" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="85" t="s">
-        <v>290</v>
-      </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
+        <v>289</v>
+      </c>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
       <c r="D17" s="85"/>
-      <c r="E17" s="121" t="s">
-        <v>437</v>
+      <c r="E17" s="100" t="s">
+        <v>434</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H17" s="67" t="s">
         <v>5</v>
@@ -5195,19 +8229,19 @@
     </row>
     <row r="18" spans="1:9" s="29" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="85" t="s">
-        <v>291</v>
-      </c>
-      <c r="B18" s="119"/>
+        <v>290</v>
+      </c>
+      <c r="B18" s="99"/>
       <c r="C18" s="85"/>
       <c r="D18" s="85"/>
-      <c r="E18" s="121" t="s">
-        <v>440</v>
+      <c r="E18" s="100" t="s">
+        <v>437</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H18" s="67" t="s">
         <v>5</v>
@@ -5216,19 +8250,19 @@
     </row>
     <row r="19" spans="1:9" s="29" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A19" s="85" t="s">
-        <v>292</v>
-      </c>
-      <c r="B19" s="122"/>
-      <c r="C19" s="119"/>
+        <v>291</v>
+      </c>
+      <c r="B19" s="101"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="85"/>
-      <c r="E19" s="121" t="s">
-        <v>443</v>
+      <c r="E19" s="100" t="s">
+        <v>440</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H19" s="67" t="s">
         <v>5</v>
@@ -5237,19 +8271,19 @@
     </row>
     <row r="20" spans="1:9" s="29" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A20" s="85" t="s">
-        <v>293</v>
-      </c>
-      <c r="B20" s="120"/>
+        <v>292</v>
+      </c>
+      <c r="B20" s="114"/>
       <c r="C20" s="85"/>
       <c r="D20" s="85"/>
-      <c r="E20" s="121" t="s">
-        <v>446</v>
+      <c r="E20" s="100" t="s">
+        <v>443</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H20" s="67" t="s">
         <v>5</v>
@@ -5258,19 +8292,19 @@
     </row>
     <row r="21" spans="1:9" s="29" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A21" s="85" t="s">
-        <v>294</v>
-      </c>
-      <c r="B21" s="120"/>
+        <v>293</v>
+      </c>
+      <c r="B21" s="114"/>
       <c r="C21" s="85"/>
       <c r="D21" s="85"/>
-      <c r="E21" s="121" t="s">
-        <v>449</v>
+      <c r="E21" s="100" t="s">
+        <v>446</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H21" s="67" t="s">
         <v>5</v>
@@ -5279,9 +8313,9 @@
     </row>
     <row r="22" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="69"/>
-      <c r="B22" s="108"/>
+      <c r="B22" s="113"/>
       <c r="C22" s="69"/>
-      <c r="D22" s="108"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="70"/>
       <c r="F22" s="71"/>
       <c r="G22" s="71"/>
@@ -5290,9 +8324,9 @@
     </row>
     <row r="23" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="69"/>
-      <c r="B23" s="108"/>
+      <c r="B23" s="113"/>
       <c r="C23" s="69"/>
-      <c r="D23" s="108"/>
+      <c r="D23" s="113"/>
       <c r="E23" s="70"/>
       <c r="F23" s="71"/>
       <c r="G23" s="71"/>
@@ -7156,25 +10190,25 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H180">
-    <cfRule type="cellIs" dxfId="111" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="576" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="577" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="578" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="579" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="579" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="580" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="581" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="582" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="582" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7199,21 +10233,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA1E451-9EE1-4580-98F0-FF9558325769}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="88" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="88" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="88" customWidth="1"/>
+    <col min="1" max="1" width="17" style="88" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="88" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="88" customWidth="1"/>
     <col min="5" max="5" width="44.42578125" style="88" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" style="88" customWidth="1"/>
     <col min="7" max="7" width="42.140625" style="88" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="88" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="88" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="88"/>
   </cols>
   <sheetData>
@@ -7230,7 +10264,7 @@
       <c r="H1" s="61"/>
       <c r="I1" s="42"/>
     </row>
-    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>19</v>
       </c>
@@ -7259,11 +10293,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="112" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="84"/>
@@ -7274,10 +10308,10 @@
         <v>275</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>311</v>
+        <v>512</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>279</v>
+        <v>513</v>
       </c>
       <c r="H3" s="87" t="s">
         <v>5</v>
@@ -7288,19 +10322,19 @@
       <c r="A4" s="84" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="109"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="84"/>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="112" t="s">
         <v>260</v>
       </c>
       <c r="E4" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>298</v>
-      </c>
       <c r="G4" s="27" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H4" s="87" t="s">
         <v>5</v>
@@ -7311,17 +10345,17 @@
       <c r="A5" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="109"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="84"/>
-      <c r="D5" s="109"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="65" t="s">
+        <v>298</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>300</v>
-      </c>
       <c r="G5" s="27" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H5" s="87" t="s">
         <v>5</v>
@@ -7332,17 +10366,17 @@
       <c r="A6" s="84" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="109"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="84"/>
-      <c r="D6" s="109"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>302</v>
-      </c>
       <c r="G6" s="27" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H6" s="87" t="s">
         <v>5</v>
@@ -7351,19 +10385,19 @@
     </row>
     <row r="7" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="B7" s="109"/>
+        <v>279</v>
+      </c>
+      <c r="B7" s="112"/>
       <c r="C7" s="84"/>
-      <c r="D7" s="109"/>
+      <c r="D7" s="112"/>
       <c r="E7" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>304</v>
-      </c>
       <c r="G7" s="27" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H7" s="87" t="s">
         <v>5</v>
@@ -7372,19 +10406,19 @@
     </row>
     <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="84" t="s">
-        <v>281</v>
-      </c>
-      <c r="B8" s="109"/>
+        <v>280</v>
+      </c>
+      <c r="B8" s="112"/>
       <c r="C8" s="84"/>
       <c r="D8" s="84"/>
       <c r="E8" s="65" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H8" s="87" t="s">
         <v>5</v>
@@ -7393,21 +10427,21 @@
     </row>
     <row r="9" spans="1:9" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A9" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C9" s="84"/>
       <c r="D9" s="86"/>
       <c r="E9" s="65" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H9" s="67" t="s">
         <v>5</v>
@@ -7420,48 +10454,48 @@
     <mergeCell ref="D4:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H8">
-    <cfRule type="cellIs" dxfId="104" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="8" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="10" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="11" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="13" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="14" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="97" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7735,15 +10769,15 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="112"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="113"/>
+      <c r="B3" s="115"/>
       <c r="C3" s="11" t="s">
         <v>93</v>
       </c>
@@ -7753,7 +10787,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="11" t="s">
         <v>95</v>
       </c>
@@ -7763,7 +10797,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="115"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="11" t="s">
         <v>97</v>
       </c>
@@ -7773,15 +10807,15 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
-      <c r="B7" s="113"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="11" t="s">
         <v>99</v>
       </c>
@@ -7791,7 +10825,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="114"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="11" t="s">
         <v>101</v>
       </c>
@@ -7802,7 +10836,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="114"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="11" t="s">
         <v>103</v>
       </c>
@@ -7812,7 +10846,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="114"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="11" t="s">
         <v>105</v>
       </c>
@@ -7822,7 +10856,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="114"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="11" t="s">
         <v>106</v>
       </c>
@@ -7832,7 +10866,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="114"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="18" t="s">
         <v>107</v>
       </c>
@@ -7842,16 +10876,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="114"/>
+      <c r="B14" s="116"/>
       <c r="C14" s="19" t="s">
         <v>108</v>
       </c>
@@ -7861,7 +10895,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="114"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="11" t="s">
         <v>110</v>
       </c>
@@ -7871,7 +10905,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="114"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="11" t="s">
         <v>112</v>
       </c>
@@ -7881,7 +10915,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="114"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="11" t="s">
         <v>114</v>
       </c>
@@ -7891,7 +10925,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="114"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="11" t="s">
         <v>116</v>
       </c>
@@ -7901,7 +10935,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="114"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="11" t="s">
         <v>118</v>
       </c>
@@ -7911,7 +10945,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="115"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="11" t="s">
         <v>119</v>
       </c>
@@ -7921,15 +10955,15 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="113"/>
+      <c r="B22" s="115"/>
       <c r="C22" s="11" t="s">
         <v>120</v>
       </c>
@@ -7939,7 +10973,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="114"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="11" t="s">
         <v>122</v>
       </c>
@@ -7949,7 +10983,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="114"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="11" t="s">
         <v>124</v>
       </c>
@@ -7959,7 +10993,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="114"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="11" t="s">
         <v>126</v>
       </c>
@@ -7969,7 +11003,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="114"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="11" t="s">
         <v>127</v>
       </c>
@@ -7979,7 +11013,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="114"/>
+      <c r="B27" s="116"/>
       <c r="C27" s="11" t="s">
         <v>129</v>
       </c>
@@ -7989,7 +11023,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="114"/>
+      <c r="B28" s="116"/>
       <c r="C28" s="11" t="s">
         <v>131</v>
       </c>
@@ -7999,7 +11033,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="114"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="11" t="s">
         <v>132</v>
       </c>
@@ -8009,7 +11043,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
-      <c r="B30" s="114"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="16" t="s">
         <v>133</v>
       </c>
@@ -8019,7 +11053,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="114"/>
+      <c r="B31" s="116"/>
       <c r="C31" s="16" t="s">
         <v>134</v>
       </c>
@@ -8029,7 +11063,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="114"/>
+      <c r="B32" s="116"/>
       <c r="C32" s="16" t="s">
         <v>135</v>
       </c>
@@ -8039,7 +11073,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
-      <c r="B33" s="114"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="16" t="s">
         <v>136</v>
       </c>
@@ -8049,7 +11083,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
-      <c r="B34" s="114"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="16" t="s">
         <v>137</v>
       </c>
@@ -8059,7 +11093,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
-      <c r="B35" s="114"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="16" t="s">
         <v>138</v>
       </c>
@@ -8069,7 +11103,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="114"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="16" t="s">
         <v>139</v>
       </c>
@@ -8079,7 +11113,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
-      <c r="B37" s="115"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="16" t="s">
         <v>140</v>
       </c>
@@ -8089,15 +11123,15 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
-      <c r="B38" s="116" t="s">
+      <c r="B38" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
-      <c r="B39" s="113"/>
+      <c r="B39" s="115"/>
       <c r="C39" s="11" t="s">
         <v>141</v>
       </c>
@@ -8107,7 +11141,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
-      <c r="B40" s="114"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="11" t="s">
         <v>143</v>
       </c>
@@ -8117,7 +11151,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
-      <c r="B41" s="114"/>
+      <c r="B41" s="116"/>
       <c r="C41" s="11" t="s">
         <v>145</v>
       </c>
@@ -8127,7 +11161,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
-      <c r="B42" s="114"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="11" t="s">
         <v>147</v>
       </c>
@@ -8137,7 +11171,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
-      <c r="B43" s="114"/>
+      <c r="B43" s="116"/>
       <c r="C43" s="11" t="s">
         <v>149</v>
       </c>
@@ -8147,7 +11181,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
-      <c r="B44" s="114"/>
+      <c r="B44" s="116"/>
       <c r="C44" s="11" t="s">
         <v>151</v>
       </c>
@@ -8157,7 +11191,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="B45" s="114"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="11" t="s">
         <v>152</v>
       </c>
@@ -8167,7 +11201,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
-      <c r="B46" s="114"/>
+      <c r="B46" s="116"/>
       <c r="C46" s="11" t="s">
         <v>153</v>
       </c>
@@ -8177,7 +11211,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
-      <c r="B47" s="114"/>
+      <c r="B47" s="116"/>
       <c r="C47" s="11" t="s">
         <v>154</v>
       </c>
@@ -8187,7 +11221,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
-      <c r="B48" s="114"/>
+      <c r="B48" s="116"/>
       <c r="C48" s="11" t="s">
         <v>155</v>
       </c>
@@ -8197,7 +11231,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
-      <c r="B49" s="114"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="11" t="s">
         <v>156</v>
       </c>
@@ -8207,7 +11241,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
-      <c r="B50" s="114"/>
+      <c r="B50" s="116"/>
       <c r="C50" s="11" t="s">
         <v>157</v>
       </c>
@@ -8217,7 +11251,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
-      <c r="B51" s="114"/>
+      <c r="B51" s="116"/>
       <c r="C51" s="18" t="s">
         <v>158</v>
       </c>
@@ -8227,15 +11261,15 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
-      <c r="B52" s="116" t="s">
+      <c r="B52" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
+      <c r="C52" s="123"/>
+      <c r="D52" s="123"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
-      <c r="B53" s="114"/>
+      <c r="B53" s="116"/>
       <c r="C53" s="19" t="s">
         <v>159</v>
       </c>
@@ -8245,7 +11279,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
-      <c r="B54" s="114"/>
+      <c r="B54" s="116"/>
       <c r="C54" s="11" t="s">
         <v>161</v>
       </c>
@@ -8255,7 +11289,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
-      <c r="B55" s="114"/>
+      <c r="B55" s="116"/>
       <c r="C55" s="11" t="s">
         <v>162</v>
       </c>
@@ -8265,7 +11299,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
-      <c r="B56" s="115"/>
+      <c r="B56" s="117"/>
       <c r="C56" s="11" t="s">
         <v>163</v>
       </c>
@@ -8275,15 +11309,15 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
-      <c r="B57" s="117" t="s">
+      <c r="B57" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="118"/>
-      <c r="D57" s="112"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="120"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
-      <c r="B58" s="113"/>
+      <c r="B58" s="115"/>
       <c r="C58" s="11" t="s">
         <v>164</v>
       </c>
@@ -8293,7 +11327,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
-      <c r="B59" s="114"/>
+      <c r="B59" s="116"/>
       <c r="C59" s="11" t="s">
         <v>166</v>
       </c>
@@ -8303,7 +11337,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
-      <c r="B60" s="115"/>
+      <c r="B60" s="117"/>
       <c r="C60" s="11" t="s">
         <v>168</v>
       </c>
@@ -8320,7 +11354,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
-      <c r="B62" s="113"/>
+      <c r="B62" s="115"/>
       <c r="C62" s="11" t="s">
         <v>170</v>
       </c>
@@ -8330,7 +11364,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
-      <c r="B63" s="114"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="11" t="s">
         <v>171</v>
       </c>
@@ -8340,7 +11374,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
-      <c r="B64" s="114"/>
+      <c r="B64" s="116"/>
       <c r="C64" s="11" t="s">
         <v>172</v>
       </c>
@@ -8350,7 +11384,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
-      <c r="B65" s="115"/>
+      <c r="B65" s="117"/>
       <c r="C65" s="11" t="s">
         <v>173</v>
       </c>
@@ -8360,15 +11394,15 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
-      <c r="B66" s="117" t="s">
+      <c r="B66" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="118"/>
-      <c r="D66" s="112"/>
+      <c r="C66" s="119"/>
+      <c r="D66" s="120"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
-      <c r="B67" s="113"/>
+      <c r="B67" s="115"/>
       <c r="C67" s="11" t="s">
         <v>174</v>
       </c>
@@ -8378,7 +11412,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
-      <c r="B68" s="115"/>
+      <c r="B68" s="117"/>
       <c r="C68" s="11" t="s">
         <v>175</v>
       </c>
@@ -8388,15 +11422,15 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
-      <c r="B69" s="117" t="s">
+      <c r="B69" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="118"/>
-      <c r="D69" s="112"/>
+      <c r="C69" s="119"/>
+      <c r="D69" s="120"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
-      <c r="B70" s="113"/>
+      <c r="B70" s="115"/>
       <c r="C70" s="11" t="s">
         <v>176</v>
       </c>
@@ -8406,7 +11440,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
-      <c r="B71" s="114"/>
+      <c r="B71" s="116"/>
       <c r="C71" s="11" t="s">
         <v>177</v>
       </c>
@@ -8416,7 +11450,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
-      <c r="B72" s="114"/>
+      <c r="B72" s="116"/>
       <c r="C72" s="11" t="s">
         <v>178</v>
       </c>
@@ -8426,7 +11460,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
-      <c r="B73" s="115"/>
+      <c r="B73" s="117"/>
       <c r="C73" s="11" t="s">
         <v>179</v>
       </c>
@@ -8436,11 +11470,11 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
-      <c r="B74" s="117" t="s">
+      <c r="B74" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="C74" s="118"/>
-      <c r="D74" s="112"/>
+      <c r="C74" s="119"/>
+      <c r="D74" s="120"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
@@ -8684,15 +11718,15 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
-      <c r="B99" s="117" t="s">
+      <c r="B99" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="C99" s="118"/>
-      <c r="D99" s="112"/>
+      <c r="C99" s="119"/>
+      <c r="D99" s="120"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
-      <c r="B100" s="113"/>
+      <c r="B100" s="115"/>
       <c r="C100" s="11" t="s">
         <v>205</v>
       </c>
@@ -8702,7 +11736,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
-      <c r="B101" s="114"/>
+      <c r="B101" s="116"/>
       <c r="C101" s="11" t="s">
         <v>207</v>
       </c>
@@ -8712,7 +11746,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
-      <c r="B102" s="114"/>
+      <c r="B102" s="116"/>
       <c r="C102" s="11" t="s">
         <v>209</v>
       </c>
@@ -8722,7 +11756,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
-      <c r="B103" s="115"/>
+      <c r="B103" s="117"/>
       <c r="C103" s="11" t="s">
         <v>211</v>
       </c>
@@ -8732,11 +11766,11 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
-      <c r="B104" s="110" t="s">
+      <c r="B104" s="121" t="s">
         <v>251</v>
       </c>
-      <c r="C104" s="111"/>
-      <c r="D104" s="112"/>
+      <c r="C104" s="122"/>
+      <c r="D104" s="120"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
@@ -8750,13 +11784,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B67:B68"/>
     <mergeCell ref="B104:D104"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="B3:B5"/>
@@ -8773,6 +11800,13 @@
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B39:B51"/>
     <mergeCell ref="B22:B37"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B67:B68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8782,7 +11816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA19C67-752A-472F-AD15-5D8BD8C3D4F5}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -8791,12 +11825,13 @@
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -8812,7 +11847,7 @@
       <c r="H1" s="90"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
@@ -8841,11 +11876,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="112" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="84"/>
@@ -8856,10 +11891,10 @@
         <v>275</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>311</v>
+        <v>512</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>279</v>
+        <v>513</v>
       </c>
       <c r="H3" s="87" t="s">
         <v>5</v>
@@ -8870,17 +11905,17 @@
       <c r="A4" s="84" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="109"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="84"/>
       <c r="D4" s="84"/>
       <c r="E4" s="65" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H4" s="87" t="s">
         <v>5</v>
@@ -8895,13 +11930,13 @@
       <c r="C5" s="11"/>
       <c r="D5" s="84"/>
       <c r="E5" s="65" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H5" s="87" t="s">
         <v>5</v>
@@ -8916,13 +11951,13 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="65" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H6" s="87" t="s">
         <v>5</v>
@@ -8931,19 +11966,19 @@
     </row>
     <row r="7" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A7" s="84" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="F7" s="27" t="s">
-        <v>341</v>
-      </c>
       <c r="G7" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H7" s="87" t="s">
         <v>5</v>
@@ -8952,19 +11987,19 @@
     </row>
     <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A8" s="84" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="G8" s="27" t="s">
         <v>340</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>343</v>
       </c>
       <c r="H8" s="87" t="s">
         <v>5</v>
@@ -8973,19 +12008,19 @@
     </row>
     <row r="9" spans="1:9" ht="153" x14ac:dyDescent="0.25">
       <c r="A9" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="65" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H9" s="87" t="s">
         <v>5</v>
@@ -8994,19 +12029,19 @@
     </row>
     <row r="10" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A10" s="84" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="65" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H10" s="87" t="s">
         <v>5</v>
@@ -9018,25 +12053,25 @@
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H10">
-    <cfRule type="cellIs" dxfId="90" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9061,21 +12096,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5313B247-095E-44A1-80B6-8021924599DC}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="87" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.42578125" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" customWidth="1"/>
     <col min="7" max="7" width="42.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
         <v>27</v>
       </c>
@@ -9088,7 +12126,7 @@
       <c r="H1" s="90"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
@@ -9117,11 +12155,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="112" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="84"/>
@@ -9132,10 +12170,10 @@
         <v>275</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>311</v>
+        <v>512</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>279</v>
+        <v>514</v>
       </c>
       <c r="H3" s="87" t="s">
         <v>5</v>
@@ -9146,17 +12184,17 @@
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="109"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="84"/>
       <c r="D4" s="84"/>
       <c r="E4" s="65" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H4" s="87" t="s">
         <v>5</v>
@@ -9167,19 +12205,19 @@
       <c r="A5" s="85" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="109" t="s">
-        <v>400</v>
+      <c r="B5" s="112" t="s">
+        <v>397</v>
       </c>
       <c r="C5" s="85"/>
       <c r="D5" s="85"/>
       <c r="E5" s="26" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H5" s="87" t="s">
         <v>5</v>
@@ -9190,17 +12228,17 @@
       <c r="A6" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="109"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="85"/>
       <c r="D6" s="85"/>
       <c r="E6" s="96" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H6" s="87" t="s">
         <v>5</v>
@@ -9209,21 +12247,21 @@
     </row>
     <row r="7" spans="1:9" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="B7" s="109"/>
+        <v>279</v>
+      </c>
+      <c r="B7" s="112"/>
       <c r="C7" s="85"/>
       <c r="D7" s="85" t="s">
         <v>273</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F7" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>357</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>360</v>
       </c>
       <c r="H7" s="87" t="s">
         <v>5</v>
@@ -9232,19 +12270,19 @@
     </row>
     <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A8" s="85" t="s">
-        <v>281</v>
-      </c>
-      <c r="B8" s="109"/>
+        <v>280</v>
+      </c>
+      <c r="B8" s="112"/>
       <c r="C8" s="85"/>
       <c r="D8" s="85"/>
       <c r="E8" s="26" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H8" s="87" t="s">
         <v>5</v>
@@ -9253,19 +12291,19 @@
     </row>
     <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A9" s="85" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" s="109"/>
+        <v>281</v>
+      </c>
+      <c r="B9" s="112"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="26" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H9" s="87" t="s">
         <v>5</v>
@@ -9274,19 +12312,19 @@
     </row>
     <row r="10" spans="1:9" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A10" s="85" t="s">
-        <v>283</v>
-      </c>
-      <c r="B10" s="109"/>
+        <v>282</v>
+      </c>
+      <c r="B10" s="112"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>365</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>368</v>
       </c>
       <c r="H10" s="87" t="s">
         <v>5</v>
@@ -9295,19 +12333,19 @@
     </row>
     <row r="11" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A11" s="85" t="s">
-        <v>284</v>
-      </c>
-      <c r="B11" s="109"/>
+        <v>283</v>
+      </c>
+      <c r="B11" s="112"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>367</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>370</v>
       </c>
       <c r="H11" s="87" t="s">
         <v>5</v>
@@ -9316,19 +12354,19 @@
     </row>
     <row r="12" spans="1:9" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A12" s="85" t="s">
-        <v>285</v>
-      </c>
-      <c r="B12" s="109"/>
+        <v>284</v>
+      </c>
+      <c r="B12" s="112"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="96" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H12" s="87" t="s">
         <v>5</v>
@@ -9337,19 +12375,19 @@
     </row>
     <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A13" s="85" t="s">
-        <v>286</v>
-      </c>
-      <c r="B13" s="109"/>
+        <v>285</v>
+      </c>
+      <c r="B13" s="112"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="96" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H13" s="87" t="s">
         <v>5</v>
@@ -9358,19 +12396,19 @@
     </row>
     <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="85" t="s">
-        <v>287</v>
-      </c>
-      <c r="B14" s="109"/>
+        <v>286</v>
+      </c>
+      <c r="B14" s="112"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="96" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H14" s="87" t="s">
         <v>5</v>
@@ -9379,19 +12417,19 @@
     </row>
     <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="85" t="s">
-        <v>288</v>
-      </c>
-      <c r="B15" s="109"/>
+        <v>287</v>
+      </c>
+      <c r="B15" s="112"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="96" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H15" s="87" t="s">
         <v>5</v>
@@ -9400,19 +12438,19 @@
     </row>
     <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A16" s="85" t="s">
-        <v>289</v>
-      </c>
-      <c r="B16" s="109"/>
+        <v>288</v>
+      </c>
+      <c r="B16" s="112"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="96" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H16" s="87" t="s">
         <v>5</v>
@@ -9421,19 +12459,19 @@
     </row>
     <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A17" s="85" t="s">
-        <v>290</v>
-      </c>
-      <c r="B17" s="109"/>
+        <v>289</v>
+      </c>
+      <c r="B17" s="112"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="96" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H17" s="87" t="s">
         <v>5</v>
@@ -9442,19 +12480,19 @@
     </row>
     <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="85" t="s">
-        <v>291</v>
-      </c>
-      <c r="B18" s="109"/>
+        <v>290</v>
+      </c>
+      <c r="B18" s="112"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="96" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H18" s="87" t="s">
         <v>5</v>
@@ -9463,19 +12501,19 @@
     </row>
     <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="85" t="s">
-        <v>292</v>
-      </c>
-      <c r="B19" s="109"/>
+        <v>291</v>
+      </c>
+      <c r="B19" s="112"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="96" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H19" s="87" t="s">
         <v>5</v>
@@ -9484,19 +12522,19 @@
     </row>
     <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="85" t="s">
-        <v>293</v>
-      </c>
-      <c r="B20" s="109"/>
+        <v>292</v>
+      </c>
+      <c r="B20" s="112"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="96" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H20" s="87" t="s">
         <v>5</v>
@@ -9505,19 +12543,19 @@
     </row>
     <row r="21" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="85" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="26" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H21" s="87" t="s">
         <v>5</v>
@@ -9526,19 +12564,19 @@
     </row>
     <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="85" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="26" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H22" s="87" t="s">
         <v>5</v>
@@ -9547,19 +12585,19 @@
     </row>
     <row r="23" spans="1:9" s="29" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A23" s="85" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="85"/>
       <c r="D23" s="85"/>
-      <c r="E23" s="121" t="s">
-        <v>452</v>
+      <c r="E23" s="100" t="s">
+        <v>449</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H23" s="67" t="s">
         <v>5</v>
@@ -9568,19 +12606,19 @@
     </row>
     <row r="24" spans="1:9" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A24" s="85" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B24" s="86"/>
       <c r="C24" s="85"/>
       <c r="D24" s="85"/>
-      <c r="E24" s="121" t="s">
-        <v>455</v>
+      <c r="E24" s="100" t="s">
+        <v>452</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H24" s="67" t="s">
         <v>5</v>
@@ -9589,55 +12627,55 @@
     </row>
     <row r="25" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A25" s="85" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="65" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H25" s="67"/>
       <c r="I25" s="27"/>
     </row>
     <row r="26" spans="1:9" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A26" s="85" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="65" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A27" s="85" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="65" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -9647,71 +12685,71 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H22">
-    <cfRule type="cellIs" dxfId="83" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="15" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="16" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="18" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="19" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="20" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="21" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="76" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="8" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="10" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="11" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="13" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="14" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H25">
-    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9735,21 +12773,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9053ED-FC72-43CF-9E37-8D40E2BDDBE3}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="87" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" customWidth="1"/>
     <col min="7" max="7" width="42.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
         <v>27</v>
       </c>
@@ -9762,7 +12801,7 @@
       <c r="H1" s="90"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
@@ -9791,11 +12830,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="85"/>
@@ -9806,10 +12845,10 @@
         <v>275</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>310</v>
+        <v>512</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>279</v>
+        <v>514</v>
       </c>
       <c r="H3" s="87" t="s">
         <v>5</v>
@@ -9820,17 +12859,17 @@
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="107"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="85"/>
       <c r="D4" s="85"/>
       <c r="E4" s="65" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H4" s="87" t="s">
         <v>5</v>
@@ -9845,13 +12884,13 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="G5" s="27" t="s">
         <v>401</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>404</v>
       </c>
       <c r="H5" s="87" t="s">
         <v>5</v>
@@ -9866,13 +12905,13 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="65" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H6" s="87" t="s">
         <v>5</v>
@@ -9881,19 +12920,19 @@
     </row>
     <row r="7" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="65" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H7" s="87" t="s">
         <v>5</v>
@@ -9902,19 +12941,19 @@
     </row>
     <row r="8" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="65" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H8" s="87" t="s">
         <v>5</v>
@@ -9923,19 +12962,19 @@
     </row>
     <row r="9" spans="1:9" ht="153" x14ac:dyDescent="0.25">
       <c r="A9" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="65" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H9" s="87" t="s">
         <v>5</v>
@@ -9944,19 +12983,19 @@
     </row>
     <row r="10" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A10" s="85" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="65" t="s">
+        <v>408</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>414</v>
-      </c>
       <c r="G10" s="27" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H10" s="87" t="s">
         <v>5</v>
@@ -9965,57 +13004,57 @@
     </row>
     <row r="11" spans="1:9" ht="225.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="65" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="272.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="85" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="65" t="s">
+        <v>463</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>466</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>468</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>469</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A13" s="85" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="65" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -10457,25 +13496,25 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H10">
-    <cfRule type="cellIs" dxfId="62" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10499,21 +13538,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B835330-655F-4763-AC11-419265B6585A}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="87" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.42578125" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
         <v>27</v>
       </c>
@@ -10526,7 +13566,7 @@
       <c r="H1" s="90"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
@@ -10555,11 +13595,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="112" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="85"/>
@@ -10570,10 +13610,10 @@
         <v>275</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>310</v>
+        <v>512</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>279</v>
+        <v>514</v>
       </c>
       <c r="H3" s="87" t="s">
         <v>5</v>
@@ -10584,17 +13624,17 @@
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="109"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="85"/>
       <c r="D4" s="85"/>
       <c r="E4" s="65" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H4" s="87" t="s">
         <v>5</v>
@@ -10609,13 +13649,13 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="26" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H5" s="87" t="s">
         <v>5</v>
@@ -10630,13 +13670,13 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="96" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H6" s="87" t="s">
         <v>5</v>
@@ -10645,19 +13685,19 @@
     </row>
     <row r="7" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="96" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H7" s="87" t="s">
         <v>5</v>
@@ -10670,48 +13710,48 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H5:H7">
-    <cfRule type="cellIs" dxfId="55" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="8" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="10" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="11" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="13" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="14" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/App_QC_Regression_Test_Case.xlsx
+++ b/App_QC_Regression_Test_Case.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProject\BluePrint\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797B72D2-ED29-4CD0-82EE-D2EFC3345FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="20730" windowHeight="11160" tabRatio="892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="20730" windowHeight="11160" tabRatio="892" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Page" sheetId="14" r:id="rId1"/>
@@ -29,12 +23,10 @@
     <sheet name="Concurrent User Test" sheetId="24" r:id="rId14"/>
     <sheet name="Security Tests" sheetId="25" r:id="rId15"/>
     <sheet name="Accessibility Test" sheetId="26" r:id="rId16"/>
-    <sheet name="Info" sheetId="10" r:id="rId17"/>
+    <sheet name="Chaos Test" sheetId="28" r:id="rId17"/>
+    <sheet name="Info" sheetId="10" r:id="rId18"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId18"/>
-  </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -47,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="583">
   <si>
     <t>Test Area</t>
   </si>
@@ -2148,17 +2140,83 @@
   <si>
     <t>TC030</t>
   </si>
+  <si>
+    <t>Verify that application do not break when entering unusual characters in the text fields</t>
+  </si>
+  <si>
+    <t>1) Navigate to dashboard, collection details, cluster details, injested file list etc page and try to enter unusual characters to every text box and text field available
+- Numbers, special characters, unicode, emojis
+- All Spaces, Short values, really long values
+- HTML, JavaScript</t>
+  </si>
+  <si>
+    <t>1) Application should not break or error should not occur.</t>
+  </si>
+  <si>
+    <t>Verify that application is functioning correctly when uploading unusual files</t>
+  </si>
+  <si>
+    <t>1) In the collection detail page, try to upload single or multiple
+- really small images/documents
+- empty files
+- ZIP files with supported and unsupported files.
+- corrupt files
+- files/text with values that could cause problems with CSV export
+- files with weird characters in the filename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) For supported files upload should be successful.
+2) Appropriate results like certainity scores, error count and scores etc should be visible.
+3) Application should behave appropriately for each file processing. </t>
+  </si>
+  <si>
+    <t>Verify that application is functioning correctly when browser forward and back buttons are clicked in-between of major process</t>
+  </si>
+  <si>
+    <t>1) For every unusual actions, application should behave properly with proper message or proper action</t>
+  </si>
+  <si>
+    <t>1) Being in the different pages of application, try clicking browser back/forward button for every major operations in the application like uploding file, searching, downloading etc</t>
+  </si>
+  <si>
+    <t>Verify that application is functioning correctly when network throttle is turned down</t>
+  </si>
+  <si>
+    <t>1) Browse and perform action on the site with low network bandwith.</t>
+  </si>
+  <si>
+    <t>1) Application should not break or error should not occur.
+2) Each process should be executed in record time relevent to the network throttle.</t>
+  </si>
+  <si>
+    <t>Verify application behaviour when application is tried to browse without javascript</t>
+  </si>
+  <si>
+    <t>1) Browse and perform action on the site without loadin the site with java script</t>
+  </si>
+  <si>
+    <t>1) Application should not break or error should not occur for all the feature that do not require javascripts to execute. For eg click buttons and links, text fields etc</t>
+  </si>
+  <si>
+    <t>Verify that application is functioning correctly when valid or invalid URLs are randomly used along side the application url</t>
+  </si>
+  <si>
+    <t>1) Append or use random URL in the existing application url. This may include deep links to other users collection, deleted collections, unauthorized portals of application,random url etc</t>
+  </si>
+  <si>
+    <t>1) User shuould be able to proper message and proper redirection to the authorized pages of the application.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="mm\-dd\-yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2572,7 +2630,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2840,6 +2898,31 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2876,6 +2959,15 @@
     <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2885,22 +2977,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2909,43 +2992,217 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Excel Built-in Normal" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="6"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 2 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 3" xfId="4"/>
+    <cellStyle name="Normal 2 4" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
-  <dxfs count="224">
+  <dxfs count="252">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4525,19 +4782,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Info"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4583,7 +4827,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4615,27 +4859,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4667,24 +4893,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4860,15 +5068,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
@@ -4880,12 +5088,12 @@
     <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55">
       <c r="A1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" s="32" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="60" t="s">
         <v>294</v>
       </c>
@@ -4898,7 +5106,7 @@
       <c r="H3" s="60"/>
       <c r="I3" s="60"/>
     </row>
-    <row r="4" spans="1:55" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" s="35" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -4909,12 +5117,12 @@
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
     </row>
-    <row r="5" spans="1:55" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103" t="s">
+    <row r="5" spans="1:55" s="32" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="112" t="s">
         <v>266</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="105"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="58"/>
       <c r="E5" s="58"/>
       <c r="F5" s="58"/>
@@ -4923,43 +5131,43 @@
       <c r="I5" s="58"/>
       <c r="P5" s="35"/>
     </row>
-    <row r="6" spans="1:55" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" s="32" customFormat="1" ht="12.75">
       <c r="A6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="50"/>
       <c r="P6" s="35"/>
     </row>
-    <row r="7" spans="1:55" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" s="32" customFormat="1" ht="12.75">
       <c r="A7" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="109"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="51"/>
       <c r="P7" s="35"/>
     </row>
-    <row r="8" spans="1:55" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" s="32" customFormat="1" ht="12.75">
       <c r="A8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="109"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
       <c r="D8" s="51"/>
       <c r="P8" s="35"/>
     </row>
-    <row r="9" spans="1:55" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" s="32" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="109"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="118"/>
       <c r="D9" s="29"/>
       <c r="P9" s="35"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55">
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
@@ -5007,7 +5215,7 @@
       <c r="BB10" s="32"/>
       <c r="BC10" s="32"/>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55">
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
@@ -5055,7 +5263,7 @@
       <c r="BB11" s="32"/>
       <c r="BC11" s="32"/>
     </row>
-    <row r="12" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" ht="16.5" customHeight="1">
       <c r="A12" s="59" t="s">
         <v>295</v>
       </c>
@@ -5112,7 +5320,7 @@
       <c r="BB12" s="32"/>
       <c r="BC12" s="32"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -5167,17 +5375,17 @@
       <c r="BB13" s="32"/>
       <c r="BC13" s="32"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55">
       <c r="A14" s="52" t="s">
         <v>261</v>
       </c>
       <c r="B14" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="110" t="s">
+      <c r="C14" s="119" t="s">
         <v>263</v>
       </c>
-      <c r="D14" s="111"/>
+      <c r="D14" s="120"/>
       <c r="E14" s="52" t="s">
         <v>264</v>
       </c>
@@ -5234,17 +5442,17 @@
       <c r="BB14" s="32"/>
       <c r="BC14" s="32"/>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55">
       <c r="A15" s="54">
         <v>43842</v>
       </c>
       <c r="B15" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="115" t="s">
         <v>267</v>
       </c>
-      <c r="D15" s="107"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
@@ -5295,11 +5503,11 @@
       <c r="BB15" s="32"/>
       <c r="BC15" s="32"/>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55">
       <c r="A16" s="57"/>
       <c r="B16" s="55"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="107"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="116"/>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
@@ -5321,12 +5529,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E770E50-07CD-413E-AED0-C91E188B4592}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -5339,7 +5547,7 @@
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="89" t="s">
         <v>27</v>
       </c>
@@ -5352,7 +5560,7 @@
       <c r="H1" s="90"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
@@ -5381,11 +5589,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="61.5" customHeight="1">
       <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="85"/>
@@ -5406,11 +5614,11 @@
       </c>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="50.25" customHeight="1">
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="85"/>
       <c r="D4" s="85"/>
       <c r="E4" s="65" t="s">
@@ -5427,7 +5635,7 @@
       </c>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="178.5">
       <c r="A5" s="85" t="s">
         <v>270</v>
       </c>
@@ -5448,7 +5656,7 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="178.5">
       <c r="A6" s="85" t="s">
         <v>272</v>
       </c>
@@ -5469,7 +5677,7 @@
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="216.75">
       <c r="A7" s="85" t="s">
         <v>279</v>
       </c>
@@ -5496,76 +5704,76 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H6:H7">
-    <cfRule type="cellIs" dxfId="153" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="cellIs" dxfId="146" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="15" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="16" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="18" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="19" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="20" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="21" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="139" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="8" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="10" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="11" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="13" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="14" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{70DD7B2E-1042-4303-B69C-802D7BDBDEEB}">
@@ -5581,12 +5789,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B34DC5-3B1D-4F88-80C7-64FF85C66D8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -5599,7 +5807,7 @@
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="89" t="s">
         <v>27</v>
       </c>
@@ -5612,7 +5820,7 @@
       <c r="H1" s="90"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
@@ -5641,11 +5849,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="102">
       <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="85"/>
@@ -5666,11 +5874,11 @@
       </c>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="38.25">
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="85"/>
       <c r="D4" s="85"/>
       <c r="E4" s="65" t="s">
@@ -5687,7 +5895,7 @@
       </c>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" ht="357" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="357">
       <c r="A5" s="85" t="s">
         <v>270</v>
       </c>
@@ -5708,7 +5916,7 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="191.25">
       <c r="A6" s="85" t="s">
         <v>272</v>
       </c>
@@ -5729,7 +5937,7 @@
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="178.5">
       <c r="A7" s="85" t="s">
         <v>279</v>
       </c>
@@ -5750,7 +5958,7 @@
       </c>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="178.5">
       <c r="A8" s="85" t="s">
         <v>280</v>
       </c>
@@ -5771,7 +5979,7 @@
       </c>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="409.5">
       <c r="A9" s="85" t="s">
         <v>281</v>
       </c>
@@ -5798,30 +6006,30 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H9">
-    <cfRule type="cellIs" dxfId="132" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{245D1EA4-F75F-4A96-87B5-EA625DEBE31A}">
@@ -5837,12 +6045,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D912786-D8AD-44CE-A923-11DF1A3393A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -5855,7 +6063,7 @@
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="89" t="s">
         <v>27</v>
       </c>
@@ -5868,7 +6076,7 @@
       <c r="H1" s="90"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
@@ -5897,11 +6105,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="102">
       <c r="A3" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="98"/>
@@ -5922,11 +6130,11 @@
       </c>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="38.25">
       <c r="A4" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
       <c r="E4" s="65" t="s">
@@ -5943,7 +6151,7 @@
       </c>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="25.5" customHeight="1">
       <c r="A5" s="98" t="s">
         <v>270</v>
       </c>
@@ -5968,11 +6176,11 @@
       </c>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="102">
       <c r="A6" s="98" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="98"/>
@@ -5993,11 +6201,11 @@
       </c>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="38.25">
       <c r="A7" s="98" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="112"/>
+      <c r="B7" s="121"/>
       <c r="C7" s="98"/>
       <c r="D7" s="98"/>
       <c r="E7" s="65" t="s">
@@ -6014,7 +6222,7 @@
       </c>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="25.5">
       <c r="A8" s="98" t="s">
         <v>280</v>
       </c>
@@ -6039,11 +6247,11 @@
       </c>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="102">
       <c r="A9" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="98"/>
@@ -6064,11 +6272,11 @@
       </c>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="38.25">
       <c r="A10" s="98" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="112"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="98"/>
       <c r="D10" s="98"/>
       <c r="E10" s="65" t="s">
@@ -6085,7 +6293,7 @@
       </c>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="25.5">
       <c r="A11" s="98" t="s">
         <v>283</v>
       </c>
@@ -6110,11 +6318,11 @@
       </c>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="102">
       <c r="A12" s="98" t="s">
         <v>284</v>
       </c>
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="98"/>
@@ -6135,11 +6343,11 @@
       </c>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="38.25">
       <c r="A13" s="98" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="112"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="98"/>
       <c r="D13" s="98"/>
       <c r="E13" s="65" t="s">
@@ -6156,7 +6364,7 @@
       </c>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="25.5">
       <c r="A14" s="98" t="s">
         <v>286</v>
       </c>
@@ -6181,11 +6389,11 @@
       </c>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="102">
       <c r="A15" s="98" t="s">
         <v>287</v>
       </c>
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="98"/>
@@ -6206,11 +6414,11 @@
       </c>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="38.25">
       <c r="A16" s="98" t="s">
         <v>288</v>
       </c>
-      <c r="B16" s="112"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="98"/>
       <c r="D16" s="98"/>
       <c r="E16" s="65" t="s">
@@ -6227,7 +6435,7 @@
       </c>
       <c r="I16" s="27"/>
     </row>
-    <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="25.5">
       <c r="A17" s="98" t="s">
         <v>289</v>
       </c>
@@ -6252,11 +6460,11 @@
       </c>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="102">
       <c r="A18" s="98" t="s">
         <v>290</v>
       </c>
-      <c r="B18" s="112" t="s">
+      <c r="B18" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="98"/>
@@ -6277,11 +6485,11 @@
       </c>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="38.25">
       <c r="A19" s="98" t="s">
         <v>291</v>
       </c>
-      <c r="B19" s="112"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="98"/>
       <c r="D19" s="98"/>
       <c r="E19" s="65" t="s">
@@ -6298,7 +6506,7 @@
       </c>
       <c r="I19" s="27"/>
     </row>
-    <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="25.5">
       <c r="A20" s="98" t="s">
         <v>292</v>
       </c>
@@ -6323,11 +6531,11 @@
       </c>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="102">
       <c r="A21" s="98" t="s">
         <v>293</v>
       </c>
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="98"/>
@@ -6348,11 +6556,11 @@
       </c>
       <c r="I21" s="27"/>
     </row>
-    <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="38.25">
       <c r="A22" s="98" t="s">
         <v>455</v>
       </c>
-      <c r="B22" s="112"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="98"/>
       <c r="D22" s="98"/>
       <c r="E22" s="65" t="s">
@@ -6369,7 +6577,7 @@
       </c>
       <c r="I22" s="27"/>
     </row>
-    <row r="23" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="25.5">
       <c r="A23" s="98" t="s">
         <v>456</v>
       </c>
@@ -6394,11 +6602,11 @@
       </c>
       <c r="I23" s="27"/>
     </row>
-    <row r="24" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="102">
       <c r="A24" s="98" t="s">
         <v>457</v>
       </c>
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="98"/>
@@ -6419,11 +6627,11 @@
       </c>
       <c r="I24" s="27"/>
     </row>
-    <row r="25" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="38.25">
       <c r="A25" s="98" t="s">
         <v>458</v>
       </c>
-      <c r="B25" s="112"/>
+      <c r="B25" s="121"/>
       <c r="C25" s="98"/>
       <c r="D25" s="98"/>
       <c r="E25" s="65" t="s">
@@ -6440,7 +6648,7 @@
       </c>
       <c r="I25" s="27"/>
     </row>
-    <row r="26" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="25.5">
       <c r="A26" s="98" t="s">
         <v>459</v>
       </c>
@@ -6465,11 +6673,11 @@
       </c>
       <c r="I26" s="27"/>
     </row>
-    <row r="27" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="102">
       <c r="A27" s="98" t="s">
         <v>460</v>
       </c>
-      <c r="B27" s="112" t="s">
+      <c r="B27" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="98"/>
@@ -6490,11 +6698,11 @@
       </c>
       <c r="I27" s="27"/>
     </row>
-    <row r="28" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="38.25">
       <c r="A28" s="98" t="s">
         <v>560</v>
       </c>
-      <c r="B28" s="112"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="98"/>
       <c r="D28" s="98"/>
       <c r="E28" s="65" t="s">
@@ -6511,7 +6719,7 @@
       </c>
       <c r="I28" s="27"/>
     </row>
-    <row r="29" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="25.5">
       <c r="A29" s="98" t="s">
         <v>561</v>
       </c>
@@ -6536,11 +6744,11 @@
       </c>
       <c r="I29" s="27"/>
     </row>
-    <row r="30" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="102">
       <c r="A30" s="98" t="s">
         <v>562</v>
       </c>
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="98"/>
@@ -6561,11 +6769,11 @@
       </c>
       <c r="I30" s="27"/>
     </row>
-    <row r="31" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="38.25">
       <c r="A31" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="B31" s="112"/>
+      <c r="B31" s="121"/>
       <c r="C31" s="98"/>
       <c r="D31" s="98"/>
       <c r="E31" s="65" t="s">
@@ -6582,7 +6790,7 @@
       </c>
       <c r="I31" s="27"/>
     </row>
-    <row r="32" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="25.5">
       <c r="A32" s="98" t="s">
         <v>564</v>
       </c>
@@ -6609,250 +6817,250 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H5">
-    <cfRule type="cellIs" dxfId="83" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="78" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="79" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="80" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="81" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="82" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="83" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="84" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H8">
-    <cfRule type="cellIs" dxfId="62" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="57" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="58" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="59" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="60" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="61" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="62" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="63" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H11">
-    <cfRule type="cellIs" dxfId="55" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="50" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="51" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="52" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="53" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="54" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="55" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="56" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="43" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="44" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="45" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="46" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="47" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="48" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="49" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H17">
-    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="36" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="37" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="38" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="39" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="40" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="41" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="42" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H20">
-    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="29" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="30" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="31" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="32" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="33" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="34" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="35" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H23">
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="22" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="23" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="24" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="25" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="26" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="27" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="28" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H26">
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="15" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="16" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="18" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="19" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="20" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="21" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H29">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="8" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="10" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="11" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="13" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="14" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H32">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A788DD08-35F4-4849-975C-51A2B96EC683}">
@@ -6868,12 +7076,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB3BBFD-A251-4E1C-A5B0-C0BFF5C676D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -6886,7 +7094,7 @@
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="89" t="s">
         <v>27</v>
       </c>
@@ -6899,7 +7107,7 @@
       <c r="H1" s="90"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
@@ -6928,11 +7136,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="102">
       <c r="A3" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="98"/>
@@ -6953,11 +7161,11 @@
       </c>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="38.25">
       <c r="A4" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
       <c r="E4" s="65" t="s">
@@ -6974,7 +7182,7 @@
       </c>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" ht="280.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="280.5">
       <c r="A5" s="98" t="s">
         <v>270</v>
       </c>
@@ -6995,7 +7203,7 @@
       </c>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="255">
       <c r="A6" s="98" t="s">
         <v>272</v>
       </c>
@@ -7016,7 +7224,7 @@
       </c>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="165.75">
       <c r="A7" s="98" t="s">
         <v>279</v>
       </c>
@@ -7037,7 +7245,7 @@
       </c>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="191.25">
       <c r="A8" s="98" t="s">
         <v>280</v>
       </c>
@@ -7064,30 +7272,30 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H8">
-    <cfRule type="cellIs" dxfId="125" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B7B61F1A-7ADB-44EB-A2C4-96C6DCE858AD}">
@@ -7103,12 +7311,12 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F19A89-CD4F-45CE-B00A-FA55D60DADCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -7121,7 +7329,7 @@
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="89" t="s">
         <v>27</v>
       </c>
@@ -7134,7 +7342,7 @@
       <c r="H1" s="90"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
@@ -7163,11 +7371,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="102">
       <c r="A3" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="98"/>
@@ -7188,11 +7396,11 @@
       </c>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="25.5">
       <c r="A4" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
       <c r="E4" s="65" t="s">
@@ -7209,7 +7417,7 @@
       </c>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" ht="382.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="382.5">
       <c r="A5" s="98" t="s">
         <v>270</v>
       </c>
@@ -7236,30 +7444,30 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H5">
-    <cfRule type="cellIs" dxfId="118" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8266F2AD-6BC2-4EE3-80D3-4224E2F889B7}">
@@ -7275,12 +7483,12 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230FFEBC-2D28-4B3D-8927-5BB4A64E5951}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -7293,57 +7501,57 @@
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="128"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="107" t="s">
         <v>276</v>
       </c>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="130" t="s">
+      <c r="E2" s="108" t="s">
         <v>271</v>
       </c>
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="109" t="s">
         <v>274</v>
       </c>
-      <c r="G2" s="132" t="s">
+      <c r="G2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="132" t="s">
+      <c r="I2" s="110" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="133" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="111" customFormat="1" ht="102">
       <c r="A3" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="133" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="98"/>
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="133" t="s">
         <v>273</v>
       </c>
       <c r="E3" s="65" t="s">
@@ -7360,13 +7568,13 @@
       </c>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="89.25">
       <c r="A4" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="134"/>
+      <c r="B4" s="135"/>
       <c r="C4" s="98"/>
-      <c r="D4" s="134"/>
+      <c r="D4" s="135"/>
       <c r="E4" s="65" t="s">
         <v>507</v>
       </c>
@@ -7381,13 +7589,13 @@
       </c>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="114.75">
       <c r="A5" s="98" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="125"/>
+      <c r="B5" s="134"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="125"/>
+      <c r="D5" s="134"/>
       <c r="E5" s="65" t="s">
         <v>509</v>
       </c>
@@ -7402,7 +7610,7 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="102">
       <c r="A6" s="98" t="s">
         <v>272</v>
       </c>
@@ -7423,7 +7631,7 @@
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="102">
       <c r="A7" s="98" t="s">
         <v>279</v>
       </c>
@@ -7444,7 +7652,7 @@
       </c>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="114.75">
       <c r="A8" s="98" t="s">
         <v>280</v>
       </c>
@@ -7465,7 +7673,7 @@
       </c>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="51">
       <c r="A9" s="98" t="s">
         <v>281</v>
       </c>
@@ -7486,7 +7694,7 @@
       </c>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="25.5">
       <c r="A10" s="98" t="s">
         <v>282</v>
       </c>
@@ -7507,7 +7715,7 @@
       </c>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="25.5">
       <c r="A11" s="98" t="s">
         <v>283</v>
       </c>
@@ -7535,30 +7743,30 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H11">
-    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{365382CB-E5EF-4E2B-9320-9600DC13F802}">
@@ -7574,12 +7782,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FF152D-F7C3-4B14-8630-4C058BA2AAA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -7592,7 +7802,7 @@
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="89" t="s">
         <v>27</v>
       </c>
@@ -7605,7 +7815,7 @@
       <c r="H1" s="90"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
@@ -7634,11 +7844,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="102">
       <c r="A3" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="98"/>
@@ -7659,11 +7869,11 @@
       </c>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="38.25">
       <c r="A4" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
       <c r="E4" s="65" t="s">
@@ -7680,7 +7890,7 @@
       </c>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="51">
       <c r="A5" s="98" t="s">
         <v>270</v>
       </c>
@@ -7707,30 +7917,30 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H5">
-    <cfRule type="cellIs" dxfId="97" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2AAA5A02-EEDE-4751-9546-8138ADF1EBCA}">
@@ -7746,27 +7956,291 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="93" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="94" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="102">
+      <c r="A3" s="103" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>532</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="H3" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="38.25">
+      <c r="A4" s="103" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="121"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" ht="127.5">
+      <c r="A5" s="103" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="65" t="s">
+        <v>565</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="H5" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="140.25">
+      <c r="A6" s="103" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="96" t="s">
+        <v>568</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>570</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" ht="76.5">
+      <c r="A7" s="103" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="96" t="s">
+        <v>571</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>573</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="H7" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="51">
+      <c r="A8" s="103" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="96" t="s">
+        <v>574</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>575</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="H8" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" ht="51">
+      <c r="A9" s="103" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="96" t="s">
+        <v>577</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="H9" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" ht="76.5">
+      <c r="A10" s="103" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="96" t="s">
+        <v>580</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>582</v>
+      </c>
+      <c r="H10" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H10">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+      <formula>"Partially Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -7774,7 +8248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -7782,7 +8256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -7790,7 +8264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -7798,7 +8272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -7806,7 +8280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
@@ -7814,7 +8288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
@@ -7828,7 +8302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P188"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -7836,7 +8310,7 @@
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="17" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="31" customWidth="1"/>
@@ -7851,7 +8325,7 @@
     <col min="11" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="89" t="s">
         <v>27</v>
       </c>
@@ -7864,7 +8338,7 @@
       <c r="H1" s="90"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
@@ -7895,11 +8369,11 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" s="29" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="29" customFormat="1" ht="102">
       <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="85"/>
@@ -7920,13 +8394,13 @@
       </c>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="63.75">
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="85"/>
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="121" t="s">
         <v>260</v>
       </c>
       <c r="E4" s="65" t="s">
@@ -7945,13 +8419,13 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="63.75">
       <c r="A5" s="85" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="112"/>
+      <c r="B5" s="121"/>
       <c r="C5" s="85"/>
-      <c r="D5" s="112"/>
+      <c r="D5" s="121"/>
       <c r="E5" s="65" t="s">
         <v>298</v>
       </c>
@@ -7967,13 +8441,13 @@
       <c r="I5" s="27"/>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="63.75">
       <c r="A6" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="121"/>
       <c r="C6" s="85"/>
-      <c r="D6" s="112"/>
+      <c r="D6" s="121"/>
       <c r="E6" s="65" t="s">
         <v>300</v>
       </c>
@@ -7988,13 +8462,13 @@
       </c>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="51">
       <c r="A7" s="85" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="112"/>
+      <c r="B7" s="121"/>
       <c r="C7" s="85"/>
-      <c r="D7" s="112"/>
+      <c r="D7" s="121"/>
       <c r="E7" s="65" t="s">
         <v>302</v>
       </c>
@@ -8009,13 +8483,13 @@
       </c>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="63.75">
       <c r="A8" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="112"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="85"/>
-      <c r="D8" s="112"/>
+      <c r="D8" s="121"/>
       <c r="E8" s="65" t="s">
         <v>308</v>
       </c>
@@ -8030,7 +8504,7 @@
       </c>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:11" s="29" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="29" customFormat="1" ht="102">
       <c r="A9" s="85" t="s">
         <v>281</v>
       </c>
@@ -8053,11 +8527,11 @@
       </c>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:11" s="29" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="29" customFormat="1" ht="86.25" customHeight="1">
       <c r="A10" s="85" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="121" t="s">
         <v>341</v>
       </c>
       <c r="C10" s="85"/>
@@ -8076,11 +8550,11 @@
       </c>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:11" s="29" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="29" customFormat="1" ht="89.25">
       <c r="A11" s="85" t="s">
         <v>283</v>
       </c>
-      <c r="B11" s="112"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="85"/>
       <c r="D11" s="85"/>
       <c r="E11" s="65" t="s">
@@ -8097,11 +8571,11 @@
       </c>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:11" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="29" customFormat="1" ht="51">
       <c r="A12" s="85" t="s">
         <v>284</v>
       </c>
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="121" t="s">
         <v>345</v>
       </c>
       <c r="C12" s="85"/>
@@ -8120,11 +8594,11 @@
       </c>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:11" s="29" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="29" customFormat="1" ht="153">
       <c r="A13" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="112"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="85"/>
       <c r="D13" s="85"/>
       <c r="E13" s="65" t="s">
@@ -8141,15 +8615,15 @@
       </c>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:11" s="29" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="29" customFormat="1" ht="138.75" customHeight="1">
       <c r="A14" s="85" t="s">
         <v>286</v>
       </c>
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="123" t="s">
         <v>430</v>
       </c>
       <c r="C14" s="99"/>
-      <c r="D14" s="112"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="100" t="s">
         <v>426</v>
       </c>
@@ -8164,13 +8638,13 @@
       </c>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:11" s="29" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="29" customFormat="1" ht="114.75">
       <c r="A15" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="B15" s="114"/>
+      <c r="B15" s="123"/>
       <c r="C15" s="99"/>
-      <c r="D15" s="112"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="100" t="s">
         <v>427</v>
       </c>
@@ -8185,12 +8659,12 @@
       </c>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:11" s="29" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="29" customFormat="1" ht="63.75">
       <c r="A16" s="85" t="s">
         <v>288</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="85"/>
       <c r="E16" s="100" t="s">
         <v>431</v>
@@ -8206,12 +8680,12 @@
       </c>
       <c r="I16" s="27"/>
     </row>
-    <row r="17" spans="1:9" s="29" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="29" customFormat="1" ht="185.25" customHeight="1">
       <c r="A17" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="85"/>
       <c r="E17" s="100" t="s">
         <v>434</v>
@@ -8227,7 +8701,7 @@
       </c>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="1:9" s="29" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="29" customFormat="1" ht="227.25" customHeight="1">
       <c r="A18" s="85" t="s">
         <v>290</v>
       </c>
@@ -8248,7 +8722,7 @@
       </c>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="1:9" s="29" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="29" customFormat="1" ht="191.25">
       <c r="A19" s="85" t="s">
         <v>291</v>
       </c>
@@ -8269,11 +8743,11 @@
       </c>
       <c r="I19" s="27"/>
     </row>
-    <row r="20" spans="1:9" s="29" customFormat="1" ht="153" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="29" customFormat="1" ht="153">
       <c r="A20" s="85" t="s">
         <v>292</v>
       </c>
-      <c r="B20" s="114"/>
+      <c r="B20" s="123"/>
       <c r="C20" s="85"/>
       <c r="D20" s="85"/>
       <c r="E20" s="100" t="s">
@@ -8290,11 +8764,11 @@
       </c>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="1:9" s="29" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="29" customFormat="1" ht="127.5">
       <c r="A21" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="B21" s="114"/>
+      <c r="B21" s="123"/>
       <c r="C21" s="85"/>
       <c r="D21" s="85"/>
       <c r="E21" s="100" t="s">
@@ -8311,29 +8785,29 @@
       </c>
       <c r="I21" s="27"/>
     </row>
-    <row r="22" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="29" customFormat="1">
       <c r="A22" s="69"/>
-      <c r="B22" s="113"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="69"/>
-      <c r="D22" s="113"/>
+      <c r="D22" s="122"/>
       <c r="E22" s="70"/>
       <c r="F22" s="71"/>
       <c r="G22" s="71"/>
       <c r="H22" s="72"/>
       <c r="I22" s="71"/>
     </row>
-    <row r="23" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="29" customFormat="1">
       <c r="A23" s="69"/>
-      <c r="B23" s="113"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="69"/>
-      <c r="D23" s="113"/>
+      <c r="D23" s="122"/>
       <c r="E23" s="70"/>
       <c r="F23" s="71"/>
       <c r="G23" s="71"/>
       <c r="H23" s="72"/>
       <c r="I23" s="71"/>
     </row>
-    <row r="24" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="29" customFormat="1">
       <c r="A24" s="69"/>
       <c r="B24" s="69"/>
       <c r="C24" s="69"/>
@@ -8344,7 +8818,7 @@
       <c r="H24" s="72"/>
       <c r="I24" s="71"/>
     </row>
-    <row r="25" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="29" customFormat="1">
       <c r="A25" s="69"/>
       <c r="B25" s="69"/>
       <c r="C25" s="69"/>
@@ -8355,7 +8829,7 @@
       <c r="H25" s="72"/>
       <c r="I25" s="71"/>
     </row>
-    <row r="26" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="29" customFormat="1">
       <c r="A26" s="69"/>
       <c r="B26" s="69"/>
       <c r="C26" s="69"/>
@@ -8366,7 +8840,7 @@
       <c r="H26" s="72"/>
       <c r="I26" s="71"/>
     </row>
-    <row r="27" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="29" customFormat="1">
       <c r="A27" s="69"/>
       <c r="B27" s="69"/>
       <c r="C27" s="69"/>
@@ -8377,7 +8851,7 @@
       <c r="H27" s="72"/>
       <c r="I27" s="71"/>
     </row>
-    <row r="28" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="29" customFormat="1">
       <c r="A28" s="69"/>
       <c r="B28" s="69"/>
       <c r="C28" s="69"/>
@@ -8388,7 +8862,7 @@
       <c r="H28" s="72"/>
       <c r="I28" s="71"/>
     </row>
-    <row r="29" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="29" customFormat="1">
       <c r="A29" s="69"/>
       <c r="B29" s="69"/>
       <c r="C29" s="69"/>
@@ -8399,7 +8873,7 @@
       <c r="H29" s="72"/>
       <c r="I29" s="71"/>
     </row>
-    <row r="30" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="29" customFormat="1">
       <c r="A30" s="69"/>
       <c r="B30" s="69"/>
       <c r="C30" s="69"/>
@@ -8410,7 +8884,7 @@
       <c r="H30" s="72"/>
       <c r="I30" s="71"/>
     </row>
-    <row r="31" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="29" customFormat="1">
       <c r="A31" s="69"/>
       <c r="B31" s="69"/>
       <c r="C31" s="69"/>
@@ -8421,7 +8895,7 @@
       <c r="H31" s="72"/>
       <c r="I31" s="71"/>
     </row>
-    <row r="32" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="29" customFormat="1">
       <c r="A32" s="69"/>
       <c r="B32" s="69"/>
       <c r="C32" s="69"/>
@@ -8432,7 +8906,7 @@
       <c r="H32" s="72"/>
       <c r="I32" s="71"/>
     </row>
-    <row r="33" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="29" customFormat="1">
       <c r="A33" s="69"/>
       <c r="B33" s="69"/>
       <c r="C33" s="69"/>
@@ -8443,7 +8917,7 @@
       <c r="H33" s="72"/>
       <c r="I33" s="71"/>
     </row>
-    <row r="34" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="29" customFormat="1">
       <c r="A34" s="69"/>
       <c r="B34" s="69"/>
       <c r="C34" s="69"/>
@@ -8454,7 +8928,7 @@
       <c r="H34" s="72"/>
       <c r="I34" s="71"/>
     </row>
-    <row r="35" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="29" customFormat="1">
       <c r="A35" s="69"/>
       <c r="B35" s="69"/>
       <c r="C35" s="69"/>
@@ -8465,7 +8939,7 @@
       <c r="H35" s="72"/>
       <c r="I35" s="71"/>
     </row>
-    <row r="36" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="29" customFormat="1">
       <c r="A36" s="69"/>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
@@ -8476,7 +8950,7 @@
       <c r="H36" s="72"/>
       <c r="I36" s="71"/>
     </row>
-    <row r="37" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="29" customFormat="1">
       <c r="A37" s="69"/>
       <c r="B37" s="69"/>
       <c r="C37" s="69"/>
@@ -8487,7 +8961,7 @@
       <c r="H37" s="72"/>
       <c r="I37" s="71"/>
     </row>
-    <row r="38" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="29" customFormat="1">
       <c r="A38" s="69"/>
       <c r="B38" s="69"/>
       <c r="C38" s="69"/>
@@ -8498,7 +8972,7 @@
       <c r="H38" s="72"/>
       <c r="I38" s="71"/>
     </row>
-    <row r="39" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" s="29" customFormat="1">
       <c r="A39" s="69"/>
       <c r="B39" s="69"/>
       <c r="C39" s="69"/>
@@ -8509,7 +8983,7 @@
       <c r="H39" s="72"/>
       <c r="I39" s="71"/>
     </row>
-    <row r="40" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" s="29" customFormat="1">
       <c r="A40" s="69"/>
       <c r="B40" s="69"/>
       <c r="C40" s="69"/>
@@ -8520,7 +8994,7 @@
       <c r="H40" s="72"/>
       <c r="I40" s="71"/>
     </row>
-    <row r="41" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="29" customFormat="1">
       <c r="A41" s="69"/>
       <c r="B41" s="69"/>
       <c r="C41" s="69"/>
@@ -8531,7 +9005,7 @@
       <c r="H41" s="72"/>
       <c r="I41" s="71"/>
     </row>
-    <row r="42" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" s="29" customFormat="1">
       <c r="A42" s="69"/>
       <c r="B42" s="69"/>
       <c r="C42" s="69"/>
@@ -8542,7 +9016,7 @@
       <c r="H42" s="72"/>
       <c r="I42" s="71"/>
     </row>
-    <row r="43" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" s="29" customFormat="1">
       <c r="A43" s="69"/>
       <c r="B43" s="69"/>
       <c r="C43" s="69"/>
@@ -8559,7 +9033,7 @@
       <c r="O43" s="40"/>
       <c r="P43" s="40"/>
     </row>
-    <row r="44" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" s="29" customFormat="1">
       <c r="A44" s="69"/>
       <c r="B44" s="69"/>
       <c r="C44" s="69"/>
@@ -8570,7 +9044,7 @@
       <c r="H44" s="72"/>
       <c r="I44" s="71"/>
     </row>
-    <row r="45" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="29" customFormat="1">
       <c r="A45" s="69"/>
       <c r="B45" s="69"/>
       <c r="C45" s="69"/>
@@ -8581,7 +9055,7 @@
       <c r="H45" s="72"/>
       <c r="I45" s="71"/>
     </row>
-    <row r="46" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" s="29" customFormat="1">
       <c r="A46" s="69"/>
       <c r="B46" s="69"/>
       <c r="C46" s="69"/>
@@ -8592,7 +9066,7 @@
       <c r="H46" s="72"/>
       <c r="I46" s="71"/>
     </row>
-    <row r="47" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" s="29" customFormat="1">
       <c r="A47" s="69"/>
       <c r="B47" s="69"/>
       <c r="C47" s="69"/>
@@ -8603,7 +9077,7 @@
       <c r="H47" s="72"/>
       <c r="I47" s="71"/>
     </row>
-    <row r="48" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" s="29" customFormat="1">
       <c r="A48" s="69"/>
       <c r="B48" s="69"/>
       <c r="C48" s="69"/>
@@ -8614,7 +9088,7 @@
       <c r="H48" s="72"/>
       <c r="I48" s="71"/>
     </row>
-    <row r="49" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="29" customFormat="1">
       <c r="A49" s="69"/>
       <c r="B49" s="69"/>
       <c r="C49" s="69"/>
@@ -8625,7 +9099,7 @@
       <c r="H49" s="72"/>
       <c r="I49" s="71"/>
     </row>
-    <row r="50" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="29" customFormat="1">
       <c r="A50" s="69"/>
       <c r="B50" s="69"/>
       <c r="C50" s="69"/>
@@ -8642,7 +9116,7 @@
       <c r="O50" s="40"/>
       <c r="P50" s="40"/>
     </row>
-    <row r="51" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="29" customFormat="1">
       <c r="A51" s="69"/>
       <c r="B51" s="69"/>
       <c r="C51" s="69"/>
@@ -8659,7 +9133,7 @@
       <c r="O51" s="40"/>
       <c r="P51" s="40"/>
     </row>
-    <row r="52" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="29" customFormat="1">
       <c r="A52" s="69"/>
       <c r="B52" s="69"/>
       <c r="C52" s="69"/>
@@ -8676,7 +9150,7 @@
       <c r="O52" s="40"/>
       <c r="P52" s="40"/>
     </row>
-    <row r="53" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="29" customFormat="1">
       <c r="A53" s="69"/>
       <c r="B53" s="69"/>
       <c r="C53" s="69"/>
@@ -8693,7 +9167,7 @@
       <c r="O53" s="40"/>
       <c r="P53" s="40"/>
     </row>
-    <row r="54" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="29" customFormat="1">
       <c r="A54" s="69"/>
       <c r="B54" s="69"/>
       <c r="C54" s="69"/>
@@ -8710,7 +9184,7 @@
       <c r="O54" s="40"/>
       <c r="P54" s="40"/>
     </row>
-    <row r="55" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="29" customFormat="1">
       <c r="A55" s="69"/>
       <c r="B55" s="69"/>
       <c r="C55" s="69"/>
@@ -8721,7 +9195,7 @@
       <c r="H55" s="72"/>
       <c r="I55" s="71"/>
     </row>
-    <row r="56" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="29" customFormat="1">
       <c r="A56" s="69"/>
       <c r="B56" s="69"/>
       <c r="C56" s="69"/>
@@ -8732,7 +9206,7 @@
       <c r="H56" s="72"/>
       <c r="I56" s="71"/>
     </row>
-    <row r="57" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="29" customFormat="1">
       <c r="A57" s="69"/>
       <c r="B57" s="69"/>
       <c r="C57" s="69"/>
@@ -8743,7 +9217,7 @@
       <c r="H57" s="72"/>
       <c r="I57" s="71"/>
     </row>
-    <row r="58" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="29" customFormat="1">
       <c r="A58" s="69"/>
       <c r="B58" s="69"/>
       <c r="C58" s="69"/>
@@ -8754,7 +9228,7 @@
       <c r="H58" s="72"/>
       <c r="I58" s="71"/>
     </row>
-    <row r="59" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="29" customFormat="1">
       <c r="A59" s="69"/>
       <c r="B59" s="69"/>
       <c r="C59" s="69"/>
@@ -8765,7 +9239,7 @@
       <c r="H59" s="72"/>
       <c r="I59" s="71"/>
     </row>
-    <row r="60" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="29" customFormat="1">
       <c r="A60" s="69"/>
       <c r="B60" s="69"/>
       <c r="C60" s="69"/>
@@ -8776,7 +9250,7 @@
       <c r="H60" s="72"/>
       <c r="I60" s="71"/>
     </row>
-    <row r="61" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="29" customFormat="1">
       <c r="A61" s="69"/>
       <c r="B61" s="69"/>
       <c r="C61" s="69"/>
@@ -8787,7 +9261,7 @@
       <c r="H61" s="72"/>
       <c r="I61" s="71"/>
     </row>
-    <row r="62" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" s="29" customFormat="1">
       <c r="A62" s="69"/>
       <c r="B62" s="69"/>
       <c r="C62" s="69"/>
@@ -8798,7 +9272,7 @@
       <c r="H62" s="72"/>
       <c r="I62" s="71"/>
     </row>
-    <row r="63" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="29" customFormat="1">
       <c r="A63" s="69"/>
       <c r="B63" s="69"/>
       <c r="C63" s="69"/>
@@ -8809,7 +9283,7 @@
       <c r="H63" s="72"/>
       <c r="I63" s="71"/>
     </row>
-    <row r="64" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="29" customFormat="1">
       <c r="A64" s="69"/>
       <c r="B64" s="69"/>
       <c r="C64" s="69"/>
@@ -8820,7 +9294,7 @@
       <c r="H64" s="72"/>
       <c r="I64" s="71"/>
     </row>
-    <row r="65" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="29" customFormat="1">
       <c r="A65" s="69"/>
       <c r="B65" s="69"/>
       <c r="C65" s="69"/>
@@ -8831,7 +9305,7 @@
       <c r="H65" s="72"/>
       <c r="I65" s="71"/>
     </row>
-    <row r="66" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="29" customFormat="1">
       <c r="A66" s="69"/>
       <c r="B66" s="69"/>
       <c r="C66" s="69"/>
@@ -8842,7 +9316,7 @@
       <c r="H66" s="72"/>
       <c r="I66" s="71"/>
     </row>
-    <row r="67" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" s="29" customFormat="1">
       <c r="A67" s="69"/>
       <c r="B67" s="69"/>
       <c r="C67" s="69"/>
@@ -8853,7 +9327,7 @@
       <c r="H67" s="72"/>
       <c r="I67" s="71"/>
     </row>
-    <row r="68" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="29" customFormat="1">
       <c r="A68" s="69"/>
       <c r="B68" s="69"/>
       <c r="C68" s="69"/>
@@ -8864,7 +9338,7 @@
       <c r="H68" s="72"/>
       <c r="I68" s="71"/>
     </row>
-    <row r="69" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" s="29" customFormat="1">
       <c r="A69" s="69"/>
       <c r="B69" s="69"/>
       <c r="C69" s="69"/>
@@ -8875,7 +9349,7 @@
       <c r="H69" s="72"/>
       <c r="I69" s="71"/>
     </row>
-    <row r="70" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" s="29" customFormat="1">
       <c r="A70" s="69"/>
       <c r="B70" s="69"/>
       <c r="C70" s="69"/>
@@ -8886,7 +9360,7 @@
       <c r="H70" s="72"/>
       <c r="I70" s="71"/>
     </row>
-    <row r="71" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" s="29" customFormat="1">
       <c r="A71" s="69"/>
       <c r="B71" s="69"/>
       <c r="C71" s="69"/>
@@ -8897,7 +9371,7 @@
       <c r="H71" s="72"/>
       <c r="I71" s="71"/>
     </row>
-    <row r="72" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" s="29" customFormat="1">
       <c r="A72" s="69"/>
       <c r="B72" s="69"/>
       <c r="C72" s="69"/>
@@ -8908,7 +9382,7 @@
       <c r="H72" s="72"/>
       <c r="I72" s="71"/>
     </row>
-    <row r="73" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="29" customFormat="1">
       <c r="A73" s="69"/>
       <c r="B73" s="69"/>
       <c r="C73" s="69"/>
@@ -8919,7 +9393,7 @@
       <c r="H73" s="72"/>
       <c r="I73" s="71"/>
     </row>
-    <row r="74" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" s="29" customFormat="1">
       <c r="A74" s="69"/>
       <c r="B74" s="69"/>
       <c r="C74" s="69"/>
@@ -8930,7 +9404,7 @@
       <c r="H74" s="72"/>
       <c r="I74" s="71"/>
     </row>
-    <row r="75" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" s="29" customFormat="1">
       <c r="A75" s="69"/>
       <c r="B75" s="69"/>
       <c r="C75" s="69"/>
@@ -8941,7 +9415,7 @@
       <c r="H75" s="72"/>
       <c r="I75" s="71"/>
     </row>
-    <row r="76" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" s="29" customFormat="1">
       <c r="A76" s="69"/>
       <c r="B76" s="69"/>
       <c r="C76" s="69"/>
@@ -8952,7 +9426,7 @@
       <c r="H76" s="72"/>
       <c r="I76" s="71"/>
     </row>
-    <row r="77" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" s="29" customFormat="1">
       <c r="A77" s="69"/>
       <c r="B77" s="69"/>
       <c r="C77" s="69"/>
@@ -8963,7 +9437,7 @@
       <c r="H77" s="72"/>
       <c r="I77" s="71"/>
     </row>
-    <row r="78" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" s="29" customFormat="1">
       <c r="A78" s="69"/>
       <c r="B78" s="69"/>
       <c r="C78" s="69"/>
@@ -8974,7 +9448,7 @@
       <c r="H78" s="72"/>
       <c r="I78" s="71"/>
     </row>
-    <row r="79" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" s="29" customFormat="1">
       <c r="A79" s="69"/>
       <c r="B79" s="69"/>
       <c r="C79" s="69"/>
@@ -8985,7 +9459,7 @@
       <c r="H79" s="72"/>
       <c r="I79" s="71"/>
     </row>
-    <row r="80" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" s="29" customFormat="1">
       <c r="A80" s="69"/>
       <c r="B80" s="69"/>
       <c r="C80" s="69"/>
@@ -8996,7 +9470,7 @@
       <c r="H80" s="72"/>
       <c r="I80" s="71"/>
     </row>
-    <row r="81" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" s="29" customFormat="1">
       <c r="A81" s="69"/>
       <c r="B81" s="69"/>
       <c r="C81" s="69"/>
@@ -9007,7 +9481,7 @@
       <c r="H81" s="72"/>
       <c r="I81" s="71"/>
     </row>
-    <row r="82" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" s="29" customFormat="1">
       <c r="A82" s="69"/>
       <c r="B82" s="69"/>
       <c r="C82" s="69"/>
@@ -9018,7 +9492,7 @@
       <c r="H82" s="72"/>
       <c r="I82" s="71"/>
     </row>
-    <row r="83" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" s="29" customFormat="1">
       <c r="A83" s="69"/>
       <c r="B83" s="69"/>
       <c r="C83" s="69"/>
@@ -9029,7 +9503,7 @@
       <c r="H83" s="72"/>
       <c r="I83" s="71"/>
     </row>
-    <row r="84" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" s="29" customFormat="1">
       <c r="A84" s="69"/>
       <c r="B84" s="69"/>
       <c r="C84" s="69"/>
@@ -9040,7 +9514,7 @@
       <c r="H84" s="72"/>
       <c r="I84" s="71"/>
     </row>
-    <row r="85" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" s="29" customFormat="1">
       <c r="A85" s="69"/>
       <c r="B85" s="69"/>
       <c r="C85" s="69"/>
@@ -9051,7 +9525,7 @@
       <c r="H85" s="72"/>
       <c r="I85" s="71"/>
     </row>
-    <row r="86" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" s="29" customFormat="1">
       <c r="A86" s="69"/>
       <c r="B86" s="69"/>
       <c r="C86" s="69"/>
@@ -9062,7 +9536,7 @@
       <c r="H86" s="72"/>
       <c r="I86" s="71"/>
     </row>
-    <row r="87" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" s="29" customFormat="1">
       <c r="A87" s="69"/>
       <c r="B87" s="69"/>
       <c r="C87" s="69"/>
@@ -9073,7 +9547,7 @@
       <c r="H87" s="72"/>
       <c r="I87" s="71"/>
     </row>
-    <row r="88" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" s="29" customFormat="1">
       <c r="A88" s="69"/>
       <c r="B88" s="69"/>
       <c r="C88" s="69"/>
@@ -9084,7 +9558,7 @@
       <c r="H88" s="72"/>
       <c r="I88" s="71"/>
     </row>
-    <row r="89" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" s="29" customFormat="1">
       <c r="A89" s="69"/>
       <c r="B89" s="69"/>
       <c r="C89" s="69"/>
@@ -9095,7 +9569,7 @@
       <c r="H89" s="72"/>
       <c r="I89" s="71"/>
     </row>
-    <row r="90" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" s="29" customFormat="1">
       <c r="A90" s="69"/>
       <c r="B90" s="69"/>
       <c r="C90" s="69"/>
@@ -9106,7 +9580,7 @@
       <c r="H90" s="72"/>
       <c r="I90" s="71"/>
     </row>
-    <row r="91" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" s="29" customFormat="1">
       <c r="A91" s="69"/>
       <c r="B91" s="69"/>
       <c r="C91" s="69"/>
@@ -9117,7 +9591,7 @@
       <c r="H91" s="72"/>
       <c r="I91" s="71"/>
     </row>
-    <row r="92" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" s="29" customFormat="1">
       <c r="A92" s="69"/>
       <c r="B92" s="69"/>
       <c r="C92" s="69"/>
@@ -9128,7 +9602,7 @@
       <c r="H92" s="72"/>
       <c r="I92" s="71"/>
     </row>
-    <row r="93" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" s="29" customFormat="1">
       <c r="A93" s="69"/>
       <c r="B93" s="69"/>
       <c r="C93" s="69"/>
@@ -9139,7 +9613,7 @@
       <c r="H93" s="72"/>
       <c r="I93" s="71"/>
     </row>
-    <row r="94" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" s="29" customFormat="1">
       <c r="A94" s="69"/>
       <c r="B94" s="69"/>
       <c r="C94" s="69"/>
@@ -9150,7 +9624,7 @@
       <c r="H94" s="72"/>
       <c r="I94" s="71"/>
     </row>
-    <row r="95" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" s="29" customFormat="1">
       <c r="A95" s="69"/>
       <c r="B95" s="69"/>
       <c r="C95" s="69"/>
@@ -9161,7 +9635,7 @@
       <c r="H95" s="72"/>
       <c r="I95" s="71"/>
     </row>
-    <row r="96" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" s="29" customFormat="1">
       <c r="A96" s="69"/>
       <c r="B96" s="69"/>
       <c r="C96" s="69"/>
@@ -9172,7 +9646,7 @@
       <c r="H96" s="72"/>
       <c r="I96" s="71"/>
     </row>
-    <row r="97" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" s="29" customFormat="1">
       <c r="A97" s="69"/>
       <c r="B97" s="69"/>
       <c r="C97" s="69"/>
@@ -9183,7 +9657,7 @@
       <c r="H97" s="72"/>
       <c r="I97" s="71"/>
     </row>
-    <row r="98" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" s="29" customFormat="1">
       <c r="A98" s="69"/>
       <c r="B98" s="69"/>
       <c r="C98" s="69"/>
@@ -9194,7 +9668,7 @@
       <c r="H98" s="72"/>
       <c r="I98" s="71"/>
     </row>
-    <row r="99" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" s="29" customFormat="1">
       <c r="A99" s="69"/>
       <c r="B99" s="69"/>
       <c r="C99" s="69"/>
@@ -9205,7 +9679,7 @@
       <c r="H99" s="72"/>
       <c r="I99" s="71"/>
     </row>
-    <row r="100" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" s="29" customFormat="1">
       <c r="A100" s="69"/>
       <c r="B100" s="69"/>
       <c r="C100" s="69"/>
@@ -9216,7 +9690,7 @@
       <c r="H100" s="72"/>
       <c r="I100" s="71"/>
     </row>
-    <row r="101" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" s="29" customFormat="1">
       <c r="A101" s="69"/>
       <c r="B101" s="69"/>
       <c r="C101" s="69"/>
@@ -9227,7 +9701,7 @@
       <c r="H101" s="72"/>
       <c r="I101" s="71"/>
     </row>
-    <row r="102" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" s="29" customFormat="1">
       <c r="A102" s="69"/>
       <c r="B102" s="69"/>
       <c r="C102" s="69"/>
@@ -9238,7 +9712,7 @@
       <c r="H102" s="72"/>
       <c r="I102" s="71"/>
     </row>
-    <row r="103" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" s="29" customFormat="1">
       <c r="A103" s="69"/>
       <c r="B103" s="69"/>
       <c r="C103" s="69"/>
@@ -9249,7 +9723,7 @@
       <c r="H103" s="72"/>
       <c r="I103" s="71"/>
     </row>
-    <row r="104" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" s="29" customFormat="1">
       <c r="A104" s="69"/>
       <c r="B104" s="69"/>
       <c r="C104" s="69"/>
@@ -9260,7 +9734,7 @@
       <c r="H104" s="72"/>
       <c r="I104" s="71"/>
     </row>
-    <row r="105" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" s="29" customFormat="1">
       <c r="A105" s="69"/>
       <c r="B105" s="69"/>
       <c r="C105" s="69"/>
@@ -9271,7 +9745,7 @@
       <c r="H105" s="72"/>
       <c r="I105" s="71"/>
     </row>
-    <row r="106" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" s="29" customFormat="1">
       <c r="A106" s="69"/>
       <c r="B106" s="69"/>
       <c r="C106" s="69"/>
@@ -9282,7 +9756,7 @@
       <c r="H106" s="72"/>
       <c r="I106" s="71"/>
     </row>
-    <row r="107" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" s="29" customFormat="1">
       <c r="A107" s="69"/>
       <c r="B107" s="69"/>
       <c r="C107" s="69"/>
@@ -9293,7 +9767,7 @@
       <c r="H107" s="72"/>
       <c r="I107" s="71"/>
     </row>
-    <row r="108" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" s="29" customFormat="1">
       <c r="A108" s="69"/>
       <c r="B108" s="69"/>
       <c r="C108" s="69"/>
@@ -9304,7 +9778,7 @@
       <c r="H108" s="72"/>
       <c r="I108" s="71"/>
     </row>
-    <row r="109" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" s="29" customFormat="1">
       <c r="A109" s="69"/>
       <c r="B109" s="69"/>
       <c r="C109" s="69"/>
@@ -9315,7 +9789,7 @@
       <c r="H109" s="72"/>
       <c r="I109" s="71"/>
     </row>
-    <row r="110" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" s="29" customFormat="1">
       <c r="A110" s="69"/>
       <c r="B110" s="69"/>
       <c r="C110" s="69"/>
@@ -9326,7 +9800,7 @@
       <c r="H110" s="72"/>
       <c r="I110" s="71"/>
     </row>
-    <row r="111" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" s="29" customFormat="1">
       <c r="A111" s="69"/>
       <c r="B111" s="69"/>
       <c r="C111" s="69"/>
@@ -9337,7 +9811,7 @@
       <c r="H111" s="72"/>
       <c r="I111" s="71"/>
     </row>
-    <row r="112" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" s="29" customFormat="1">
       <c r="A112" s="69"/>
       <c r="B112" s="69"/>
       <c r="C112" s="69"/>
@@ -9348,7 +9822,7 @@
       <c r="H112" s="72"/>
       <c r="I112" s="71"/>
     </row>
-    <row r="113" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" s="29" customFormat="1">
       <c r="A113" s="69"/>
       <c r="B113" s="69"/>
       <c r="C113" s="69"/>
@@ -9359,7 +9833,7 @@
       <c r="H113" s="72"/>
       <c r="I113" s="71"/>
     </row>
-    <row r="114" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" s="29" customFormat="1">
       <c r="A114" s="69"/>
       <c r="B114" s="69"/>
       <c r="C114" s="69"/>
@@ -9370,7 +9844,7 @@
       <c r="H114" s="72"/>
       <c r="I114" s="71"/>
     </row>
-    <row r="115" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" s="29" customFormat="1">
       <c r="A115" s="69"/>
       <c r="B115" s="69"/>
       <c r="C115" s="69"/>
@@ -9381,7 +9855,7 @@
       <c r="H115" s="72"/>
       <c r="I115" s="71"/>
     </row>
-    <row r="116" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" s="29" customFormat="1">
       <c r="A116" s="69"/>
       <c r="B116" s="69"/>
       <c r="C116" s="69"/>
@@ -9392,7 +9866,7 @@
       <c r="H116" s="72"/>
       <c r="I116" s="71"/>
     </row>
-    <row r="117" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" s="29" customFormat="1">
       <c r="A117" s="69"/>
       <c r="B117" s="69"/>
       <c r="C117" s="69"/>
@@ -9403,7 +9877,7 @@
       <c r="H117" s="72"/>
       <c r="I117" s="71"/>
     </row>
-    <row r="118" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" s="29" customFormat="1">
       <c r="A118" s="69"/>
       <c r="B118" s="69"/>
       <c r="C118" s="69"/>
@@ -9414,7 +9888,7 @@
       <c r="H118" s="72"/>
       <c r="I118" s="71"/>
     </row>
-    <row r="119" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" s="29" customFormat="1">
       <c r="A119" s="69"/>
       <c r="B119" s="69"/>
       <c r="C119" s="69"/>
@@ -9425,7 +9899,7 @@
       <c r="H119" s="72"/>
       <c r="I119" s="71"/>
     </row>
-    <row r="120" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" s="29" customFormat="1">
       <c r="A120" s="69"/>
       <c r="B120" s="69"/>
       <c r="C120" s="69"/>
@@ -9436,7 +9910,7 @@
       <c r="H120" s="72"/>
       <c r="I120" s="71"/>
     </row>
-    <row r="121" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" s="29" customFormat="1">
       <c r="A121" s="69"/>
       <c r="B121" s="69"/>
       <c r="C121" s="69"/>
@@ -9447,7 +9921,7 @@
       <c r="H121" s="72"/>
       <c r="I121" s="71"/>
     </row>
-    <row r="122" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" s="29" customFormat="1">
       <c r="A122" s="69"/>
       <c r="B122" s="69"/>
       <c r="C122" s="69"/>
@@ -9458,7 +9932,7 @@
       <c r="H122" s="72"/>
       <c r="I122" s="71"/>
     </row>
-    <row r="123" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" s="29" customFormat="1">
       <c r="A123" s="69"/>
       <c r="B123" s="69"/>
       <c r="C123" s="69"/>
@@ -9469,7 +9943,7 @@
       <c r="H123" s="72"/>
       <c r="I123" s="71"/>
     </row>
-    <row r="124" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" s="29" customFormat="1">
       <c r="A124" s="69"/>
       <c r="B124" s="69"/>
       <c r="C124" s="69"/>
@@ -9480,7 +9954,7 @@
       <c r="H124" s="72"/>
       <c r="I124" s="71"/>
     </row>
-    <row r="125" spans="1:9" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" s="29" customFormat="1" ht="15">
       <c r="A125" s="69"/>
       <c r="B125" s="69"/>
       <c r="C125" s="69"/>
@@ -9491,7 +9965,7 @@
       <c r="H125" s="72"/>
       <c r="I125" s="71"/>
     </row>
-    <row r="126" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" s="29" customFormat="1">
       <c r="A126" s="69"/>
       <c r="B126" s="69"/>
       <c r="C126" s="69"/>
@@ -9502,7 +9976,7 @@
       <c r="H126" s="72"/>
       <c r="I126" s="71"/>
     </row>
-    <row r="127" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" s="29" customFormat="1">
       <c r="A127" s="69"/>
       <c r="B127" s="69"/>
       <c r="C127" s="69"/>
@@ -9513,7 +9987,7 @@
       <c r="H127" s="72"/>
       <c r="I127" s="71"/>
     </row>
-    <row r="128" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" s="29" customFormat="1">
       <c r="A128" s="69"/>
       <c r="B128" s="69"/>
       <c r="C128" s="69"/>
@@ -9524,7 +9998,7 @@
       <c r="H128" s="72"/>
       <c r="I128" s="71"/>
     </row>
-    <row r="129" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" s="29" customFormat="1">
       <c r="A129" s="69"/>
       <c r="B129" s="69"/>
       <c r="C129" s="69"/>
@@ -9535,7 +10009,7 @@
       <c r="H129" s="72"/>
       <c r="I129" s="71"/>
     </row>
-    <row r="130" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" s="29" customFormat="1">
       <c r="A130" s="69"/>
       <c r="B130" s="69"/>
       <c r="C130" s="69"/>
@@ -9546,7 +10020,7 @@
       <c r="H130" s="72"/>
       <c r="I130" s="71"/>
     </row>
-    <row r="131" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" s="29" customFormat="1">
       <c r="A131" s="69"/>
       <c r="B131" s="69"/>
       <c r="C131" s="69"/>
@@ -9557,7 +10031,7 @@
       <c r="H131" s="72"/>
       <c r="I131" s="71"/>
     </row>
-    <row r="132" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" s="29" customFormat="1">
       <c r="A132" s="69"/>
       <c r="B132" s="69"/>
       <c r="C132" s="69"/>
@@ -9568,7 +10042,7 @@
       <c r="H132" s="72"/>
       <c r="I132" s="71"/>
     </row>
-    <row r="133" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" s="29" customFormat="1">
       <c r="A133" s="69"/>
       <c r="B133" s="69"/>
       <c r="C133" s="69"/>
@@ -9579,7 +10053,7 @@
       <c r="H133" s="72"/>
       <c r="I133" s="71"/>
     </row>
-    <row r="134" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" s="29" customFormat="1">
       <c r="A134" s="69"/>
       <c r="B134" s="69"/>
       <c r="C134" s="69"/>
@@ -9590,7 +10064,7 @@
       <c r="H134" s="72"/>
       <c r="I134" s="71"/>
     </row>
-    <row r="135" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" s="29" customFormat="1">
       <c r="A135" s="69"/>
       <c r="B135" s="69"/>
       <c r="C135" s="69"/>
@@ -9601,7 +10075,7 @@
       <c r="H135" s="72"/>
       <c r="I135" s="71"/>
     </row>
-    <row r="136" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" s="29" customFormat="1">
       <c r="A136" s="69"/>
       <c r="B136" s="69"/>
       <c r="C136" s="69"/>
@@ -9612,7 +10086,7 @@
       <c r="H136" s="72"/>
       <c r="I136" s="71"/>
     </row>
-    <row r="137" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" s="29" customFormat="1">
       <c r="A137" s="69"/>
       <c r="B137" s="69"/>
       <c r="C137" s="69"/>
@@ -9623,7 +10097,7 @@
       <c r="H137" s="72"/>
       <c r="I137" s="71"/>
     </row>
-    <row r="138" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" s="29" customFormat="1">
       <c r="A138" s="69"/>
       <c r="B138" s="69"/>
       <c r="C138" s="69"/>
@@ -9634,7 +10108,7 @@
       <c r="H138" s="72"/>
       <c r="I138" s="71"/>
     </row>
-    <row r="139" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" s="29" customFormat="1">
       <c r="A139" s="69"/>
       <c r="B139" s="69"/>
       <c r="C139" s="69"/>
@@ -9645,7 +10119,7 @@
       <c r="H139" s="72"/>
       <c r="I139" s="71"/>
     </row>
-    <row r="140" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" s="29" customFormat="1">
       <c r="A140" s="69"/>
       <c r="B140" s="69"/>
       <c r="C140" s="69"/>
@@ -9656,7 +10130,7 @@
       <c r="H140" s="72"/>
       <c r="I140" s="71"/>
     </row>
-    <row r="141" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" s="29" customFormat="1">
       <c r="A141" s="69"/>
       <c r="B141" s="69"/>
       <c r="C141" s="69"/>
@@ -9667,7 +10141,7 @@
       <c r="H141" s="72"/>
       <c r="I141" s="71"/>
     </row>
-    <row r="142" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" s="29" customFormat="1">
       <c r="A142" s="69"/>
       <c r="B142" s="69"/>
       <c r="C142" s="69"/>
@@ -9678,7 +10152,7 @@
       <c r="H142" s="72"/>
       <c r="I142" s="71"/>
     </row>
-    <row r="143" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" s="29" customFormat="1">
       <c r="A143" s="69"/>
       <c r="B143" s="69"/>
       <c r="C143" s="69"/>
@@ -9689,7 +10163,7 @@
       <c r="H143" s="72"/>
       <c r="I143" s="71"/>
     </row>
-    <row r="144" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" s="29" customFormat="1">
       <c r="A144" s="69"/>
       <c r="B144" s="69"/>
       <c r="C144" s="69"/>
@@ -9700,7 +10174,7 @@
       <c r="H144" s="72"/>
       <c r="I144" s="71"/>
     </row>
-    <row r="145" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" s="29" customFormat="1">
       <c r="A145" s="69"/>
       <c r="B145" s="69"/>
       <c r="C145" s="69"/>
@@ -9711,7 +10185,7 @@
       <c r="H145" s="72"/>
       <c r="I145" s="71"/>
     </row>
-    <row r="146" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" s="29" customFormat="1">
       <c r="A146" s="69"/>
       <c r="B146" s="69"/>
       <c r="C146" s="69"/>
@@ -9722,7 +10196,7 @@
       <c r="H146" s="72"/>
       <c r="I146" s="71"/>
     </row>
-    <row r="147" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" s="29" customFormat="1">
       <c r="A147" s="69"/>
       <c r="B147" s="69"/>
       <c r="C147" s="69"/>
@@ -9733,7 +10207,7 @@
       <c r="H147" s="72"/>
       <c r="I147" s="71"/>
     </row>
-    <row r="148" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" s="29" customFormat="1">
       <c r="A148" s="69"/>
       <c r="B148" s="69"/>
       <c r="C148" s="69"/>
@@ -9744,7 +10218,7 @@
       <c r="H148" s="72"/>
       <c r="I148" s="71"/>
     </row>
-    <row r="149" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" s="29" customFormat="1">
       <c r="A149" s="69"/>
       <c r="B149" s="69"/>
       <c r="C149" s="69"/>
@@ -9755,7 +10229,7 @@
       <c r="H149" s="72"/>
       <c r="I149" s="71"/>
     </row>
-    <row r="150" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" s="29" customFormat="1">
       <c r="A150" s="69"/>
       <c r="B150" s="69"/>
       <c r="C150" s="69"/>
@@ -9766,7 +10240,7 @@
       <c r="H150" s="72"/>
       <c r="I150" s="71"/>
     </row>
-    <row r="151" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" s="29" customFormat="1">
       <c r="A151" s="69"/>
       <c r="B151" s="69"/>
       <c r="C151" s="69"/>
@@ -9777,7 +10251,7 @@
       <c r="H151" s="72"/>
       <c r="I151" s="71"/>
     </row>
-    <row r="152" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" s="29" customFormat="1">
       <c r="A152" s="69"/>
       <c r="B152" s="69"/>
       <c r="C152" s="69"/>
@@ -9788,7 +10262,7 @@
       <c r="H152" s="72"/>
       <c r="I152" s="71"/>
     </row>
-    <row r="153" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" s="29" customFormat="1">
       <c r="A153" s="69"/>
       <c r="B153" s="69"/>
       <c r="C153" s="69"/>
@@ -9799,7 +10273,7 @@
       <c r="H153" s="72"/>
       <c r="I153" s="71"/>
     </row>
-    <row r="154" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" s="29" customFormat="1">
       <c r="A154" s="69"/>
       <c r="B154" s="69"/>
       <c r="C154" s="69"/>
@@ -9810,7 +10284,7 @@
       <c r="H154" s="72"/>
       <c r="I154" s="71"/>
     </row>
-    <row r="155" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" s="29" customFormat="1">
       <c r="A155" s="69"/>
       <c r="B155" s="69"/>
       <c r="C155" s="69"/>
@@ -9821,7 +10295,7 @@
       <c r="H155" s="72"/>
       <c r="I155" s="71"/>
     </row>
-    <row r="156" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" s="29" customFormat="1">
       <c r="A156" s="69"/>
       <c r="B156" s="69"/>
       <c r="C156" s="69"/>
@@ -9832,7 +10306,7 @@
       <c r="H156" s="72"/>
       <c r="I156" s="71"/>
     </row>
-    <row r="157" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" s="29" customFormat="1">
       <c r="A157" s="69"/>
       <c r="B157" s="69"/>
       <c r="C157" s="69"/>
@@ -9843,7 +10317,7 @@
       <c r="H157" s="72"/>
       <c r="I157" s="71"/>
     </row>
-    <row r="158" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" s="29" customFormat="1">
       <c r="A158" s="69"/>
       <c r="B158" s="69"/>
       <c r="C158" s="69"/>
@@ -9854,7 +10328,7 @@
       <c r="H158" s="72"/>
       <c r="I158" s="71"/>
     </row>
-    <row r="159" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" s="29" customFormat="1">
       <c r="A159" s="69"/>
       <c r="B159" s="69"/>
       <c r="C159" s="69"/>
@@ -9865,7 +10339,7 @@
       <c r="H159" s="72"/>
       <c r="I159" s="71"/>
     </row>
-    <row r="160" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" s="29" customFormat="1">
       <c r="A160" s="69"/>
       <c r="B160" s="69"/>
       <c r="C160" s="69"/>
@@ -9876,7 +10350,7 @@
       <c r="H160" s="72"/>
       <c r="I160" s="71"/>
     </row>
-    <row r="161" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" s="29" customFormat="1">
       <c r="A161" s="69"/>
       <c r="B161" s="69"/>
       <c r="C161" s="69"/>
@@ -9887,7 +10361,7 @@
       <c r="H161" s="72"/>
       <c r="I161" s="71"/>
     </row>
-    <row r="162" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" s="29" customFormat="1">
       <c r="A162" s="69"/>
       <c r="B162" s="69"/>
       <c r="C162" s="69"/>
@@ -9898,7 +10372,7 @@
       <c r="H162" s="72"/>
       <c r="I162" s="71"/>
     </row>
-    <row r="163" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" s="29" customFormat="1">
       <c r="A163" s="69"/>
       <c r="B163" s="69"/>
       <c r="C163" s="69"/>
@@ -9909,7 +10383,7 @@
       <c r="H163" s="72"/>
       <c r="I163" s="71"/>
     </row>
-    <row r="164" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" s="29" customFormat="1">
       <c r="A164" s="69"/>
       <c r="B164" s="69"/>
       <c r="C164" s="69"/>
@@ -9920,7 +10394,7 @@
       <c r="H164" s="72"/>
       <c r="I164" s="71"/>
     </row>
-    <row r="165" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" s="29" customFormat="1">
       <c r="A165" s="69"/>
       <c r="B165" s="69"/>
       <c r="C165" s="69"/>
@@ -9931,7 +10405,7 @@
       <c r="H165" s="72"/>
       <c r="I165" s="71"/>
     </row>
-    <row r="166" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" s="29" customFormat="1">
       <c r="A166" s="69"/>
       <c r="B166" s="69"/>
       <c r="C166" s="69"/>
@@ -9942,7 +10416,7 @@
       <c r="H166" s="72"/>
       <c r="I166" s="71"/>
     </row>
-    <row r="167" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" s="29" customFormat="1">
       <c r="A167" s="69"/>
       <c r="B167" s="69"/>
       <c r="C167" s="69"/>
@@ -9953,7 +10427,7 @@
       <c r="H167" s="72"/>
       <c r="I167" s="71"/>
     </row>
-    <row r="168" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" s="29" customFormat="1">
       <c r="A168" s="69"/>
       <c r="B168" s="69"/>
       <c r="C168" s="69"/>
@@ -9964,7 +10438,7 @@
       <c r="H168" s="72"/>
       <c r="I168" s="71"/>
     </row>
-    <row r="169" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" s="29" customFormat="1">
       <c r="A169" s="69"/>
       <c r="B169" s="69"/>
       <c r="C169" s="69"/>
@@ -9975,7 +10449,7 @@
       <c r="H169" s="72"/>
       <c r="I169" s="71"/>
     </row>
-    <row r="170" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" s="29" customFormat="1">
       <c r="A170" s="69"/>
       <c r="B170" s="69"/>
       <c r="C170" s="69"/>
@@ -9986,7 +10460,7 @@
       <c r="H170" s="72"/>
       <c r="I170" s="71"/>
     </row>
-    <row r="171" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" s="29" customFormat="1">
       <c r="A171" s="69"/>
       <c r="B171" s="69"/>
       <c r="C171" s="69"/>
@@ -9997,7 +10471,7 @@
       <c r="H171" s="72"/>
       <c r="I171" s="71"/>
     </row>
-    <row r="172" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" s="29" customFormat="1">
       <c r="A172" s="69"/>
       <c r="B172" s="69"/>
       <c r="C172" s="69"/>
@@ -10008,7 +10482,7 @@
       <c r="H172" s="72"/>
       <c r="I172" s="71"/>
     </row>
-    <row r="173" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" s="29" customFormat="1">
       <c r="A173" s="69"/>
       <c r="B173" s="69"/>
       <c r="C173" s="69"/>
@@ -10019,7 +10493,7 @@
       <c r="H173" s="72"/>
       <c r="I173" s="71"/>
     </row>
-    <row r="174" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" s="29" customFormat="1">
       <c r="A174" s="69"/>
       <c r="B174" s="69"/>
       <c r="C174" s="69"/>
@@ -10030,7 +10504,7 @@
       <c r="H174" s="72"/>
       <c r="I174" s="71"/>
     </row>
-    <row r="175" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" s="29" customFormat="1">
       <c r="A175" s="69"/>
       <c r="B175" s="69"/>
       <c r="C175" s="69"/>
@@ -10041,7 +10515,7 @@
       <c r="H175" s="72"/>
       <c r="I175" s="71"/>
     </row>
-    <row r="176" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" s="29" customFormat="1">
       <c r="A176" s="69"/>
       <c r="B176" s="69"/>
       <c r="C176" s="69"/>
@@ -10052,7 +10526,7 @@
       <c r="H176" s="72"/>
       <c r="I176" s="71"/>
     </row>
-    <row r="177" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" s="29" customFormat="1">
       <c r="A177" s="69"/>
       <c r="B177" s="69"/>
       <c r="C177" s="69"/>
@@ -10063,7 +10537,7 @@
       <c r="H177" s="72"/>
       <c r="I177" s="71"/>
     </row>
-    <row r="178" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" s="29" customFormat="1">
       <c r="A178" s="69"/>
       <c r="B178" s="69"/>
       <c r="C178" s="69"/>
@@ -10074,7 +10548,7 @@
       <c r="H178" s="72"/>
       <c r="I178" s="71"/>
     </row>
-    <row r="179" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" s="29" customFormat="1">
       <c r="A179" s="69"/>
       <c r="B179" s="69"/>
       <c r="C179" s="69"/>
@@ -10085,7 +10559,7 @@
       <c r="H179" s="72"/>
       <c r="I179" s="71"/>
     </row>
-    <row r="180" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" s="29" customFormat="1">
       <c r="A180" s="69"/>
       <c r="B180" s="69"/>
       <c r="C180" s="69"/>
@@ -10096,7 +10570,7 @@
       <c r="H180" s="72"/>
       <c r="I180" s="71"/>
     </row>
-    <row r="181" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" s="29" customFormat="1">
       <c r="A181" s="69"/>
       <c r="B181" s="69"/>
       <c r="C181" s="69"/>
@@ -10105,7 +10579,7 @@
       <c r="F181" s="75"/>
       <c r="H181" s="69"/>
     </row>
-    <row r="182" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" s="29" customFormat="1">
       <c r="A182" s="69"/>
       <c r="B182" s="69"/>
       <c r="C182" s="69"/>
@@ -10114,7 +10588,7 @@
       <c r="F182" s="75"/>
       <c r="H182" s="69"/>
     </row>
-    <row r="183" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" s="29" customFormat="1">
       <c r="A183" s="69"/>
       <c r="B183" s="69"/>
       <c r="C183" s="69"/>
@@ -10125,7 +10599,7 @@
       <c r="H183" s="69"/>
       <c r="J183" s="69"/>
     </row>
-    <row r="184" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" s="29" customFormat="1">
       <c r="A184" s="69"/>
       <c r="B184" s="69"/>
       <c r="C184" s="69"/>
@@ -10136,7 +10610,7 @@
       <c r="H184" s="69"/>
       <c r="J184" s="69"/>
     </row>
-    <row r="185" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" s="29" customFormat="1">
       <c r="A185" s="69"/>
       <c r="B185" s="69"/>
       <c r="C185" s="69"/>
@@ -10147,7 +10621,7 @@
       <c r="H185" s="69"/>
       <c r="J185" s="69"/>
     </row>
-    <row r="186" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" s="29" customFormat="1">
       <c r="A186" s="69"/>
       <c r="B186" s="69"/>
       <c r="C186" s="69"/>
@@ -10158,7 +10632,7 @@
       <c r="H186" s="69"/>
       <c r="J186" s="69"/>
     </row>
-    <row r="187" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" s="29" customFormat="1">
       <c r="A187" s="69"/>
       <c r="B187" s="69"/>
       <c r="C187" s="69"/>
@@ -10169,7 +10643,7 @@
       <c r="H187" s="69"/>
       <c r="J187" s="69"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10">
       <c r="E188" s="41"/>
       <c r="G188" s="37"/>
       <c r="J188" s="31"/>
@@ -10190,31 +10664,31 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H180">
-    <cfRule type="cellIs" dxfId="223" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="576" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="577" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="578" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="579" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="579" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="580" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="581" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="582" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="582" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -10230,7 +10704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA1E451-9EE1-4580-98F0-FF9558325769}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -10238,7 +10712,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" style="88" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="88" bestFit="1" customWidth="1"/>
@@ -10251,7 +10725,7 @@
     <col min="9" max="16384" width="9.140625" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="62" t="s">
         <v>27</v>
       </c>
@@ -10264,7 +10738,7 @@
       <c r="H1" s="61"/>
       <c r="I1" s="42"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="38" t="s">
         <v>19</v>
       </c>
@@ -10293,11 +10767,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="102">
       <c r="A3" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="84"/>
@@ -10318,13 +10792,13 @@
       </c>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="76.5">
       <c r="A4" s="84" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="84"/>
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="121" t="s">
         <v>260</v>
       </c>
       <c r="E4" s="65" t="s">
@@ -10341,13 +10815,13 @@
       </c>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="76.5">
       <c r="A5" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="112"/>
+      <c r="B5" s="121"/>
       <c r="C5" s="84"/>
-      <c r="D5" s="112"/>
+      <c r="D5" s="121"/>
       <c r="E5" s="65" t="s">
         <v>298</v>
       </c>
@@ -10362,13 +10836,13 @@
       </c>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="76.5">
       <c r="A6" s="84" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="121"/>
       <c r="C6" s="84"/>
-      <c r="D6" s="112"/>
+      <c r="D6" s="121"/>
       <c r="E6" s="65" t="s">
         <v>300</v>
       </c>
@@ -10383,13 +10857,13 @@
       </c>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="76.5">
       <c r="A7" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="112"/>
+      <c r="B7" s="121"/>
       <c r="C7" s="84"/>
-      <c r="D7" s="112"/>
+      <c r="D7" s="121"/>
       <c r="E7" s="65" t="s">
         <v>302</v>
       </c>
@@ -10404,11 +10878,11 @@
       </c>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="38.25">
       <c r="A8" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="112"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="84"/>
       <c r="D8" s="84"/>
       <c r="E8" s="65" t="s">
@@ -10425,7 +10899,7 @@
       </c>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:9" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="29" customFormat="1" ht="76.5">
       <c r="A9" s="84" t="s">
         <v>281</v>
       </c>
@@ -10454,53 +10928,53 @@
     <mergeCell ref="D4:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H8">
-    <cfRule type="cellIs" dxfId="216" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="8" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="10" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="11" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="13" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="14" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="209" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{67EBB688-239A-4A4F-886F-60A425D33DFE}">
@@ -10522,12 +10996,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
@@ -10539,7 +11013,7 @@
     <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="25" t="s">
         <v>243</v>
       </c>
@@ -10547,7 +11021,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="B2" s="24" t="s">
         <v>242</v>
       </c>
@@ -10555,7 +11029,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="B3" s="11" t="s">
         <v>214</v>
       </c>
@@ -10563,7 +11037,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="B4" s="11" t="s">
         <v>215</v>
       </c>
@@ -10571,7 +11045,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="B5" s="11" t="s">
         <v>216</v>
       </c>
@@ -10579,7 +11053,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="B6" s="11" t="s">
         <v>218</v>
       </c>
@@ -10587,7 +11061,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="B7" s="11" t="s">
         <v>217</v>
       </c>
@@ -10601,7 +11075,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="B8" s="11" t="s">
         <v>219</v>
       </c>
@@ -10615,7 +11089,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="B9" s="11" t="s">
         <v>220</v>
       </c>
@@ -10626,7 +11100,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="B10" s="11" t="s">
         <v>221</v>
       </c>
@@ -10637,7 +11111,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="B11" s="11" t="s">
         <v>250</v>
       </c>
@@ -10648,7 +11122,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="B12" s="11" t="s">
         <v>222</v>
       </c>
@@ -10662,7 +11136,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="B13" s="11" t="s">
         <v>223</v>
       </c>
@@ -10673,7 +11147,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="C14" s="11" t="s">
         <v>235</v>
       </c>
@@ -10681,7 +11155,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="C15" s="11" t="s">
         <v>230</v>
       </c>
@@ -10689,27 +11163,27 @@
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="C16" s="11" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4">
       <c r="C17" s="11" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4">
       <c r="C18" s="11" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4">
       <c r="C19" s="11" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4">
       <c r="C20" s="11" t="s">
         <v>234</v>
       </c>
@@ -10717,7 +11191,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4">
       <c r="C21" s="11" t="s">
         <v>25</v>
       </c>
@@ -10725,7 +11199,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4">
       <c r="C22" s="11" t="s">
         <v>233</v>
       </c>
@@ -10733,7 +11207,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4">
       <c r="D23" s="11" t="s">
         <v>239</v>
       </c>
@@ -10744,12 +11218,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -10757,7 +11231,7 @@
     <col min="4" max="4" width="98.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="15"/>
       <c r="B1" s="13" t="s">
         <v>212</v>
@@ -10767,17 +11241,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="15"/>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="132"/>
+      <c r="D2" s="126"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="15"/>
-      <c r="B3" s="115"/>
+      <c r="B3" s="127"/>
       <c r="C3" s="11" t="s">
         <v>93</v>
       </c>
@@ -10785,9 +11259,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="15"/>
-      <c r="B4" s="116"/>
+      <c r="B4" s="128"/>
       <c r="C4" s="11" t="s">
         <v>95</v>
       </c>
@@ -10795,9 +11269,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="15"/>
-      <c r="B5" s="117"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="11" t="s">
         <v>97</v>
       </c>
@@ -10805,17 +11279,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="15"/>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="15"/>
-      <c r="B7" s="115"/>
+      <c r="B7" s="127"/>
       <c r="C7" s="11" t="s">
         <v>99</v>
       </c>
@@ -10823,9 +11297,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="15"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="11" t="s">
         <v>101</v>
       </c>
@@ -10834,9 +11308,9 @@
       </c>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="15"/>
-      <c r="B9" s="116"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="11" t="s">
         <v>103</v>
       </c>
@@ -10844,9 +11318,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="15"/>
-      <c r="B10" s="116"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="11" t="s">
         <v>105</v>
       </c>
@@ -10854,9 +11328,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="15"/>
-      <c r="B11" s="116"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="11" t="s">
         <v>106</v>
       </c>
@@ -10864,9 +11338,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="15"/>
-      <c r="B12" s="116"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="18" t="s">
         <v>107</v>
       </c>
@@ -10874,18 +11348,18 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="15"/>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="15"/>
-      <c r="B14" s="116"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="19" t="s">
         <v>108</v>
       </c>
@@ -10893,9 +11367,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="15"/>
-      <c r="B15" s="116"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="11" t="s">
         <v>110</v>
       </c>
@@ -10903,9 +11377,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="15"/>
-      <c r="B16" s="116"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="11" t="s">
         <v>112</v>
       </c>
@@ -10913,9 +11387,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="15"/>
-      <c r="B17" s="116"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="11" t="s">
         <v>114</v>
       </c>
@@ -10923,9 +11397,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="15"/>
-      <c r="B18" s="116"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="11" t="s">
         <v>116</v>
       </c>
@@ -10933,9 +11407,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="15"/>
-      <c r="B19" s="116"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="11" t="s">
         <v>118</v>
       </c>
@@ -10943,9 +11417,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="15"/>
-      <c r="B20" s="117"/>
+      <c r="B20" s="129"/>
       <c r="C20" s="11" t="s">
         <v>119</v>
       </c>
@@ -10953,17 +11427,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="15"/>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="15"/>
-      <c r="B22" s="115"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="11" t="s">
         <v>120</v>
       </c>
@@ -10971,9 +11445,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="15"/>
-      <c r="B23" s="116"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="11" t="s">
         <v>122</v>
       </c>
@@ -10981,9 +11455,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="15"/>
-      <c r="B24" s="116"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="11" t="s">
         <v>124</v>
       </c>
@@ -10991,9 +11465,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="15"/>
-      <c r="B25" s="116"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="11" t="s">
         <v>126</v>
       </c>
@@ -11001,9 +11475,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="15"/>
-      <c r="B26" s="116"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="11" t="s">
         <v>127</v>
       </c>
@@ -11011,9 +11485,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="15"/>
-      <c r="B27" s="116"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="11" t="s">
         <v>129</v>
       </c>
@@ -11021,9 +11495,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="15"/>
-      <c r="B28" s="116"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="11" t="s">
         <v>131</v>
       </c>
@@ -11031,9 +11505,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="15"/>
-      <c r="B29" s="116"/>
+      <c r="B29" s="128"/>
       <c r="C29" s="11" t="s">
         <v>132</v>
       </c>
@@ -11041,9 +11515,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="15"/>
-      <c r="B30" s="116"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="16" t="s">
         <v>133</v>
       </c>
@@ -11051,9 +11525,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="15"/>
-      <c r="B31" s="116"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="16" t="s">
         <v>134</v>
       </c>
@@ -11061,9 +11535,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="15"/>
-      <c r="B32" s="116"/>
+      <c r="B32" s="128"/>
       <c r="C32" s="16" t="s">
         <v>135</v>
       </c>
@@ -11071,9 +11545,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="15"/>
-      <c r="B33" s="116"/>
+      <c r="B33" s="128"/>
       <c r="C33" s="16" t="s">
         <v>136</v>
       </c>
@@ -11081,9 +11555,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="15"/>
-      <c r="B34" s="116"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="16" t="s">
         <v>137</v>
       </c>
@@ -11091,9 +11565,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="15"/>
-      <c r="B35" s="116"/>
+      <c r="B35" s="128"/>
       <c r="C35" s="16" t="s">
         <v>138</v>
       </c>
@@ -11101,9 +11575,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="15"/>
-      <c r="B36" s="116"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="16" t="s">
         <v>139</v>
       </c>
@@ -11111,9 +11585,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="15"/>
-      <c r="B37" s="117"/>
+      <c r="B37" s="129"/>
       <c r="C37" s="16" t="s">
         <v>140</v>
       </c>
@@ -11121,17 +11595,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="15"/>
-      <c r="B38" s="123" t="s">
+      <c r="B38" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="15"/>
-      <c r="B39" s="115"/>
+      <c r="B39" s="127"/>
       <c r="C39" s="11" t="s">
         <v>141</v>
       </c>
@@ -11139,9 +11613,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="15"/>
-      <c r="B40" s="116"/>
+      <c r="B40" s="128"/>
       <c r="C40" s="11" t="s">
         <v>143</v>
       </c>
@@ -11149,9 +11623,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="15"/>
-      <c r="B41" s="116"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="11" t="s">
         <v>145</v>
       </c>
@@ -11159,9 +11633,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="15"/>
-      <c r="B42" s="116"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="11" t="s">
         <v>147</v>
       </c>
@@ -11169,9 +11643,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="15"/>
-      <c r="B43" s="116"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="11" t="s">
         <v>149</v>
       </c>
@@ -11179,9 +11653,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="15"/>
-      <c r="B44" s="116"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="11" t="s">
         <v>151</v>
       </c>
@@ -11189,9 +11663,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="15"/>
-      <c r="B45" s="116"/>
+      <c r="B45" s="128"/>
       <c r="C45" s="11" t="s">
         <v>152</v>
       </c>
@@ -11199,9 +11673,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="15"/>
-      <c r="B46" s="116"/>
+      <c r="B46" s="128"/>
       <c r="C46" s="11" t="s">
         <v>153</v>
       </c>
@@ -11209,9 +11683,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="15"/>
-      <c r="B47" s="116"/>
+      <c r="B47" s="128"/>
       <c r="C47" s="11" t="s">
         <v>154</v>
       </c>
@@ -11219,9 +11693,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="15"/>
-      <c r="B48" s="116"/>
+      <c r="B48" s="128"/>
       <c r="C48" s="11" t="s">
         <v>155</v>
       </c>
@@ -11229,9 +11703,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="15"/>
-      <c r="B49" s="116"/>
+      <c r="B49" s="128"/>
       <c r="C49" s="11" t="s">
         <v>156</v>
       </c>
@@ -11239,9 +11713,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="15"/>
-      <c r="B50" s="116"/>
+      <c r="B50" s="128"/>
       <c r="C50" s="11" t="s">
         <v>157</v>
       </c>
@@ -11249,9 +11723,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="15"/>
-      <c r="B51" s="116"/>
+      <c r="B51" s="128"/>
       <c r="C51" s="18" t="s">
         <v>158</v>
       </c>
@@ -11259,17 +11733,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="15"/>
-      <c r="B52" s="123" t="s">
+      <c r="B52" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="123"/>
-      <c r="D52" s="123"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="130"/>
+      <c r="D52" s="130"/>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="15"/>
-      <c r="B53" s="116"/>
+      <c r="B53" s="128"/>
       <c r="C53" s="19" t="s">
         <v>159</v>
       </c>
@@ -11277,9 +11751,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="15"/>
-      <c r="B54" s="116"/>
+      <c r="B54" s="128"/>
       <c r="C54" s="11" t="s">
         <v>161</v>
       </c>
@@ -11287,9 +11761,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="15"/>
-      <c r="B55" s="116"/>
+      <c r="B55" s="128"/>
       <c r="C55" s="11" t="s">
         <v>162</v>
       </c>
@@ -11297,9 +11771,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="15"/>
-      <c r="B56" s="117"/>
+      <c r="B56" s="129"/>
       <c r="C56" s="11" t="s">
         <v>163</v>
       </c>
@@ -11307,17 +11781,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="15"/>
-      <c r="B57" s="118" t="s">
+      <c r="B57" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="119"/>
-      <c r="D57" s="120"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="132"/>
+      <c r="D57" s="126"/>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="15"/>
-      <c r="B58" s="115"/>
+      <c r="B58" s="127"/>
       <c r="C58" s="11" t="s">
         <v>164</v>
       </c>
@@ -11325,9 +11799,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="15"/>
-      <c r="B59" s="116"/>
+      <c r="B59" s="128"/>
       <c r="C59" s="11" t="s">
         <v>166</v>
       </c>
@@ -11335,9 +11809,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="15"/>
-      <c r="B60" s="117"/>
+      <c r="B60" s="129"/>
       <c r="C60" s="11" t="s">
         <v>168</v>
       </c>
@@ -11345,16 +11819,16 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="15"/>
       <c r="B61" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D61" s="20"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="15"/>
-      <c r="B62" s="115"/>
+      <c r="B62" s="127"/>
       <c r="C62" s="11" t="s">
         <v>170</v>
       </c>
@@ -11362,9 +11836,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="15"/>
-      <c r="B63" s="116"/>
+      <c r="B63" s="128"/>
       <c r="C63" s="11" t="s">
         <v>171</v>
       </c>
@@ -11372,9 +11846,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="15"/>
-      <c r="B64" s="116"/>
+      <c r="B64" s="128"/>
       <c r="C64" s="11" t="s">
         <v>172</v>
       </c>
@@ -11382,9 +11856,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="15"/>
-      <c r="B65" s="117"/>
+      <c r="B65" s="129"/>
       <c r="C65" s="11" t="s">
         <v>173</v>
       </c>
@@ -11392,17 +11866,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="15"/>
-      <c r="B66" s="118" t="s">
+      <c r="B66" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="119"/>
-      <c r="D66" s="120"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="132"/>
+      <c r="D66" s="126"/>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="15"/>
-      <c r="B67" s="115"/>
+      <c r="B67" s="127"/>
       <c r="C67" s="11" t="s">
         <v>174</v>
       </c>
@@ -11410,9 +11884,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="15"/>
-      <c r="B68" s="117"/>
+      <c r="B68" s="129"/>
       <c r="C68" s="11" t="s">
         <v>175</v>
       </c>
@@ -11420,17 +11894,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="15"/>
-      <c r="B69" s="118" t="s">
+      <c r="B69" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="119"/>
-      <c r="D69" s="120"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="132"/>
+      <c r="D69" s="126"/>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="15"/>
-      <c r="B70" s="115"/>
+      <c r="B70" s="127"/>
       <c r="C70" s="11" t="s">
         <v>176</v>
       </c>
@@ -11438,9 +11912,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="15"/>
-      <c r="B71" s="116"/>
+      <c r="B71" s="128"/>
       <c r="C71" s="11" t="s">
         <v>177</v>
       </c>
@@ -11448,9 +11922,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="15"/>
-      <c r="B72" s="116"/>
+      <c r="B72" s="128"/>
       <c r="C72" s="11" t="s">
         <v>178</v>
       </c>
@@ -11458,9 +11932,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="15"/>
-      <c r="B73" s="117"/>
+      <c r="B73" s="129"/>
       <c r="C73" s="11" t="s">
         <v>179</v>
       </c>
@@ -11468,15 +11942,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="15"/>
-      <c r="B74" s="118" t="s">
+      <c r="B74" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="C74" s="119"/>
-      <c r="D74" s="120"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="132"/>
+      <c r="D74" s="126"/>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="15"/>
       <c r="B75" s="43"/>
       <c r="C75" s="17" t="s">
@@ -11486,7 +11960,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="15"/>
       <c r="B76" s="44"/>
       <c r="C76" s="17" t="s">
@@ -11496,7 +11970,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="15"/>
       <c r="B77" s="44"/>
       <c r="C77" s="17" t="s">
@@ -11506,7 +11980,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="15"/>
       <c r="B78" s="44"/>
       <c r="C78" s="17" t="s">
@@ -11516,7 +11990,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="15"/>
       <c r="B79" s="44"/>
       <c r="C79" s="17" t="s">
@@ -11526,7 +12000,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="15"/>
       <c r="B80" s="44"/>
       <c r="C80" s="17" t="s">
@@ -11536,7 +12010,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="15"/>
       <c r="B81" s="44"/>
       <c r="C81" s="17" t="s">
@@ -11546,7 +12020,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="15"/>
       <c r="B82" s="44"/>
       <c r="C82" s="17" t="s">
@@ -11556,7 +12030,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="15"/>
       <c r="B83" s="44"/>
       <c r="C83" s="17" t="s">
@@ -11566,7 +12040,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="15"/>
       <c r="B84" s="44"/>
       <c r="C84" s="17" t="s">
@@ -11576,7 +12050,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="15"/>
       <c r="B85" s="44"/>
       <c r="C85" s="17" t="s">
@@ -11586,7 +12060,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="15"/>
       <c r="B86" s="44"/>
       <c r="C86" s="17" t="s">
@@ -11596,7 +12070,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="15"/>
       <c r="B87" s="44"/>
       <c r="C87" s="17" t="s">
@@ -11606,7 +12080,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="15"/>
       <c r="B88" s="44"/>
       <c r="C88" s="17" t="s">
@@ -11616,7 +12090,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="15"/>
       <c r="B89" s="44"/>
       <c r="C89" s="17" t="s">
@@ -11626,7 +12100,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="15"/>
       <c r="B90" s="44"/>
       <c r="C90" s="17" t="s">
@@ -11636,7 +12110,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="15"/>
       <c r="B91" s="44"/>
       <c r="C91" s="17" t="s">
@@ -11646,7 +12120,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="15"/>
       <c r="B92" s="44"/>
       <c r="C92" s="17" t="s">
@@ -11656,7 +12130,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="15"/>
       <c r="B93" s="44"/>
       <c r="C93" s="17" t="s">
@@ -11666,7 +12140,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="15"/>
       <c r="B94" s="44"/>
       <c r="C94" s="17" t="s">
@@ -11676,7 +12150,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="15"/>
       <c r="B95" s="44"/>
       <c r="C95" s="17" t="s">
@@ -11686,7 +12160,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="15"/>
       <c r="B96" s="47"/>
       <c r="C96" s="48" t="s">
@@ -11696,7 +12170,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="15"/>
       <c r="B97" s="45"/>
       <c r="C97" s="48" t="s">
@@ -11706,7 +12180,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="15"/>
       <c r="B98" s="46"/>
       <c r="C98" s="48" t="s">
@@ -11716,17 +12190,17 @@
         <v>259</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="15"/>
-      <c r="B99" s="118" t="s">
+      <c r="B99" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="C99" s="119"/>
-      <c r="D99" s="120"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="132"/>
+      <c r="D99" s="126"/>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="15"/>
-      <c r="B100" s="115"/>
+      <c r="B100" s="127"/>
       <c r="C100" s="11" t="s">
         <v>205</v>
       </c>
@@ -11734,9 +12208,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="15"/>
-      <c r="B101" s="116"/>
+      <c r="B101" s="128"/>
       <c r="C101" s="11" t="s">
         <v>207</v>
       </c>
@@ -11744,9 +12218,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="15"/>
-      <c r="B102" s="116"/>
+      <c r="B102" s="128"/>
       <c r="C102" s="11" t="s">
         <v>209</v>
       </c>
@@ -11754,9 +12228,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="15"/>
-      <c r="B103" s="117"/>
+      <c r="B103" s="129"/>
       <c r="C103" s="11" t="s">
         <v>211</v>
       </c>
@@ -11764,15 +12238,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="15"/>
-      <c r="B104" s="121" t="s">
+      <c r="B104" s="124" t="s">
         <v>251</v>
       </c>
-      <c r="C104" s="122"/>
-      <c r="D104" s="120"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="125"/>
+      <c r="D104" s="126"/>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11" t="s">
@@ -11784,6 +12258,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B67:B68"/>
     <mergeCell ref="B104:D104"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="B3:B5"/>
@@ -11800,20 +12281,13 @@
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B39:B51"/>
     <mergeCell ref="B22:B37"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B67:B68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA19C67-752A-472F-AD15-5D8BD8C3D4F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -11821,7 +12295,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -11834,7 +12308,7 @@
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="89" t="s">
         <v>27</v>
       </c>
@@ -11847,7 +12321,7 @@
       <c r="H1" s="90"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
@@ -11876,11 +12350,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="102">
       <c r="A3" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="84"/>
@@ -11901,11 +12375,11 @@
       </c>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="38.25">
       <c r="A4" s="84" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="84"/>
       <c r="D4" s="84"/>
       <c r="E4" s="65" t="s">
@@ -11922,7 +12396,7 @@
       </c>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" ht="153" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="153">
       <c r="A5" s="84" t="s">
         <v>270</v>
       </c>
@@ -11943,7 +12417,7 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="102">
       <c r="A6" s="84" t="s">
         <v>272</v>
       </c>
@@ -11964,7 +12438,7 @@
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="102">
       <c r="A7" s="84" t="s">
         <v>279</v>
       </c>
@@ -11985,7 +12459,7 @@
       </c>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="127.5">
       <c r="A8" s="84" t="s">
         <v>280</v>
       </c>
@@ -12006,7 +12480,7 @@
       </c>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="153" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="153">
       <c r="A9" s="84" t="s">
         <v>281</v>
       </c>
@@ -12027,7 +12501,7 @@
       </c>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="102">
       <c r="A10" s="84" t="s">
         <v>282</v>
       </c>
@@ -12053,31 +12527,31 @@
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H10">
-    <cfRule type="cellIs" dxfId="202" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E8E2E1E8-4B7F-4C32-9124-18E38EE9BA10}">
@@ -12093,14 +12567,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5313B247-095E-44A1-80B6-8021924599DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -12113,7 +12587,7 @@
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="89" t="s">
         <v>27</v>
       </c>
@@ -12126,7 +12600,7 @@
       <c r="H1" s="90"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
@@ -12155,11 +12629,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="102">
       <c r="A3" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="84"/>
@@ -12180,11 +12654,11 @@
       </c>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="38.25">
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="84"/>
       <c r="D4" s="84"/>
       <c r="E4" s="65" t="s">
@@ -12201,11 +12675,11 @@
       </c>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="165.75">
       <c r="A5" s="85" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="121" t="s">
         <v>397</v>
       </c>
       <c r="C5" s="85"/>
@@ -12224,11 +12698,11 @@
       </c>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="165.75">
       <c r="A6" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="121"/>
       <c r="C6" s="85"/>
       <c r="D6" s="85"/>
       <c r="E6" s="96" t="s">
@@ -12245,11 +12719,11 @@
       </c>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="191.25">
       <c r="A7" s="85" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="112"/>
+      <c r="B7" s="121"/>
       <c r="C7" s="85"/>
       <c r="D7" s="85" t="s">
         <v>273</v>
@@ -12268,11 +12742,11 @@
       </c>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="102">
       <c r="A8" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="112"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="85"/>
       <c r="D8" s="85"/>
       <c r="E8" s="26" t="s">
@@ -12289,11 +12763,11 @@
       </c>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="51">
       <c r="A9" s="85" t="s">
         <v>281</v>
       </c>
-      <c r="B9" s="112"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="26" t="s">
@@ -12310,11 +12784,11 @@
       </c>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="114.75">
       <c r="A10" s="85" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="112"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="26" t="s">
@@ -12331,11 +12805,11 @@
       </c>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="63.75">
       <c r="A11" s="85" t="s">
         <v>283</v>
       </c>
-      <c r="B11" s="112"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="26" t="s">
@@ -12352,11 +12826,11 @@
       </c>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="140.25">
       <c r="A12" s="85" t="s">
         <v>284</v>
       </c>
-      <c r="B12" s="112"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="96" t="s">
@@ -12373,11 +12847,11 @@
       </c>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="51">
       <c r="A13" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="112"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="96" t="s">
@@ -12394,11 +12868,11 @@
       </c>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="51">
       <c r="A14" s="85" t="s">
         <v>286</v>
       </c>
-      <c r="B14" s="112"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="96" t="s">
@@ -12415,11 +12889,11 @@
       </c>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="38.25">
       <c r="A15" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="B15" s="112"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="96" t="s">
@@ -12436,11 +12910,11 @@
       </c>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="51">
       <c r="A16" s="85" t="s">
         <v>288</v>
       </c>
-      <c r="B16" s="112"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="96" t="s">
@@ -12457,11 +12931,11 @@
       </c>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="51">
       <c r="A17" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="B17" s="112"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="96" t="s">
@@ -12478,11 +12952,11 @@
       </c>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="38.25">
       <c r="A18" s="85" t="s">
         <v>290</v>
       </c>
-      <c r="B18" s="112"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="96" t="s">
@@ -12499,11 +12973,11 @@
       </c>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="38.25">
       <c r="A19" s="85" t="s">
         <v>291</v>
       </c>
-      <c r="B19" s="112"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="96" t="s">
@@ -12520,11 +12994,11 @@
       </c>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="25.5">
       <c r="A20" s="85" t="s">
         <v>292</v>
       </c>
-      <c r="B20" s="112"/>
+      <c r="B20" s="121"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="96" t="s">
@@ -12541,7 +13015,7 @@
       </c>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="38.25">
       <c r="A21" s="85" t="s">
         <v>293</v>
       </c>
@@ -12562,7 +13036,7 @@
       </c>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="51">
       <c r="A22" s="85" t="s">
         <v>455</v>
       </c>
@@ -12583,7 +13057,7 @@
       </c>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" s="29" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="29" customFormat="1" ht="178.5">
       <c r="A23" s="85" t="s">
         <v>456</v>
       </c>
@@ -12604,7 +13078,7 @@
       </c>
       <c r="I23" s="27"/>
     </row>
-    <row r="24" spans="1:9" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="216.75">
       <c r="A24" s="85" t="s">
         <v>457</v>
       </c>
@@ -12625,7 +13099,7 @@
       </c>
       <c r="I24" s="27"/>
     </row>
-    <row r="25" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="102">
       <c r="A25" s="85" t="s">
         <v>458</v>
       </c>
@@ -12644,7 +13118,7 @@
       <c r="H25" s="67"/>
       <c r="I25" s="27"/>
     </row>
-    <row r="26" spans="1:9" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="127.5">
       <c r="A26" s="85" t="s">
         <v>459</v>
       </c>
@@ -12661,7 +13135,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="127.5">
       <c r="A27" s="85" t="s">
         <v>460</v>
       </c>
@@ -12685,76 +13159,76 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H22">
-    <cfRule type="cellIs" dxfId="195" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="15" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="16" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="18" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="19" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="20" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="21" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="188" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="8" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="10" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="11" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="13" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="14" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H25">
-    <cfRule type="cellIs" dxfId="181" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{617CE469-C94A-4CE6-9C30-1FA2AAB6CA5C}">
@@ -12770,12 +13244,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9053ED-FC72-43CF-9E37-8D40E2BDDBE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -12788,7 +13262,7 @@
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="89" t="s">
         <v>27</v>
       </c>
@@ -12801,7 +13275,7 @@
       <c r="H1" s="90"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
@@ -12830,11 +13304,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="102">
       <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="133" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="85"/>
@@ -12855,11 +13329,11 @@
       </c>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="38.25">
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="125"/>
+      <c r="B4" s="134"/>
       <c r="C4" s="85"/>
       <c r="D4" s="85"/>
       <c r="E4" s="65" t="s">
@@ -12876,7 +13350,7 @@
       </c>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="63.75">
       <c r="A5" s="85" t="s">
         <v>270</v>
       </c>
@@ -12897,7 +13371,7 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="63.75">
       <c r="A6" s="85" t="s">
         <v>272</v>
       </c>
@@ -12918,7 +13392,7 @@
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="63.75">
       <c r="A7" s="85" t="s">
         <v>279</v>
       </c>
@@ -12939,7 +13413,7 @@
       </c>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="63.75">
       <c r="A8" s="85" t="s">
         <v>280</v>
       </c>
@@ -12960,7 +13434,7 @@
       </c>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="153" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="153">
       <c r="A9" s="85" t="s">
         <v>281</v>
       </c>
@@ -12981,7 +13455,7 @@
       </c>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="89.25">
       <c r="A10" s="85" t="s">
         <v>282</v>
       </c>
@@ -13002,7 +13476,7 @@
       </c>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="225.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="225.75" customHeight="1">
       <c r="A11" s="85" t="s">
         <v>283</v>
       </c>
@@ -13021,7 +13495,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="272.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="272.25" customHeight="1">
       <c r="A12" s="85" t="s">
         <v>284</v>
       </c>
@@ -13040,7 +13514,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="89.25">
       <c r="A13" s="85" t="s">
         <v>285</v>
       </c>
@@ -13059,7 +13533,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -13070,7 +13544,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -13081,7 +13555,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -13092,7 +13566,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -13103,7 +13577,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -13114,7 +13588,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -13125,7 +13599,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -13136,7 +13610,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -13147,7 +13621,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -13158,7 +13632,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -13166,7 +13640,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -13177,7 +13651,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -13188,7 +13662,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -13199,7 +13673,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -13210,7 +13684,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -13221,7 +13695,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -13232,7 +13706,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -13243,7 +13717,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -13254,7 +13728,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -13265,7 +13739,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -13276,7 +13750,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -13287,7 +13761,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -13298,7 +13772,7 @@
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -13309,7 +13783,7 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -13320,7 +13794,7 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -13331,7 +13805,7 @@
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -13342,7 +13816,7 @@
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -13353,7 +13827,7 @@
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -13364,7 +13838,7 @@
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -13375,7 +13849,7 @@
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -13386,7 +13860,7 @@
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -13397,7 +13871,7 @@
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -13408,7 +13882,7 @@
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -13419,7 +13893,7 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -13430,7 +13904,7 @@
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -13441,7 +13915,7 @@
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -13452,7 +13926,7 @@
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -13463,7 +13937,7 @@
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -13474,7 +13948,7 @@
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -13485,7 +13959,7 @@
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="E53" s="65"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
@@ -13496,30 +13970,30 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H10">
-    <cfRule type="cellIs" dxfId="174" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9ED1ED31-5825-4FF8-A27E-DC8A3907CDA5}">
@@ -13535,12 +14009,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B835330-655F-4763-AC11-419265B6585A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -13553,7 +14029,7 @@
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="89" t="s">
         <v>27</v>
       </c>
@@ -13566,7 +14042,7 @@
       <c r="H1" s="90"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
@@ -13595,11 +14071,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="102">
       <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="85"/>
@@ -13620,11 +14096,11 @@
       </c>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="38.25">
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="85"/>
       <c r="D4" s="85"/>
       <c r="E4" s="65" t="s">
@@ -13641,7 +14117,7 @@
       </c>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="89.25">
       <c r="A5" s="85" t="s">
         <v>270</v>
       </c>
@@ -13662,7 +14138,7 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="140.25">
       <c r="A6" s="85" t="s">
         <v>272</v>
       </c>
@@ -13683,7 +14159,7 @@
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="89.25">
       <c r="A7" s="85" t="s">
         <v>279</v>
       </c>
@@ -13710,53 +14186,53 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H5:H7">
-    <cfRule type="cellIs" dxfId="167" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="8" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="10" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="11" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="13" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="14" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="cellIs" dxfId="160" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6D10DC4A-8A31-4CEE-B5EA-B4855778BC07}">

--- a/App_QC_Regression_Test_Case.xlsx
+++ b/App_QC_Regression_Test_Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProject\BluePrint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268EF4D6-7F7B-4810-BC33-BADD69719504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70F61A6-F60E-4CB3-9C6A-06774ED89EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="20730" windowHeight="11160" tabRatio="892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="20730" windowHeight="11160" tabRatio="892" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Page" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="653">
   <si>
     <t>Test Area</t>
   </si>
@@ -2271,6 +2271,231 @@
   <si>
     <t xml:space="preserve">1) Appropriate certinty score, file list, error list cluster list etc should be visible
 2) Preparation Status should be properly displayed and user should be able to download the csv file without error. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) In AI tool, once user create a draft plan, click on Tree view
+2) Click on plan view by selecting pdf with table and then Select Table Data label
+3) Position the selector box on the table and click save
+</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to create different bounding box step for images in a cluster</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to create different data labels step for pdf file with tables in a cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) In AI tool, once user create a draft plan, click on Tree view
+2) Click on plan view by selecting image and then Select Bounding box Data label
+3) Position the selector box on the image and click save
+</t>
+  </si>
+  <si>
+    <t>1) User should be able to see steps label and add new step dropdown.
+2) User should be able to see multiple fields to select x coordinate, y coordinate z cordinate page index etc. In the plan, view user should be able to see selector box.
+3) New Bounding data step should be saved for the document.</t>
+  </si>
+  <si>
+    <t>1) User should be able to see steps label and add new step dropdown.
+2) User should be able to see multiple fields to select x coordinate, y coordinate z cordinate page index etc. In the plan, view user should be able to see selector box.
+3) New table data lebel should be saved for the document.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) In AI tool, once user create a draft plan, click on Tree view
+2) Click on plan view by selecting docx and then Select ParseTreeQuery
+3) Position the selector box on the image and click save
+</t>
+  </si>
+  <si>
+    <t>1) User should be able to see steps label and add new step dropdown.
+2) User should be able to see multiple fields to select x coordinate, y coordinate z cordinate page index etc. In the plan, view user should be able to see selector box.
+3) New Parse Tree Query step should be saved for the document.</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to create different Parse tree query step for docx file in a cluster</t>
+  </si>
+  <si>
+    <t>Verify that adding Create Data Atom next step saves the value to one of the data labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Under the bounding box step,  add a CreateDataAtom next step </t>
+  </si>
+  <si>
+    <t>1) It must save the value to one of the data labels</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to create different Regex Step in a cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) In AI tool, once user create a draft plan, click on Tree view
+2) Click on plan view by selecting anyfile and then Select Regex
+3) Position the selector box on the image and click save
+</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>1) User should be able to see steps label and add new step dropdown.
+2) TBD
+3) New Regex step should be saved for the document.</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to create different next step selector Step in a cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) In AI tool, once user create a draft plan, click on Tree view
+2) Click on plan view by selecting anyfile and then Select Next Step Selector
+3) Position the selector box on the image and click save
+</t>
+  </si>
+  <si>
+    <t>1) User should be able to see steps label and add new step dropdown.
+2) TBD
+3) New NextStepSelector step should be saved for the document.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) In AI tool, once user create a draft plan, click on Tree view
+2) Click on plan view by selecting anyfile and then Select PassThrough
+3) Position the selector box on the image and click save
+</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to create different PassThrough Step in a cluster</t>
+  </si>
+  <si>
+    <t>1) User should be able to see steps label and add new step dropdown.
+2) TBD
+3) New PassThrough step should be saved for the document.</t>
+  </si>
+  <si>
+    <t>Verify that user can see preview on the plan for few document</t>
+  </si>
+  <si>
+    <t>1) Once all steps are creaded click on Preview checkmark in middle of the page</t>
+  </si>
+  <si>
+    <t>1) user should be able to see preview of the the page</t>
+  </si>
+  <si>
+    <t>Verify that user can find appropriate visibility on Available/Plan/Preview action on the plan</t>
+  </si>
+  <si>
+    <t>1) Once all steps are creaded click on Available/Plan/Preview checkmark in middle of the page</t>
+  </si>
+  <si>
+    <t>1) Appropriate selection should be seen on the selected files. 
+2) Selected file should match with the preview visible.</t>
+  </si>
+  <si>
+    <t>Verifty that user should not be able to see cluster list  in the collection details page</t>
+  </si>
+  <si>
+    <t>1) Now login to blue print application and select the collection whose cluster has been added with the steps as mentioned in above test case</t>
+  </si>
+  <si>
+    <t>1) User being on a Collection detail page, cluster with pending status should no t be visible.
+2) Document download, certainty information and extraction should not be visible for any cluster.
+3) Collection metrics should not be affected in any condition</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to modify different data labels step for pdf file with tables in a cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) In AI tool, once user select a draft plan, click on Tree view
+2) Click on plan view by selecting pdf with table and then Select Table Data label
+3) Position the selector box on the table and click save
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) In AI tool, once user select a draft plan, click on Tree view
+2) Click on plan view by selecting image and then Select Bounding box Data label
+3) Position the selector box on the image and click save
+</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to modify different bounding box step for images in a cluster</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to modify different Parse tree query step for docx file in a cluster</t>
+  </si>
+  <si>
+    <t>Verify that modifying Create Data Atom next step saves the value to one of the data labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Under the bounding box step,  modify existing  CreateDataAtom next step </t>
+  </si>
+  <si>
+    <t>Verify that user should be able to modify different Regex Step in a cluster</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to modify different PassThrough Step in a cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) In AI tool, once user select a draft plan, click on Tree view
+2) Click on plan view by selecting anyfile and then Select PassThrough
+3) Position the selector box on the image and click save
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) In AI tool, once user select a draft plan, click on Tree view
+2) Click on plan view by selecting anyfile and then Select Regex
+3) Position the selector box on the image and click save
+</t>
+  </si>
+  <si>
+    <t>1) User should be able to see existing steps label and add new step dropdown.
+2) User should be able to see multiple fields to select x coordinate, y coordinate z cordinate page index etc. In the plan, view user should be able to see selector box.
+3) Existing Table data lebel should be saved with updated values for the document.</t>
+  </si>
+  <si>
+    <t>1) User should be able to see existingsteps label and add new step dropdown.
+2) User should be able to see multiple fields to select x coordinate, y coordinate z cordinate page index etc. In the plan, view user should be able to see selector box.
+3) Existing Bounding data step should be saved for the document.</t>
+  </si>
+  <si>
+    <t>1) User should be able to see existing steps label and add new step dropdown.
+2) TBD
+3) Existing PassThrough step should be saved for the document.</t>
+  </si>
+  <si>
+    <t>1) Once all steps are Updated click on Available/Plan/Preview checkmark in middle of the page</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to move the files that are in Stage section to Unstaged section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) List of Unstaged files should be visible
+2) User should be able to see popup with Stage button
+3) File should be removed from the Unstaged section and must be moved from Unstage section.to Staged section
+</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to Injest and Activate the cluster for all staqed files</t>
+  </si>
+  <si>
+    <t>1) On the right botton area, look for Injest and Activate button
+2) Click on Injest and activate button</t>
+  </si>
+  <si>
+    <t>1) Injest and activate button should be visible
+2) Injest and Activate should be success. To verify navigate to django admin &gt;&gt;Home&gt;&gt;Injest result, new result should be created, is executed in a background and gets a status value complete.</t>
+  </si>
+  <si>
+    <t>1) On the left bottom area, expand Unstaged folder
+2) Right click on a file
+3) Click on Stage button and then expand staged folder
+Note: This feature is also workable in the folder level. Right click on Unstaged folder and Stage the file should move all the file from Unstaged to staged folder.
+For now keep few files in Unstaged folder.</t>
+  </si>
+  <si>
+    <t>Verifty that list of files that are not Staged are remaining in Unstaged folder</t>
+  </si>
+  <si>
+    <t>1) Check for the files that are not injested and were not staged in the step above</t>
+  </si>
+  <si>
+    <t>1) Files which are not injested or staged should remain in the Unstaged folder</t>
   </si>
 </sst>
 </file>
@@ -2696,7 +2921,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2992,6 +3217,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3028,6 +3259,15 @@
     <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3037,22 +3277,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3063,19 +3294,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3088,7 +3306,56 @@
     <cellStyle name="Normal 2 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="224">
+  <dxfs count="231">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5006,7 +5273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -5053,11 +5320,11 @@
       <c r="I4" s="33"/>
     </row>
     <row r="5" spans="1:55" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="115" t="s">
         <v>266</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
       <c r="D5" s="58"/>
       <c r="E5" s="58"/>
       <c r="F5" s="58"/>
@@ -5070,8 +5337,8 @@
       <c r="A6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="119"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="121"/>
       <c r="D6" s="50"/>
       <c r="P6" s="35"/>
     </row>
@@ -5079,8 +5346,8 @@
       <c r="A7" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="119"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="51"/>
       <c r="P7" s="35"/>
     </row>
@@ -5088,8 +5355,8 @@
       <c r="A8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="119"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="51"/>
       <c r="P8" s="35"/>
     </row>
@@ -5097,8 +5364,8 @@
       <c r="A9" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="119"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="29"/>
       <c r="P9" s="35"/>
     </row>
@@ -5317,10 +5584,10 @@
       <c r="B14" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="122" t="s">
         <v>263</v>
       </c>
-      <c r="D14" s="121"/>
+      <c r="D14" s="123"/>
       <c r="E14" s="52" t="s">
         <v>264</v>
       </c>
@@ -5384,10 +5651,10 @@
       <c r="B15" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="118" t="s">
         <v>267</v>
       </c>
-      <c r="D15" s="117"/>
+      <c r="D15" s="119"/>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
@@ -5441,8 +5708,8 @@
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="57"/>
       <c r="B16" s="55"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="117"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="119"/>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
@@ -5530,7 +5797,7 @@
       <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="85"/>
@@ -5555,7 +5822,7 @@
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="122"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="85"/>
       <c r="D4" s="85"/>
       <c r="E4" s="65" t="s">
@@ -5641,48 +5908,48 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H5:H7">
-    <cfRule type="cellIs" dxfId="167" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="8" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="10" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="11" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="13" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="14" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="cellIs" dxfId="160" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5767,7 +6034,7 @@
       <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="85"/>
@@ -5792,7 +6059,7 @@
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="122"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="85"/>
       <c r="D4" s="85"/>
       <c r="E4" s="65" t="s">
@@ -5878,71 +6145,71 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H6:H7">
-    <cfRule type="cellIs" dxfId="153" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="cellIs" dxfId="146" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="15" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="16" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="18" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="19" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="20" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="21" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="139" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="8" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="10" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="11" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="13" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="14" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6027,7 +6294,7 @@
       <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="85"/>
@@ -6052,7 +6319,7 @@
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="122"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="85"/>
       <c r="D4" s="85"/>
       <c r="E4" s="65" t="s">
@@ -6180,25 +6447,25 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H9">
-    <cfRule type="cellIs" dxfId="132" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6283,7 +6550,7 @@
       <c r="A3" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="98"/>
@@ -6308,7 +6575,7 @@
       <c r="A4" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="122"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
       <c r="E4" s="65" t="s">
@@ -6354,7 +6621,7 @@
       <c r="A6" s="98" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="98"/>
@@ -6379,7 +6646,7 @@
       <c r="A7" s="98" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="122"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="98"/>
       <c r="D7" s="98"/>
       <c r="E7" s="65" t="s">
@@ -6425,7 +6692,7 @@
       <c r="A9" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="98"/>
@@ -6450,7 +6717,7 @@
       <c r="A10" s="98" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="98"/>
       <c r="D10" s="98"/>
       <c r="E10" s="65" t="s">
@@ -6496,7 +6763,7 @@
       <c r="A12" s="98" t="s">
         <v>284</v>
       </c>
-      <c r="B12" s="122" t="s">
+      <c r="B12" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="98"/>
@@ -6521,7 +6788,7 @@
       <c r="A13" s="98" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="122"/>
+      <c r="B13" s="124"/>
       <c r="C13" s="98"/>
       <c r="D13" s="98"/>
       <c r="E13" s="65" t="s">
@@ -6567,7 +6834,7 @@
       <c r="A15" s="98" t="s">
         <v>287</v>
       </c>
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="98"/>
@@ -6592,7 +6859,7 @@
       <c r="A16" s="98" t="s">
         <v>288</v>
       </c>
-      <c r="B16" s="122"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="98"/>
       <c r="D16" s="98"/>
       <c r="E16" s="65" t="s">
@@ -6638,7 +6905,7 @@
       <c r="A18" s="98" t="s">
         <v>290</v>
       </c>
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="98"/>
@@ -6663,7 +6930,7 @@
       <c r="A19" s="98" t="s">
         <v>291</v>
       </c>
-      <c r="B19" s="122"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="98"/>
       <c r="D19" s="98"/>
       <c r="E19" s="65" t="s">
@@ -6709,7 +6976,7 @@
       <c r="A21" s="98" t="s">
         <v>293</v>
       </c>
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="98"/>
@@ -6734,7 +7001,7 @@
       <c r="A22" s="98" t="s">
         <v>453</v>
       </c>
-      <c r="B22" s="122"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="98"/>
       <c r="D22" s="98"/>
       <c r="E22" s="65" t="s">
@@ -6780,7 +7047,7 @@
       <c r="A24" s="98" t="s">
         <v>455</v>
       </c>
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="98"/>
@@ -6805,7 +7072,7 @@
       <c r="A25" s="98" t="s">
         <v>456</v>
       </c>
-      <c r="B25" s="122"/>
+      <c r="B25" s="124"/>
       <c r="C25" s="98"/>
       <c r="D25" s="98"/>
       <c r="E25" s="65" t="s">
@@ -6851,7 +7118,7 @@
       <c r="A27" s="98" t="s">
         <v>458</v>
       </c>
-      <c r="B27" s="122" t="s">
+      <c r="B27" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="98"/>
@@ -6876,7 +7143,7 @@
       <c r="A28" s="98" t="s">
         <v>558</v>
       </c>
-      <c r="B28" s="122"/>
+      <c r="B28" s="124"/>
       <c r="C28" s="98"/>
       <c r="D28" s="98"/>
       <c r="E28" s="65" t="s">
@@ -6922,7 +7189,7 @@
       <c r="A30" s="98" t="s">
         <v>560</v>
       </c>
-      <c r="B30" s="122" t="s">
+      <c r="B30" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="98"/>
@@ -6947,7 +7214,7 @@
       <c r="A31" s="98" t="s">
         <v>561</v>
       </c>
-      <c r="B31" s="122"/>
+      <c r="B31" s="124"/>
       <c r="C31" s="98"/>
       <c r="D31" s="98"/>
       <c r="E31" s="65" t="s">
@@ -6991,245 +7258,245 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H5">
-    <cfRule type="cellIs" dxfId="125" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="78" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="79" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="80" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="81" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="82" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="83" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="84" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H8">
-    <cfRule type="cellIs" dxfId="118" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="57" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="58" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="59" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="60" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="61" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="62" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="63" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H11">
-    <cfRule type="cellIs" dxfId="111" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="50" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="51" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="52" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="53" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="54" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="55" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="56" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="cellIs" dxfId="104" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="43" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="44" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="45" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="46" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="47" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="48" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="49" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H17">
-    <cfRule type="cellIs" dxfId="97" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="36" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="37" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="38" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="39" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="40" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="41" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="42" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H20">
-    <cfRule type="cellIs" dxfId="90" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="29" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="30" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="31" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="32" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="33" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="34" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="35" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H23">
-    <cfRule type="cellIs" dxfId="83" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="22" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="23" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="24" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="25" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="26" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="27" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="28" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H26">
-    <cfRule type="cellIs" dxfId="76" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="15" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="16" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="18" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="19" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="20" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="21" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H29">
-    <cfRule type="cellIs" dxfId="69" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="8" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="10" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="11" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="13" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H32">
-    <cfRule type="cellIs" dxfId="62" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7314,7 +7581,7 @@
       <c r="A3" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="98"/>
@@ -7339,7 +7606,7 @@
       <c r="A4" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="122"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
       <c r="E4" s="65" t="s">
@@ -7446,25 +7713,25 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H8">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7549,7 +7816,7 @@
       <c r="A3" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="98"/>
@@ -7574,7 +7841,7 @@
       <c r="A4" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="122"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
       <c r="E4" s="65" t="s">
@@ -7618,25 +7885,25 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H5">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7721,11 +7988,11 @@
       <c r="A3" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="136" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="98"/>
-      <c r="D3" s="134" t="s">
+      <c r="D3" s="136" t="s">
         <v>273</v>
       </c>
       <c r="E3" s="65" t="s">
@@ -7746,9 +8013,9 @@
       <c r="A4" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="136"/>
+      <c r="B4" s="138"/>
       <c r="C4" s="98"/>
-      <c r="D4" s="136"/>
+      <c r="D4" s="138"/>
       <c r="E4" s="65" t="s">
         <v>505</v>
       </c>
@@ -7767,9 +8034,9 @@
       <c r="A5" s="98" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="135"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="135"/>
+      <c r="D5" s="137"/>
       <c r="E5" s="65" t="s">
         <v>507</v>
       </c>
@@ -7917,25 +8184,25 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H11">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8022,7 +8289,7 @@
       <c r="A3" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="98"/>
@@ -8047,7 +8314,7 @@
       <c r="A4" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="122"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
       <c r="E4" s="65" t="s">
@@ -8091,25 +8358,25 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H5">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8194,7 +8461,7 @@
       <c r="A3" s="103" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="103"/>
@@ -8219,7 +8486,7 @@
       <c r="A4" s="103" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="122"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="103"/>
       <c r="D4" s="103"/>
       <c r="E4" s="65" t="s">
@@ -8367,25 +8634,25 @@
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H10">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8458,7 +8725,7 @@
       <c r="A3" s="112" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="112"/>
@@ -8483,7 +8750,7 @@
       <c r="A4" s="112" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="122"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="112"/>
       <c r="D4" s="112"/>
       <c r="E4" s="65" t="s">
@@ -8667,7 +8934,7 @@
       <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="85"/>
@@ -8692,9 +8959,9 @@
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="122"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="85"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="124" t="s">
         <v>260</v>
       </c>
       <c r="E4" s="65" t="s">
@@ -8717,9 +8984,9 @@
       <c r="A5" s="85" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="122"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="85"/>
-      <c r="D5" s="122"/>
+      <c r="D5" s="124"/>
       <c r="E5" s="65" t="s">
         <v>298</v>
       </c>
@@ -8739,9 +9006,9 @@
       <c r="A6" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="122"/>
+      <c r="B6" s="124"/>
       <c r="C6" s="85"/>
-      <c r="D6" s="122"/>
+      <c r="D6" s="124"/>
       <c r="E6" s="65" t="s">
         <v>300</v>
       </c>
@@ -8760,9 +9027,9 @@
       <c r="A7" s="85" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="122"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="85"/>
-      <c r="D7" s="122"/>
+      <c r="D7" s="124"/>
       <c r="E7" s="65" t="s">
         <v>302</v>
       </c>
@@ -8781,9 +9048,9 @@
       <c r="A8" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="122"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="85"/>
-      <c r="D8" s="122"/>
+      <c r="D8" s="124"/>
       <c r="E8" s="65" t="s">
         <v>308</v>
       </c>
@@ -8825,7 +9092,7 @@
       <c r="A10" s="85" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="124" t="s">
         <v>341</v>
       </c>
       <c r="C10" s="85"/>
@@ -8848,7 +9115,7 @@
       <c r="A11" s="85" t="s">
         <v>283</v>
       </c>
-      <c r="B11" s="122"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="85"/>
       <c r="D11" s="85"/>
       <c r="E11" s="65" t="s">
@@ -8869,7 +9136,7 @@
       <c r="A12" s="85" t="s">
         <v>284</v>
       </c>
-      <c r="B12" s="122" t="s">
+      <c r="B12" s="124" t="s">
         <v>345</v>
       </c>
       <c r="C12" s="85"/>
@@ -8892,7 +9159,7 @@
       <c r="A13" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="122"/>
+      <c r="B13" s="124"/>
       <c r="C13" s="85"/>
       <c r="D13" s="85"/>
       <c r="E13" s="65" t="s">
@@ -8913,11 +9180,11 @@
       <c r="A14" s="85" t="s">
         <v>286</v>
       </c>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="126" t="s">
         <v>428</v>
       </c>
       <c r="C14" s="99"/>
-      <c r="D14" s="122"/>
+      <c r="D14" s="124"/>
       <c r="E14" s="100" t="s">
         <v>424</v>
       </c>
@@ -8936,9 +9203,9 @@
       <c r="A15" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="B15" s="124"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="99"/>
-      <c r="D15" s="122"/>
+      <c r="D15" s="124"/>
       <c r="E15" s="100" t="s">
         <v>425</v>
       </c>
@@ -8957,8 +9224,8 @@
       <c r="A16" s="85" t="s">
         <v>288</v>
       </c>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="85"/>
       <c r="E16" s="100" t="s">
         <v>429</v>
@@ -8978,8 +9245,8 @@
       <c r="A17" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
       <c r="D17" s="85"/>
       <c r="E17" s="100" t="s">
         <v>432</v>
@@ -9041,7 +9308,7 @@
       <c r="A20" s="85" t="s">
         <v>292</v>
       </c>
-      <c r="B20" s="124"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="85"/>
       <c r="D20" s="85"/>
       <c r="E20" s="100" t="s">
@@ -9062,7 +9329,7 @@
       <c r="A21" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="B21" s="124"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="85"/>
       <c r="D21" s="85"/>
       <c r="E21" s="100" t="s">
@@ -9081,9 +9348,9 @@
     </row>
     <row r="22" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="69"/>
-      <c r="B22" s="123"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="69"/>
-      <c r="D22" s="123"/>
+      <c r="D22" s="125"/>
       <c r="E22" s="70"/>
       <c r="F22" s="71"/>
       <c r="G22" s="71"/>
@@ -9092,9 +9359,9 @@
     </row>
     <row r="23" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="69"/>
-      <c r="B23" s="123"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="69"/>
-      <c r="D23" s="123"/>
+      <c r="D23" s="125"/>
       <c r="E23" s="70"/>
       <c r="F23" s="71"/>
       <c r="G23" s="71"/>
@@ -10958,25 +11225,25 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H180">
-    <cfRule type="cellIs" dxfId="223" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="576" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="577" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="578" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="579" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="579" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="580" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="581" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="582" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="582" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11147,7 +11414,7 @@
       <c r="A3" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="84"/>
@@ -11172,9 +11439,9 @@
       <c r="A4" s="84" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="122"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="84"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="124" t="s">
         <v>260</v>
       </c>
       <c r="E4" s="65" t="s">
@@ -11195,9 +11462,9 @@
       <c r="A5" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="122"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="84"/>
-      <c r="D5" s="122"/>
+      <c r="D5" s="124"/>
       <c r="E5" s="65" t="s">
         <v>298</v>
       </c>
@@ -11216,9 +11483,9 @@
       <c r="A6" s="84" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="122"/>
+      <c r="B6" s="124"/>
       <c r="C6" s="84"/>
-      <c r="D6" s="122"/>
+      <c r="D6" s="124"/>
       <c r="E6" s="65" t="s">
         <v>300</v>
       </c>
@@ -11237,9 +11504,9 @@
       <c r="A7" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="122"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="84"/>
-      <c r="D7" s="122"/>
+      <c r="D7" s="124"/>
       <c r="E7" s="65" t="s">
         <v>302</v>
       </c>
@@ -11258,7 +11525,7 @@
       <c r="A8" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="122"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="84"/>
       <c r="D8" s="84"/>
       <c r="E8" s="65" t="s">
@@ -11304,48 +11571,48 @@
     <mergeCell ref="D4:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H8">
-    <cfRule type="cellIs" dxfId="216" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="8" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="10" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="11" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="13" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="14" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="209" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11619,15 +11886,15 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="130"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="129"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="125"/>
+      <c r="B3" s="130"/>
       <c r="C3" s="11" t="s">
         <v>93</v>
       </c>
@@ -11637,7 +11904,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="126"/>
+      <c r="B4" s="131"/>
       <c r="C4" s="11" t="s">
         <v>95</v>
       </c>
@@ -11647,7 +11914,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="127"/>
+      <c r="B5" s="132"/>
       <c r="C5" s="11" t="s">
         <v>97</v>
       </c>
@@ -11665,7 +11932,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
-      <c r="B7" s="125"/>
+      <c r="B7" s="130"/>
       <c r="C7" s="11" t="s">
         <v>99</v>
       </c>
@@ -11675,7 +11942,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="126"/>
+      <c r="B8" s="131"/>
       <c r="C8" s="11" t="s">
         <v>101</v>
       </c>
@@ -11686,7 +11953,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="126"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="11" t="s">
         <v>103</v>
       </c>
@@ -11696,7 +11963,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="126"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="11" t="s">
         <v>105</v>
       </c>
@@ -11706,7 +11973,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="126"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="11" t="s">
         <v>106</v>
       </c>
@@ -11716,7 +11983,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="126"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="18" t="s">
         <v>107</v>
       </c>
@@ -11735,7 +12002,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="126"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="19" t="s">
         <v>108</v>
       </c>
@@ -11745,7 +12012,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="126"/>
+      <c r="B15" s="131"/>
       <c r="C15" s="11" t="s">
         <v>110</v>
       </c>
@@ -11755,7 +12022,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="126"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="11" t="s">
         <v>112</v>
       </c>
@@ -11765,7 +12032,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="126"/>
+      <c r="B17" s="131"/>
       <c r="C17" s="11" t="s">
         <v>114</v>
       </c>
@@ -11775,7 +12042,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="126"/>
+      <c r="B18" s="131"/>
       <c r="C18" s="11" t="s">
         <v>116</v>
       </c>
@@ -11785,7 +12052,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="126"/>
+      <c r="B19" s="131"/>
       <c r="C19" s="11" t="s">
         <v>118</v>
       </c>
@@ -11795,7 +12062,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="127"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="11" t="s">
         <v>119</v>
       </c>
@@ -11813,7 +12080,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="125"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="11" t="s">
         <v>120</v>
       </c>
@@ -11823,7 +12090,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="126"/>
+      <c r="B23" s="131"/>
       <c r="C23" s="11" t="s">
         <v>122</v>
       </c>
@@ -11833,7 +12100,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="126"/>
+      <c r="B24" s="131"/>
       <c r="C24" s="11" t="s">
         <v>124</v>
       </c>
@@ -11843,7 +12110,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="126"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="11" t="s">
         <v>126</v>
       </c>
@@ -11853,7 +12120,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="126"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="11" t="s">
         <v>127</v>
       </c>
@@ -11863,7 +12130,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="126"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="11" t="s">
         <v>129</v>
       </c>
@@ -11873,7 +12140,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="126"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="11" t="s">
         <v>131</v>
       </c>
@@ -11883,7 +12150,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="126"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="11" t="s">
         <v>132</v>
       </c>
@@ -11893,7 +12160,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
-      <c r="B30" s="126"/>
+      <c r="B30" s="131"/>
       <c r="C30" s="16" t="s">
         <v>133</v>
       </c>
@@ -11903,7 +12170,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="126"/>
+      <c r="B31" s="131"/>
       <c r="C31" s="16" t="s">
         <v>134</v>
       </c>
@@ -11913,7 +12180,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="126"/>
+      <c r="B32" s="131"/>
       <c r="C32" s="16" t="s">
         <v>135</v>
       </c>
@@ -11923,7 +12190,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
-      <c r="B33" s="126"/>
+      <c r="B33" s="131"/>
       <c r="C33" s="16" t="s">
         <v>136</v>
       </c>
@@ -11933,7 +12200,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
-      <c r="B34" s="126"/>
+      <c r="B34" s="131"/>
       <c r="C34" s="16" t="s">
         <v>137</v>
       </c>
@@ -11943,7 +12210,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
-      <c r="B35" s="126"/>
+      <c r="B35" s="131"/>
       <c r="C35" s="16" t="s">
         <v>138</v>
       </c>
@@ -11953,7 +12220,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="126"/>
+      <c r="B36" s="131"/>
       <c r="C36" s="16" t="s">
         <v>139</v>
       </c>
@@ -11963,7 +12230,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
-      <c r="B37" s="127"/>
+      <c r="B37" s="132"/>
       <c r="C37" s="16" t="s">
         <v>140</v>
       </c>
@@ -11981,7 +12248,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
-      <c r="B39" s="125"/>
+      <c r="B39" s="130"/>
       <c r="C39" s="11" t="s">
         <v>141</v>
       </c>
@@ -11991,7 +12258,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
-      <c r="B40" s="126"/>
+      <c r="B40" s="131"/>
       <c r="C40" s="11" t="s">
         <v>143</v>
       </c>
@@ -12001,7 +12268,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
-      <c r="B41" s="126"/>
+      <c r="B41" s="131"/>
       <c r="C41" s="11" t="s">
         <v>145</v>
       </c>
@@ -12011,7 +12278,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
-      <c r="B42" s="126"/>
+      <c r="B42" s="131"/>
       <c r="C42" s="11" t="s">
         <v>147</v>
       </c>
@@ -12021,7 +12288,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
-      <c r="B43" s="126"/>
+      <c r="B43" s="131"/>
       <c r="C43" s="11" t="s">
         <v>149</v>
       </c>
@@ -12031,7 +12298,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
-      <c r="B44" s="126"/>
+      <c r="B44" s="131"/>
       <c r="C44" s="11" t="s">
         <v>151</v>
       </c>
@@ -12041,7 +12308,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="B45" s="126"/>
+      <c r="B45" s="131"/>
       <c r="C45" s="11" t="s">
         <v>152</v>
       </c>
@@ -12051,7 +12318,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
-      <c r="B46" s="126"/>
+      <c r="B46" s="131"/>
       <c r="C46" s="11" t="s">
         <v>153</v>
       </c>
@@ -12061,7 +12328,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
-      <c r="B47" s="126"/>
+      <c r="B47" s="131"/>
       <c r="C47" s="11" t="s">
         <v>154</v>
       </c>
@@ -12071,7 +12338,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
-      <c r="B48" s="126"/>
+      <c r="B48" s="131"/>
       <c r="C48" s="11" t="s">
         <v>155</v>
       </c>
@@ -12081,7 +12348,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
-      <c r="B49" s="126"/>
+      <c r="B49" s="131"/>
       <c r="C49" s="11" t="s">
         <v>156</v>
       </c>
@@ -12091,7 +12358,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
-      <c r="B50" s="126"/>
+      <c r="B50" s="131"/>
       <c r="C50" s="11" t="s">
         <v>157</v>
       </c>
@@ -12101,7 +12368,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
-      <c r="B51" s="126"/>
+      <c r="B51" s="131"/>
       <c r="C51" s="18" t="s">
         <v>158</v>
       </c>
@@ -12119,7 +12386,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
-      <c r="B53" s="126"/>
+      <c r="B53" s="131"/>
       <c r="C53" s="19" t="s">
         <v>159</v>
       </c>
@@ -12129,7 +12396,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
-      <c r="B54" s="126"/>
+      <c r="B54" s="131"/>
       <c r="C54" s="11" t="s">
         <v>161</v>
       </c>
@@ -12139,7 +12406,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
-      <c r="B55" s="126"/>
+      <c r="B55" s="131"/>
       <c r="C55" s="11" t="s">
         <v>162</v>
       </c>
@@ -12149,7 +12416,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
-      <c r="B56" s="127"/>
+      <c r="B56" s="132"/>
       <c r="C56" s="11" t="s">
         <v>163</v>
       </c>
@@ -12159,15 +12426,15 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
-      <c r="B57" s="128" t="s">
+      <c r="B57" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="129"/>
-      <c r="D57" s="130"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="129"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
-      <c r="B58" s="125"/>
+      <c r="B58" s="130"/>
       <c r="C58" s="11" t="s">
         <v>164</v>
       </c>
@@ -12177,7 +12444,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
-      <c r="B59" s="126"/>
+      <c r="B59" s="131"/>
       <c r="C59" s="11" t="s">
         <v>166</v>
       </c>
@@ -12187,7 +12454,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
-      <c r="B60" s="127"/>
+      <c r="B60" s="132"/>
       <c r="C60" s="11" t="s">
         <v>168</v>
       </c>
@@ -12204,7 +12471,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
-      <c r="B62" s="125"/>
+      <c r="B62" s="130"/>
       <c r="C62" s="11" t="s">
         <v>170</v>
       </c>
@@ -12214,7 +12481,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
-      <c r="B63" s="126"/>
+      <c r="B63" s="131"/>
       <c r="C63" s="11" t="s">
         <v>171</v>
       </c>
@@ -12224,7 +12491,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
-      <c r="B64" s="126"/>
+      <c r="B64" s="131"/>
       <c r="C64" s="11" t="s">
         <v>172</v>
       </c>
@@ -12234,7 +12501,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
-      <c r="B65" s="127"/>
+      <c r="B65" s="132"/>
       <c r="C65" s="11" t="s">
         <v>173</v>
       </c>
@@ -12244,15 +12511,15 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
-      <c r="B66" s="128" t="s">
+      <c r="B66" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="129"/>
-      <c r="D66" s="130"/>
+      <c r="C66" s="135"/>
+      <c r="D66" s="129"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
-      <c r="B67" s="125"/>
+      <c r="B67" s="130"/>
       <c r="C67" s="11" t="s">
         <v>174</v>
       </c>
@@ -12262,7 +12529,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
-      <c r="B68" s="127"/>
+      <c r="B68" s="132"/>
       <c r="C68" s="11" t="s">
         <v>175</v>
       </c>
@@ -12272,15 +12539,15 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
-      <c r="B69" s="128" t="s">
+      <c r="B69" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="129"/>
-      <c r="D69" s="130"/>
+      <c r="C69" s="135"/>
+      <c r="D69" s="129"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
-      <c r="B70" s="125"/>
+      <c r="B70" s="130"/>
       <c r="C70" s="11" t="s">
         <v>176</v>
       </c>
@@ -12290,7 +12557,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
-      <c r="B71" s="126"/>
+      <c r="B71" s="131"/>
       <c r="C71" s="11" t="s">
         <v>177</v>
       </c>
@@ -12300,7 +12567,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
-      <c r="B72" s="126"/>
+      <c r="B72" s="131"/>
       <c r="C72" s="11" t="s">
         <v>178</v>
       </c>
@@ -12310,7 +12577,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
-      <c r="B73" s="127"/>
+      <c r="B73" s="132"/>
       <c r="C73" s="11" t="s">
         <v>179</v>
       </c>
@@ -12320,11 +12587,11 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
-      <c r="B74" s="128" t="s">
+      <c r="B74" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="C74" s="129"/>
-      <c r="D74" s="130"/>
+      <c r="C74" s="135"/>
+      <c r="D74" s="129"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
@@ -12568,15 +12835,15 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
-      <c r="B99" s="128" t="s">
+      <c r="B99" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="C99" s="129"/>
-      <c r="D99" s="130"/>
+      <c r="C99" s="135"/>
+      <c r="D99" s="129"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
-      <c r="B100" s="125"/>
+      <c r="B100" s="130"/>
       <c r="C100" s="11" t="s">
         <v>205</v>
       </c>
@@ -12586,7 +12853,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
-      <c r="B101" s="126"/>
+      <c r="B101" s="131"/>
       <c r="C101" s="11" t="s">
         <v>207</v>
       </c>
@@ -12596,7 +12863,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
-      <c r="B102" s="126"/>
+      <c r="B102" s="131"/>
       <c r="C102" s="11" t="s">
         <v>209</v>
       </c>
@@ -12606,7 +12873,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
-      <c r="B103" s="127"/>
+      <c r="B103" s="132"/>
       <c r="C103" s="11" t="s">
         <v>211</v>
       </c>
@@ -12616,11 +12883,11 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
-      <c r="B104" s="131" t="s">
+      <c r="B104" s="127" t="s">
         <v>251</v>
       </c>
-      <c r="C104" s="132"/>
-      <c r="D104" s="130"/>
+      <c r="C104" s="128"/>
+      <c r="D104" s="129"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
@@ -12634,6 +12901,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B67:B68"/>
     <mergeCell ref="B104:D104"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="B3:B5"/>
@@ -12650,13 +12924,6 @@
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B39:B51"/>
     <mergeCell ref="B22:B37"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B67:B68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12730,7 +12997,7 @@
       <c r="A3" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="84"/>
@@ -12755,7 +13022,7 @@
       <c r="A4" s="84" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="122"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="84"/>
       <c r="D4" s="84"/>
       <c r="E4" s="65" t="s">
@@ -12903,25 +13170,25 @@
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H10">
-    <cfRule type="cellIs" dxfId="202" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13007,7 +13274,7 @@
       <c r="A3" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="84"/>
@@ -13032,7 +13299,7 @@
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="122"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="84"/>
       <c r="D4" s="84"/>
       <c r="E4" s="65" t="s">
@@ -13053,7 +13320,7 @@
       <c r="A5" s="85" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="124" t="s">
         <v>397</v>
       </c>
       <c r="C5" s="85"/>
@@ -13076,7 +13343,7 @@
       <c r="A6" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="122"/>
+      <c r="B6" s="124"/>
       <c r="C6" s="85"/>
       <c r="D6" s="85"/>
       <c r="E6" s="96" t="s">
@@ -13097,7 +13364,7 @@
       <c r="A7" s="85" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="122"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="85"/>
       <c r="D7" s="85" t="s">
         <v>273</v>
@@ -13120,7 +13387,7 @@
       <c r="A8" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="122"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="85"/>
       <c r="D8" s="85"/>
       <c r="E8" s="26" t="s">
@@ -13141,7 +13408,7 @@
       <c r="A9" s="85" t="s">
         <v>281</v>
       </c>
-      <c r="B9" s="122"/>
+      <c r="B9" s="124"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="26" t="s">
@@ -13162,7 +13429,7 @@
       <c r="A10" s="85" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="26" t="s">
@@ -13183,7 +13450,7 @@
       <c r="A11" s="85" t="s">
         <v>283</v>
       </c>
-      <c r="B11" s="122"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="26" t="s">
@@ -13204,7 +13471,7 @@
       <c r="A12" s="85" t="s">
         <v>284</v>
       </c>
-      <c r="B12" s="122"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="96" t="s">
@@ -13225,7 +13492,7 @@
       <c r="A13" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="122"/>
+      <c r="B13" s="124"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="96" t="s">
@@ -13246,7 +13513,7 @@
       <c r="A14" s="85" t="s">
         <v>286</v>
       </c>
-      <c r="B14" s="122"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="96" t="s">
@@ -13267,7 +13534,7 @@
       <c r="A15" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="B15" s="122"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="96" t="s">
@@ -13288,7 +13555,7 @@
       <c r="A16" s="85" t="s">
         <v>288</v>
       </c>
-      <c r="B16" s="122"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="96" t="s">
@@ -13309,7 +13576,7 @@
       <c r="A17" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="B17" s="122"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="96" t="s">
@@ -13330,7 +13597,7 @@
       <c r="A18" s="85" t="s">
         <v>290</v>
       </c>
-      <c r="B18" s="122"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="96" t="s">
@@ -13351,7 +13618,7 @@
       <c r="A19" s="85" t="s">
         <v>291</v>
       </c>
-      <c r="B19" s="122"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="96" t="s">
@@ -13372,7 +13639,7 @@
       <c r="A20" s="85" t="s">
         <v>292</v>
       </c>
-      <c r="B20" s="122"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="96" t="s">
@@ -13543,71 +13810,71 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H22">
-    <cfRule type="cellIs" dxfId="195" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="15" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="16" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="18" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="19" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="20" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="21" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="188" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="8" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="10" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="11" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="13" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="14" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H27">
-    <cfRule type="cellIs" dxfId="181" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13631,7 +13898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13692,7 +13961,7 @@
       <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="136" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="85"/>
@@ -13717,7 +13986,7 @@
       <c r="A4" s="112" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="135"/>
+      <c r="B4" s="137"/>
       <c r="C4" s="85"/>
       <c r="D4" s="85"/>
       <c r="E4" s="65" t="s">
@@ -13966,323 +14235,323 @@
       <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="141"/>
-      <c r="B16" s="141"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="70"/>
       <c r="F16" s="71"/>
       <c r="G16" s="71"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
     </row>
     <row r="17" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="141"/>
-      <c r="B17" s="141"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
       <c r="E17" s="70"/>
       <c r="F17" s="71"/>
       <c r="G17" s="71"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
     </row>
     <row r="18" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="141"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
       <c r="E18" s="70"/>
       <c r="F18" s="71"/>
       <c r="G18" s="71"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
     </row>
     <row r="19" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="141"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="141"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="70"/>
       <c r="F19" s="71"/>
       <c r="G19" s="71"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
     </row>
     <row r="20" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="141"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
+      <c r="A20" s="114"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
       <c r="E20" s="70"/>
       <c r="F20" s="71"/>
       <c r="G20" s="71"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
     </row>
     <row r="21" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="141"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
+      <c r="A21" s="114"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
       <c r="E21" s="70"/>
       <c r="F21" s="71"/>
       <c r="G21" s="71"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
     </row>
     <row r="22" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="141"/>
-      <c r="B22" s="141"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
       <c r="E22" s="70"/>
       <c r="F22" s="71"/>
       <c r="G22" s="71"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
     </row>
     <row r="23" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="141"/>
-      <c r="B23" s="141"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
       <c r="E23" s="70"/>
       <c r="F23" s="71"/>
       <c r="G23" s="71"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
     </row>
     <row r="24" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="141"/>
-      <c r="B24" s="141"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
     </row>
     <row r="25" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="141"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
       <c r="E25" s="70"/>
       <c r="F25" s="71"/>
       <c r="G25" s="71"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
     </row>
     <row r="26" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="141"/>
-      <c r="B26" s="141"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
       <c r="E26" s="70"/>
       <c r="F26" s="71"/>
       <c r="G26" s="71"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
     </row>
     <row r="27" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="141"/>
-      <c r="B27" s="141"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
       <c r="E27" s="70"/>
       <c r="F27" s="71"/>
       <c r="G27" s="71"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
     </row>
     <row r="28" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="141"/>
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
+      <c r="A28" s="114"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
       <c r="E28" s="70"/>
       <c r="F28" s="71"/>
       <c r="G28" s="71"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
     </row>
     <row r="29" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="141"/>
-      <c r="B29" s="141"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
+      <c r="A29" s="114"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
       <c r="E29" s="70"/>
       <c r="F29" s="71"/>
       <c r="G29" s="71"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
     </row>
     <row r="30" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="141"/>
-      <c r="B30" s="141"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
+      <c r="A30" s="114"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
       <c r="E30" s="70"/>
       <c r="F30" s="71"/>
       <c r="G30" s="71"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="141"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
     </row>
     <row r="31" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="141"/>
-      <c r="B31" s="141"/>
-      <c r="C31" s="141"/>
-      <c r="D31" s="141"/>
+      <c r="A31" s="114"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
       <c r="E31" s="70"/>
       <c r="F31" s="71"/>
       <c r="G31" s="71"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
     </row>
     <row r="32" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="141"/>
-      <c r="B32" s="141"/>
-      <c r="C32" s="141"/>
-      <c r="D32" s="141"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
       <c r="E32" s="70"/>
       <c r="F32" s="71"/>
       <c r="G32" s="71"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
     </row>
     <row r="33" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="141"/>
-      <c r="B33" s="141"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
+      <c r="A33" s="114"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
       <c r="E33" s="70"/>
       <c r="F33" s="71"/>
       <c r="G33" s="71"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
     </row>
     <row r="34" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="141"/>
-      <c r="B34" s="141"/>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
       <c r="E34" s="70"/>
       <c r="F34" s="71"/>
       <c r="G34" s="71"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
     </row>
     <row r="35" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="141"/>
-      <c r="B35" s="141"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
       <c r="E35" s="70"/>
       <c r="F35" s="71"/>
       <c r="G35" s="71"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
     </row>
     <row r="36" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="141"/>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
       <c r="E36" s="70"/>
       <c r="F36" s="71"/>
       <c r="G36" s="71"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
     </row>
     <row r="37" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="141"/>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
       <c r="E37" s="70"/>
       <c r="F37" s="71"/>
       <c r="G37" s="71"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
     </row>
     <row r="38" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="141"/>
-      <c r="B38" s="141"/>
-      <c r="C38" s="141"/>
-      <c r="D38" s="141"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
       <c r="E38" s="70"/>
       <c r="F38" s="71"/>
       <c r="G38" s="71"/>
-      <c r="H38" s="141"/>
-      <c r="I38" s="141"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
     </row>
     <row r="39" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="141"/>
-      <c r="B39" s="141"/>
-      <c r="C39" s="141"/>
-      <c r="D39" s="141"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
       <c r="E39" s="70"/>
       <c r="F39" s="71"/>
       <c r="G39" s="71"/>
-      <c r="H39" s="141"/>
-      <c r="I39" s="141"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
     </row>
     <row r="40" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="141"/>
-      <c r="B40" s="141"/>
-      <c r="C40" s="141"/>
-      <c r="D40" s="141"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
       <c r="E40" s="70"/>
       <c r="F40" s="71"/>
       <c r="G40" s="71"/>
-      <c r="H40" s="141"/>
-      <c r="I40" s="141"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
     </row>
     <row r="41" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="141"/>
-      <c r="B41" s="141"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="141"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
       <c r="E41" s="70"/>
       <c r="F41" s="71"/>
       <c r="G41" s="71"/>
-      <c r="H41" s="141"/>
-      <c r="I41" s="141"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
     </row>
     <row r="42" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="141"/>
-      <c r="B42" s="141"/>
-      <c r="C42" s="141"/>
-      <c r="D42" s="141"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
       <c r="E42" s="70"/>
       <c r="F42" s="71"/>
       <c r="G42" s="71"/>
-      <c r="H42" s="141"/>
-      <c r="I42" s="141"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
     </row>
     <row r="43" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="141"/>
-      <c r="B43" s="141"/>
-      <c r="C43" s="141"/>
-      <c r="D43" s="141"/>
+      <c r="A43" s="114"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
       <c r="E43" s="70"/>
       <c r="F43" s="71"/>
       <c r="G43" s="71"/>
-      <c r="H43" s="141"/>
-      <c r="I43" s="141"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
     </row>
     <row r="44" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="141"/>
-      <c r="B44" s="141"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="141"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
       <c r="E44" s="70"/>
       <c r="F44" s="71"/>
       <c r="G44" s="71"/>
-      <c r="H44" s="141"/>
-      <c r="I44" s="141"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
@@ -14400,48 +14669,48 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H12">
-    <cfRule type="cellIs" dxfId="174" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="8" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="10" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="11" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="13" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="14" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14463,11 +14732,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8632243-8F65-4A22-8934-EB264B136ECB}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14480,58 +14747,728 @@
     <col min="7" max="7" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
+    </row>
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="93" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="94" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A3" s="113" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="136" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="H3" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="113" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="137"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="113" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="H5" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="113" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="65" t="s">
+        <v>462</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" ht="242.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="113" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="65" t="s">
+        <v>461</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="H7" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="113" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="65" t="s">
+        <v>465</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="H8" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A9" s="113" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="65" t="s">
+        <v>600</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>598</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>603</v>
+      </c>
+      <c r="H9" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A10" s="113" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="65" t="s">
+        <v>599</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>601</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="H10" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A11" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="139" t="s">
-        <v>462</v>
-      </c>
-      <c r="F1" s="140" t="s">
-        <v>459</v>
-      </c>
-      <c r="G1" s="140" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="65" t="s">
+        <v>606</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>604</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="H11" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="113" t="s">
         <v>284</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139" t="s">
-        <v>461</v>
-      </c>
-      <c r="F2" s="140" t="s">
-        <v>463</v>
-      </c>
-      <c r="G2" s="140" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="137" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="65" t="s">
+        <v>607</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>608</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>609</v>
+      </c>
+      <c r="H12" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139" t="s">
-        <v>465</v>
-      </c>
-      <c r="F3" s="140" t="s">
-        <v>466</v>
-      </c>
-      <c r="G3" s="140" t="s">
-        <v>467</v>
-      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="65" t="s">
+        <v>610</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>611</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>613</v>
+      </c>
+      <c r="H13" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="113" t="s">
+        <v>286</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="65" t="s">
+        <v>614</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>615</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="H14" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="113" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="65" t="s">
+        <v>618</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>617</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="H15" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="113" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="65" t="s">
+        <v>620</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>621</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>622</v>
+      </c>
+      <c r="H16" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+      <c r="A17" s="113" t="s">
+        <v>289</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="65" t="s">
+        <v>623</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="H17" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A18" s="113" t="s">
+        <v>290</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="65" t="s">
+        <v>626</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>627</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="H18" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A19" s="113" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="65" t="s">
+        <v>629</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>630</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>640</v>
+      </c>
+      <c r="H19" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A20" s="113" t="s">
+        <v>292</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="65" t="s">
+        <v>632</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>631</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>641</v>
+      </c>
+      <c r="H20" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A21" s="113" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="65" t="s">
+        <v>633</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>604</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="H21" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="113" t="s">
+        <v>453</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="65" t="s">
+        <v>634</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>609</v>
+      </c>
+      <c r="H22" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="113" t="s">
+        <v>454</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="65" t="s">
+        <v>636</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>639</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>613</v>
+      </c>
+      <c r="H23" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="113" t="s">
+        <v>455</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="65" t="s">
+        <v>614</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>615</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="H24" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="113" t="s">
+        <v>456</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="65" t="s">
+        <v>637</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>638</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>642</v>
+      </c>
+      <c r="H25" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="113" t="s">
+        <v>457</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="65" t="s">
+        <v>620</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>621</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>622</v>
+      </c>
+      <c r="H26" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+      <c r="A27" s="113" t="s">
+        <v>458</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="65" t="s">
+        <v>623</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="H27" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+      <c r="A28" s="113" t="s">
+        <v>558</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="65" t="s">
+        <v>626</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>627</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="H28" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:9" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="113" t="s">
+        <v>559</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="65" t="s">
+        <v>644</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>649</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>645</v>
+      </c>
+      <c r="H29" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="113" t="s">
+        <v>560</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="65" t="s">
+        <v>646</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>647</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>648</v>
+      </c>
+      <c r="H30" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="113" t="s">
+        <v>561</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="65" t="s">
+        <v>650</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>651</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>652</v>
+      </c>
+      <c r="H31" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="113" t="s">
+        <v>562</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <conditionalFormatting sqref="H3:H32">
+    <cfRule type="cellIs" dxfId="160" priority="8" operator="equal">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="9" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="10" operator="equal">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="11" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="12" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="13" operator="equal">
+      <formula>"Partially Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="14" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71F8564F-CA59-43E6-AE33-23877ACE3433}">
+          <x14:formula1>
+            <xm:f>Info!$A$3:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H32</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/App_QC_Regression_Test_Case.xlsx
+++ b/App_QC_Regression_Test_Case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProject\BluePrint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shail\Documents\BlueStackTestFiles\automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70F61A6-F60E-4CB3-9C6A-06774ED89EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94DA917-BDC4-4CC7-A0B1-A96C257F09FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="20730" windowHeight="11160" tabRatio="892" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="892" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Page" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="664">
   <si>
     <t>Test Area</t>
   </si>
@@ -2327,46 +2327,10 @@
     <t>Verify that user should be able to create different Regex Step in a cluster</t>
   </si>
   <si>
-    <t xml:space="preserve">1) In AI tool, once user create a draft plan, click on Tree view
-2) Click on plan view by selecting anyfile and then Select Regex
-3) Position the selector box on the image and click save
-</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>1) User should be able to see steps label and add new step dropdown.
-2) TBD
-3) New Regex step should be saved for the document.</t>
-  </si>
-  <si>
     <t>Verify that user should be able to create different next step selector Step in a cluster</t>
   </si>
   <si>
-    <t xml:space="preserve">1) In AI tool, once user create a draft plan, click on Tree view
-2) Click on plan view by selecting anyfile and then Select Next Step Selector
-3) Position the selector box on the image and click save
-</t>
-  </si>
-  <si>
-    <t>1) User should be able to see steps label and add new step dropdown.
-2) TBD
-3) New NextStepSelector step should be saved for the document.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) In AI tool, once user create a draft plan, click on Tree view
-2) Click on plan view by selecting anyfile and then Select PassThrough
-3) Position the selector box on the image and click save
-</t>
-  </si>
-  <si>
     <t>Verify that user should be able to create different PassThrough Step in a cluster</t>
-  </si>
-  <si>
-    <t>1) User should be able to see steps label and add new step dropdown.
-2) TBD
-3) New PassThrough step should be saved for the document.</t>
   </si>
   <si>
     <t>Verify that user can see preview on the plan for few document</t>
@@ -2432,18 +2396,6 @@
     <t>Verify that user should be able to modify different PassThrough Step in a cluster</t>
   </si>
   <si>
-    <t xml:space="preserve">1) In AI tool, once user select a draft plan, click on Tree view
-2) Click on plan view by selecting anyfile and then Select PassThrough
-3) Position the selector box on the image and click save
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) In AI tool, once user select a draft plan, click on Tree view
-2) Click on plan view by selecting anyfile and then Select Regex
-3) Position the selector box on the image and click save
-</t>
-  </si>
-  <si>
     <t>1) User should be able to see existing steps label and add new step dropdown.
 2) User should be able to see multiple fields to select x coordinate, y coordinate z cordinate page index etc. In the plan, view user should be able to see selector box.
 3) Existing Table data lebel should be saved with updated values for the document.</t>
@@ -2454,48 +2406,142 @@
 3) Existing Bounding data step should be saved for the document.</t>
   </si>
   <si>
-    <t>1) User should be able to see existing steps label and add new step dropdown.
-2) TBD
-3) Existing PassThrough step should be saved for the document.</t>
-  </si>
-  <si>
     <t>1) Once all steps are Updated click on Available/Plan/Preview checkmark in middle of the page</t>
   </si>
   <si>
-    <t>Verify that user should be able to move the files that are in Stage section to Unstaged section</t>
+    <t>Verify that user should be able to Injest and Activate the cluster for all staqed files</t>
+  </si>
+  <si>
+    <t>1) On the right botton area, look for Injest and Activate button
+2) Click on Injest and activate button</t>
+  </si>
+  <si>
+    <t>Verifty that list of files that are not Staged are remaining in Unstaged folder</t>
+  </si>
+  <si>
+    <t>1) Check for the files that are not injested and were not staged in the step above</t>
+  </si>
+  <si>
+    <t>1) Files which are not injested or staged should remain in the Unstaged folder</t>
+  </si>
+  <si>
+    <t>Verify that user should be able to move the files that are in UnStage section to Staged section and vice versa</t>
+  </si>
+  <si>
+    <t>1) On the left bottom area, expand Unstaged folder
+2) Right click on a file
+3) Click on Stage button and then expand staged folder
+4) Reverse this step by Unstageing Files from Staged to Unstage
+Note: This feature is also workable in the folder level. Right click on Unstaged folder and Stage the file should move all the file from Unstaged to staged folder.
+For now keep few files in Unstaged folder.</t>
   </si>
   <si>
     <t xml:space="preserve">1) List of Unstaged files should be visible
 2) User should be able to see popup with Stage button
 3) File should be removed from the Unstaged section and must be moved from Unstage section.to Staged section
+4) File should be removed from the staged section and must be moved from stage section to Unstaged section
 </t>
   </si>
   <si>
-    <t>Verify that user should be able to Injest and Activate the cluster for all staqed files</t>
-  </si>
-  <si>
-    <t>1) On the right botton area, look for Injest and Activate button
-2) Click on Injest and activate button</t>
-  </si>
-  <si>
     <t>1) Injest and activate button should be visible
-2) Injest and Activate should be success. To verify navigate to django admin &gt;&gt;Home&gt;&gt;Injest result, new result should be created, is executed in a background and gets a status value complete.</t>
-  </si>
-  <si>
-    <t>1) On the left bottom area, expand Unstaged folder
-2) Right click on a file
-3) Click on Stage button and then expand staged folder
-Note: This feature is also workable in the folder level. Right click on Unstaged folder and Stage the file should move all the file from Unstaged to staged folder.
-For now keep few files in Unstaged folder.</t>
-  </si>
-  <si>
-    <t>Verifty that list of files that are not Staged are remaining in Unstaged folder</t>
-  </si>
-  <si>
-    <t>1) Check for the files that are not injested and were not staged in the step above</t>
-  </si>
-  <si>
-    <t>1) Files which are not injested or staged should remain in the Unstaged folder</t>
+2) Injest and Activate should be success. To verify navigate to django admin &gt;&gt;Home&gt;&gt;Injest result, new result should be created, is executed in a background and gets a status value complete.
+3) DataSet/DataRecord/DataAtoms should be created as expected. 
+- UnpackFiles should be set to status=INGESTED.</t>
+  </si>
+  <si>
+    <t>Verifty that normal user should not be able to see cluster list  in the collection details page</t>
+  </si>
+  <si>
+    <t>Verfiy that staff user should be able to set cluster to active via django application</t>
+  </si>
+  <si>
+    <t>1) As a staff user, login to django application and edit the cluster to make it active and finally save it</t>
+  </si>
+  <si>
+    <t>1) Status of the cluster should become and and must be saved.</t>
+  </si>
+  <si>
+    <t>Verify that normal user can see active cluster in the collection detail page</t>
+  </si>
+  <si>
+    <t>1) As a normal user, Login to blueprint application and go to Collection details page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Active cluster should be visible.
+2) All the document/extraction/certainty information reflects the ingested file and all information should be visible within collection detail and cluster detail page.
+</t>
+  </si>
+  <si>
+    <t>TC031</t>
+  </si>
+  <si>
+    <t>TC032</t>
+  </si>
+  <si>
+    <t>1) User should be able to see steps label and add new step dropdown.
+2) User should be able to see name, regegex pattern fields with First Result only dropdown and Regex mode dropdown
+3) New Regex step should be saved for the document.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) In AI tool, once user create a draft plan, click on Tree view
+2) Click on plan view by selecting anyfile and then Select Regex
+3) Fill the fields with the correct fields click save
+</t>
+  </si>
+  <si>
+    <t>1) User should be able to see steps label and add new step dropdown.
+2) User should be able to see name, regegex pattern fields with First Result only dropdown and Regex mode dropdown
+3) Existing Regex step should be saved for the document.</t>
+  </si>
+  <si>
+    <t>1) User should be able to see steps label and add new step dropdown.
+2) user should be able see dropdown with options related to next step
+3) New NextStepSelector step should be saved for the document.</t>
+  </si>
+  <si>
+    <t>1) User should be able to see steps label and add new step dropdown.
+2) user should be able see dropdown with options related to next step
+3) Existing NextStepSelector step should be saved for the document.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) In AI tool, once user create a draft plan, click on Tree view
+2) Click on plan view by selecting anyfile and then Select Next Step Selector
+3) Select one value and click save
+</t>
+  </si>
+  <si>
+    <t>1) User should be able to see steps label and add new step dropdown.
+2) User should be able to see Name/Key text field and step selector textfield
+3) New PassThrough step should be saved for the document.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) In AI tool, once user create a draft plan, click on Tree view
+2) Click on plan view by selecting anyfile and then Select PassThrough
+3) Fill the correct value and click save
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) In AI tool, in a exisiting draft plan, click on Tree view
+2) Click on plan view by selecting anyfile and then Select Regex
+3) Fill all the fields with updated values and click save
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) In AI tool, in a exisiting draft plan, click on Tree view
+2) Click on plan view by selecting anyfile and then Select Next Step Selector
+3) Select one and click save
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) In AI tool, in a exisiting draft plan, click on Tree view
+2) Click on plan view by selecting anyfile and then Select PassThrough
+3) Fill the correct value and click save
+</t>
+  </si>
+  <si>
+    <t>1) User should be able to see steps label and add new step dropdown.
+2) User should be able to see Name/Key text field and step selector textfield
+3) Existing PassThrough step should be saved for the document.</t>
   </si>
 </sst>
 </file>
@@ -2921,7 +2967,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3223,6 +3269,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3259,15 +3308,6 @@
     <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3277,13 +3317,22 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4941,10 +4990,20 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Summary Page"/>
+      <sheetName val="Smoke Test Checklist"/>
+      <sheetName val="Defect"/>
+      <sheetName val="Sumit"/>
+      <sheetName val="QM_List"/>
       <sheetName val="Info"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5320,11 +5379,11 @@
       <c r="I4" s="33"/>
     </row>
     <row r="5" spans="1:55" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>266</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="118"/>
       <c r="D5" s="58"/>
       <c r="E5" s="58"/>
       <c r="F5" s="58"/>
@@ -5337,8 +5396,8 @@
       <c r="A6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="121"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="50"/>
       <c r="P6" s="35"/>
     </row>
@@ -5346,8 +5405,8 @@
       <c r="A7" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="122"/>
       <c r="D7" s="51"/>
       <c r="P7" s="35"/>
     </row>
@@ -5355,8 +5414,8 @@
       <c r="A8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="122"/>
       <c r="D8" s="51"/>
       <c r="P8" s="35"/>
     </row>
@@ -5364,8 +5423,8 @@
       <c r="A9" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="122"/>
       <c r="D9" s="29"/>
       <c r="P9" s="35"/>
     </row>
@@ -5584,10 +5643,10 @@
       <c r="B14" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="D14" s="123"/>
+      <c r="D14" s="124"/>
       <c r="E14" s="52" t="s">
         <v>264</v>
       </c>
@@ -5651,10 +5710,10 @@
       <c r="B15" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="C15" s="118" t="s">
+      <c r="C15" s="119" t="s">
         <v>267</v>
       </c>
-      <c r="D15" s="119"/>
+      <c r="D15" s="120"/>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
@@ -5708,8 +5767,8 @@
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="57"/>
       <c r="B16" s="55"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="120"/>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
@@ -5797,7 +5856,7 @@
       <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="85"/>
@@ -5822,7 +5881,7 @@
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="124"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="85"/>
       <c r="D4" s="85"/>
       <c r="E4" s="65" t="s">
@@ -5908,48 +5967,48 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H5:H7">
-    <cfRule type="cellIs" dxfId="153" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="8" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="10" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="11" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="13" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="14" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="cellIs" dxfId="146" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6034,7 +6093,7 @@
       <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="85"/>
@@ -6059,7 +6118,7 @@
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="124"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="85"/>
       <c r="D4" s="85"/>
       <c r="E4" s="65" t="s">
@@ -6145,71 +6204,71 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H6:H7">
-    <cfRule type="cellIs" dxfId="139" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="cellIs" dxfId="132" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="15" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="16" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="18" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="19" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="20" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="21" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="125" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="8" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="10" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="11" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="13" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="14" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6294,7 +6353,7 @@
       <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="85"/>
@@ -6319,7 +6378,7 @@
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="124"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="85"/>
       <c r="D4" s="85"/>
       <c r="E4" s="65" t="s">
@@ -6447,25 +6506,25 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H9">
-    <cfRule type="cellIs" dxfId="118" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6550,7 +6609,7 @@
       <c r="A3" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="98"/>
@@ -6575,7 +6634,7 @@
       <c r="A4" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="124"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
       <c r="E4" s="65" t="s">
@@ -6621,7 +6680,7 @@
       <c r="A6" s="98" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="98"/>
@@ -6646,7 +6705,7 @@
       <c r="A7" s="98" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="124"/>
+      <c r="B7" s="125"/>
       <c r="C7" s="98"/>
       <c r="D7" s="98"/>
       <c r="E7" s="65" t="s">
@@ -6692,7 +6751,7 @@
       <c r="A9" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="98"/>
@@ -6717,7 +6776,7 @@
       <c r="A10" s="98" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="124"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="98"/>
       <c r="D10" s="98"/>
       <c r="E10" s="65" t="s">
@@ -6763,7 +6822,7 @@
       <c r="A12" s="98" t="s">
         <v>284</v>
       </c>
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="98"/>
@@ -6788,7 +6847,7 @@
       <c r="A13" s="98" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="124"/>
+      <c r="B13" s="125"/>
       <c r="C13" s="98"/>
       <c r="D13" s="98"/>
       <c r="E13" s="65" t="s">
@@ -6834,7 +6893,7 @@
       <c r="A15" s="98" t="s">
         <v>287</v>
       </c>
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="98"/>
@@ -6859,7 +6918,7 @@
       <c r="A16" s="98" t="s">
         <v>288</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="98"/>
       <c r="D16" s="98"/>
       <c r="E16" s="65" t="s">
@@ -6905,7 +6964,7 @@
       <c r="A18" s="98" t="s">
         <v>290</v>
       </c>
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="98"/>
@@ -6930,7 +6989,7 @@
       <c r="A19" s="98" t="s">
         <v>291</v>
       </c>
-      <c r="B19" s="124"/>
+      <c r="B19" s="125"/>
       <c r="C19" s="98"/>
       <c r="D19" s="98"/>
       <c r="E19" s="65" t="s">
@@ -6976,7 +7035,7 @@
       <c r="A21" s="98" t="s">
         <v>293</v>
       </c>
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="98"/>
@@ -7001,7 +7060,7 @@
       <c r="A22" s="98" t="s">
         <v>453</v>
       </c>
-      <c r="B22" s="124"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="98"/>
       <c r="D22" s="98"/>
       <c r="E22" s="65" t="s">
@@ -7047,7 +7106,7 @@
       <c r="A24" s="98" t="s">
         <v>455</v>
       </c>
-      <c r="B24" s="124" t="s">
+      <c r="B24" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="98"/>
@@ -7072,7 +7131,7 @@
       <c r="A25" s="98" t="s">
         <v>456</v>
       </c>
-      <c r="B25" s="124"/>
+      <c r="B25" s="125"/>
       <c r="C25" s="98"/>
       <c r="D25" s="98"/>
       <c r="E25" s="65" t="s">
@@ -7118,7 +7177,7 @@
       <c r="A27" s="98" t="s">
         <v>458</v>
       </c>
-      <c r="B27" s="124" t="s">
+      <c r="B27" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="98"/>
@@ -7143,7 +7202,7 @@
       <c r="A28" s="98" t="s">
         <v>558</v>
       </c>
-      <c r="B28" s="124"/>
+      <c r="B28" s="125"/>
       <c r="C28" s="98"/>
       <c r="D28" s="98"/>
       <c r="E28" s="65" t="s">
@@ -7189,7 +7248,7 @@
       <c r="A30" s="98" t="s">
         <v>560</v>
       </c>
-      <c r="B30" s="124" t="s">
+      <c r="B30" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="98"/>
@@ -7214,7 +7273,7 @@
       <c r="A31" s="98" t="s">
         <v>561</v>
       </c>
-      <c r="B31" s="124"/>
+      <c r="B31" s="125"/>
       <c r="C31" s="98"/>
       <c r="D31" s="98"/>
       <c r="E31" s="65" t="s">
@@ -7258,245 +7317,245 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H5">
-    <cfRule type="cellIs" dxfId="111" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="78" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="79" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="80" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="81" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="82" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="83" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="84" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H8">
-    <cfRule type="cellIs" dxfId="104" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="57" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="58" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="59" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="60" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="61" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="62" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="63" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H11">
-    <cfRule type="cellIs" dxfId="97" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="50" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="51" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="52" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="53" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="54" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="55" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="56" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="cellIs" dxfId="90" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="43" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="44" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="45" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="46" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="47" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="48" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="49" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H17">
-    <cfRule type="cellIs" dxfId="83" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="36" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="37" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="38" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="39" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="40" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="41" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="42" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H20">
-    <cfRule type="cellIs" dxfId="76" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="29" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="30" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="31" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="32" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="33" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="34" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="35" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H23">
-    <cfRule type="cellIs" dxfId="69" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="22" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="23" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="24" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="25" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="26" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="27" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="28" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H26">
-    <cfRule type="cellIs" dxfId="62" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="15" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="16" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="18" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="19" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="20" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="21" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H29">
-    <cfRule type="cellIs" dxfId="55" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="8" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="9" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="10" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="11" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="13" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="14" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H32">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7581,7 +7640,7 @@
       <c r="A3" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="98"/>
@@ -7606,7 +7665,7 @@
       <c r="A4" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="124"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
       <c r="E4" s="65" t="s">
@@ -7713,25 +7772,25 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H8">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7816,7 +7875,7 @@
       <c r="A3" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="98"/>
@@ -7841,7 +7900,7 @@
       <c r="A4" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="124"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
       <c r="E4" s="65" t="s">
@@ -7885,25 +7944,25 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H5">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7988,11 +8047,11 @@
       <c r="A3" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="137" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="98"/>
-      <c r="D3" s="136" t="s">
+      <c r="D3" s="137" t="s">
         <v>273</v>
       </c>
       <c r="E3" s="65" t="s">
@@ -8013,9 +8072,9 @@
       <c r="A4" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="138"/>
+      <c r="B4" s="139"/>
       <c r="C4" s="98"/>
-      <c r="D4" s="138"/>
+      <c r="D4" s="139"/>
       <c r="E4" s="65" t="s">
         <v>505</v>
       </c>
@@ -8034,9 +8093,9 @@
       <c r="A5" s="98" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="137"/>
+      <c r="B5" s="138"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="137"/>
+      <c r="D5" s="138"/>
       <c r="E5" s="65" t="s">
         <v>507</v>
       </c>
@@ -8184,25 +8243,25 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H11">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8289,7 +8348,7 @@
       <c r="A3" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="98"/>
@@ -8314,7 +8373,7 @@
       <c r="A4" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="124"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
       <c r="E4" s="65" t="s">
@@ -8358,25 +8417,25 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H5">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8461,7 +8520,7 @@
       <c r="A3" s="103" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="103"/>
@@ -8486,7 +8545,7 @@
       <c r="A4" s="103" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="124"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="103"/>
       <c r="D4" s="103"/>
       <c r="E4" s="65" t="s">
@@ -8634,25 +8693,25 @@
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H10">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8725,7 +8784,7 @@
       <c r="A3" s="112" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="112"/>
@@ -8750,7 +8809,7 @@
       <c r="A4" s="112" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="124"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="112"/>
       <c r="D4" s="112"/>
       <c r="E4" s="65" t="s">
@@ -8836,25 +8895,25 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H3:H7">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8934,7 +8993,7 @@
       <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="85"/>
@@ -8959,9 +9018,9 @@
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="124"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="85"/>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="125" t="s">
         <v>260</v>
       </c>
       <c r="E4" s="65" t="s">
@@ -8984,9 +9043,9 @@
       <c r="A5" s="85" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="124"/>
+      <c r="B5" s="125"/>
       <c r="C5" s="85"/>
-      <c r="D5" s="124"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="65" t="s">
         <v>298</v>
       </c>
@@ -9006,9 +9065,9 @@
       <c r="A6" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="124"/>
+      <c r="B6" s="125"/>
       <c r="C6" s="85"/>
-      <c r="D6" s="124"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="65" t="s">
         <v>300</v>
       </c>
@@ -9027,9 +9086,9 @@
       <c r="A7" s="85" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="124"/>
+      <c r="B7" s="125"/>
       <c r="C7" s="85"/>
-      <c r="D7" s="124"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="65" t="s">
         <v>302</v>
       </c>
@@ -9048,9 +9107,9 @@
       <c r="A8" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="124"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="85"/>
-      <c r="D8" s="124"/>
+      <c r="D8" s="125"/>
       <c r="E8" s="65" t="s">
         <v>308</v>
       </c>
@@ -9092,7 +9151,7 @@
       <c r="A10" s="85" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="125" t="s">
         <v>341</v>
       </c>
       <c r="C10" s="85"/>
@@ -9115,7 +9174,7 @@
       <c r="A11" s="85" t="s">
         <v>283</v>
       </c>
-      <c r="B11" s="124"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="85"/>
       <c r="D11" s="85"/>
       <c r="E11" s="65" t="s">
@@ -9136,7 +9195,7 @@
       <c r="A12" s="85" t="s">
         <v>284</v>
       </c>
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="125" t="s">
         <v>345</v>
       </c>
       <c r="C12" s="85"/>
@@ -9159,7 +9218,7 @@
       <c r="A13" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="124"/>
+      <c r="B13" s="125"/>
       <c r="C13" s="85"/>
       <c r="D13" s="85"/>
       <c r="E13" s="65" t="s">
@@ -9180,11 +9239,11 @@
       <c r="A14" s="85" t="s">
         <v>286</v>
       </c>
-      <c r="B14" s="126" t="s">
+      <c r="B14" s="127" t="s">
         <v>428</v>
       </c>
       <c r="C14" s="99"/>
-      <c r="D14" s="124"/>
+      <c r="D14" s="125"/>
       <c r="E14" s="100" t="s">
         <v>424</v>
       </c>
@@ -9203,9 +9262,9 @@
       <c r="A15" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="B15" s="126"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="99"/>
-      <c r="D15" s="124"/>
+      <c r="D15" s="125"/>
       <c r="E15" s="100" t="s">
         <v>425</v>
       </c>
@@ -9224,8 +9283,8 @@
       <c r="A16" s="85" t="s">
         <v>288</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
       <c r="D16" s="85"/>
       <c r="E16" s="100" t="s">
         <v>429</v>
@@ -9245,8 +9304,8 @@
       <c r="A17" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="B17" s="126"/>
-      <c r="C17" s="126"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
       <c r="D17" s="85"/>
       <c r="E17" s="100" t="s">
         <v>432</v>
@@ -9308,7 +9367,7 @@
       <c r="A20" s="85" t="s">
         <v>292</v>
       </c>
-      <c r="B20" s="126"/>
+      <c r="B20" s="127"/>
       <c r="C20" s="85"/>
       <c r="D20" s="85"/>
       <c r="E20" s="100" t="s">
@@ -9329,7 +9388,7 @@
       <c r="A21" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="B21" s="126"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="85"/>
       <c r="D21" s="85"/>
       <c r="E21" s="100" t="s">
@@ -9348,9 +9407,9 @@
     </row>
     <row r="22" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="69"/>
-      <c r="B22" s="125"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="69"/>
-      <c r="D22" s="125"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="70"/>
       <c r="F22" s="71"/>
       <c r="G22" s="71"/>
@@ -9359,9 +9418,9 @@
     </row>
     <row r="23" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="69"/>
-      <c r="B23" s="125"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="69"/>
-      <c r="D23" s="125"/>
+      <c r="D23" s="126"/>
       <c r="E23" s="70"/>
       <c r="F23" s="71"/>
       <c r="G23" s="71"/>
@@ -11414,7 +11473,7 @@
       <c r="A3" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="84"/>
@@ -11439,9 +11498,9 @@
       <c r="A4" s="84" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="124"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="84"/>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="125" t="s">
         <v>260</v>
       </c>
       <c r="E4" s="65" t="s">
@@ -11462,9 +11521,9 @@
       <c r="A5" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="124"/>
+      <c r="B5" s="125"/>
       <c r="C5" s="84"/>
-      <c r="D5" s="124"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="65" t="s">
         <v>298</v>
       </c>
@@ -11483,9 +11542,9 @@
       <c r="A6" s="84" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="124"/>
+      <c r="B6" s="125"/>
       <c r="C6" s="84"/>
-      <c r="D6" s="124"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="65" t="s">
         <v>300</v>
       </c>
@@ -11504,9 +11563,9 @@
       <c r="A7" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="124"/>
+      <c r="B7" s="125"/>
       <c r="C7" s="84"/>
-      <c r="D7" s="124"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="65" t="s">
         <v>302</v>
       </c>
@@ -11525,7 +11584,7 @@
       <c r="A8" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="124"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="84"/>
       <c r="D8" s="84"/>
       <c r="E8" s="65" t="s">
@@ -11886,15 +11945,15 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="129"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="133"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="130"/>
+      <c r="B3" s="128"/>
       <c r="C3" s="11" t="s">
         <v>93</v>
       </c>
@@ -11904,7 +11963,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="131"/>
+      <c r="B4" s="129"/>
       <c r="C4" s="11" t="s">
         <v>95</v>
       </c>
@@ -11914,7 +11973,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="132"/>
+      <c r="B5" s="130"/>
       <c r="C5" s="11" t="s">
         <v>97</v>
       </c>
@@ -11924,15 +11983,15 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
-      <c r="B7" s="130"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="11" t="s">
         <v>99</v>
       </c>
@@ -11942,7 +12001,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="131"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="11" t="s">
         <v>101</v>
       </c>
@@ -11953,7 +12012,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="131"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="11" t="s">
         <v>103</v>
       </c>
@@ -11963,7 +12022,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="131"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="11" t="s">
         <v>105</v>
       </c>
@@ -11973,7 +12032,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="131"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="11" t="s">
         <v>106</v>
       </c>
@@ -11983,7 +12042,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="131"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="18" t="s">
         <v>107</v>
       </c>
@@ -11993,16 +12052,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="131"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="19" t="s">
         <v>108</v>
       </c>
@@ -12012,7 +12071,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="131"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="11" t="s">
         <v>110</v>
       </c>
@@ -12022,7 +12081,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="131"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="11" t="s">
         <v>112</v>
       </c>
@@ -12032,7 +12091,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="131"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="11" t="s">
         <v>114</v>
       </c>
@@ -12042,7 +12101,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="131"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="11" t="s">
         <v>116</v>
       </c>
@@ -12052,7 +12111,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="131"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="11" t="s">
         <v>118</v>
       </c>
@@ -12062,7 +12121,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="132"/>
+      <c r="B20" s="130"/>
       <c r="C20" s="11" t="s">
         <v>119</v>
       </c>
@@ -12072,15 +12131,15 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="130"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="11" t="s">
         <v>120</v>
       </c>
@@ -12090,7 +12149,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="131"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="11" t="s">
         <v>122</v>
       </c>
@@ -12100,7 +12159,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="131"/>
+      <c r="B24" s="129"/>
       <c r="C24" s="11" t="s">
         <v>124</v>
       </c>
@@ -12110,7 +12169,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="131"/>
+      <c r="B25" s="129"/>
       <c r="C25" s="11" t="s">
         <v>126</v>
       </c>
@@ -12120,7 +12179,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="131"/>
+      <c r="B26" s="129"/>
       <c r="C26" s="11" t="s">
         <v>127</v>
       </c>
@@ -12130,7 +12189,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="131"/>
+      <c r="B27" s="129"/>
       <c r="C27" s="11" t="s">
         <v>129</v>
       </c>
@@ -12140,7 +12199,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="131"/>
+      <c r="B28" s="129"/>
       <c r="C28" s="11" t="s">
         <v>131</v>
       </c>
@@ -12150,7 +12209,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="131"/>
+      <c r="B29" s="129"/>
       <c r="C29" s="11" t="s">
         <v>132</v>
       </c>
@@ -12160,7 +12219,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
-      <c r="B30" s="131"/>
+      <c r="B30" s="129"/>
       <c r="C30" s="16" t="s">
         <v>133</v>
       </c>
@@ -12170,7 +12229,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="131"/>
+      <c r="B31" s="129"/>
       <c r="C31" s="16" t="s">
         <v>134</v>
       </c>
@@ -12180,7 +12239,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="131"/>
+      <c r="B32" s="129"/>
       <c r="C32" s="16" t="s">
         <v>135</v>
       </c>
@@ -12190,7 +12249,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
-      <c r="B33" s="131"/>
+      <c r="B33" s="129"/>
       <c r="C33" s="16" t="s">
         <v>136</v>
       </c>
@@ -12200,7 +12259,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
-      <c r="B34" s="131"/>
+      <c r="B34" s="129"/>
       <c r="C34" s="16" t="s">
         <v>137</v>
       </c>
@@ -12210,7 +12269,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
-      <c r="B35" s="131"/>
+      <c r="B35" s="129"/>
       <c r="C35" s="16" t="s">
         <v>138</v>
       </c>
@@ -12220,7 +12279,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="131"/>
+      <c r="B36" s="129"/>
       <c r="C36" s="16" t="s">
         <v>139</v>
       </c>
@@ -12230,7 +12289,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
-      <c r="B37" s="132"/>
+      <c r="B37" s="130"/>
       <c r="C37" s="16" t="s">
         <v>140</v>
       </c>
@@ -12240,15 +12299,15 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
-      <c r="B38" s="133" t="s">
+      <c r="B38" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="133"/>
-      <c r="D38" s="133"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
-      <c r="B39" s="130"/>
+      <c r="B39" s="128"/>
       <c r="C39" s="11" t="s">
         <v>141</v>
       </c>
@@ -12258,7 +12317,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
-      <c r="B40" s="131"/>
+      <c r="B40" s="129"/>
       <c r="C40" s="11" t="s">
         <v>143</v>
       </c>
@@ -12268,7 +12327,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
-      <c r="B41" s="131"/>
+      <c r="B41" s="129"/>
       <c r="C41" s="11" t="s">
         <v>145</v>
       </c>
@@ -12278,7 +12337,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
-      <c r="B42" s="131"/>
+      <c r="B42" s="129"/>
       <c r="C42" s="11" t="s">
         <v>147</v>
       </c>
@@ -12288,7 +12347,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
-      <c r="B43" s="131"/>
+      <c r="B43" s="129"/>
       <c r="C43" s="11" t="s">
         <v>149</v>
       </c>
@@ -12298,7 +12357,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
-      <c r="B44" s="131"/>
+      <c r="B44" s="129"/>
       <c r="C44" s="11" t="s">
         <v>151</v>
       </c>
@@ -12308,7 +12367,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="B45" s="131"/>
+      <c r="B45" s="129"/>
       <c r="C45" s="11" t="s">
         <v>152</v>
       </c>
@@ -12318,7 +12377,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
-      <c r="B46" s="131"/>
+      <c r="B46" s="129"/>
       <c r="C46" s="11" t="s">
         <v>153</v>
       </c>
@@ -12328,7 +12387,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
-      <c r="B47" s="131"/>
+      <c r="B47" s="129"/>
       <c r="C47" s="11" t="s">
         <v>154</v>
       </c>
@@ -12338,7 +12397,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
-      <c r="B48" s="131"/>
+      <c r="B48" s="129"/>
       <c r="C48" s="11" t="s">
         <v>155</v>
       </c>
@@ -12348,7 +12407,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
-      <c r="B49" s="131"/>
+      <c r="B49" s="129"/>
       <c r="C49" s="11" t="s">
         <v>156</v>
       </c>
@@ -12358,7 +12417,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
-      <c r="B50" s="131"/>
+      <c r="B50" s="129"/>
       <c r="C50" s="11" t="s">
         <v>157</v>
       </c>
@@ -12368,7 +12427,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
-      <c r="B51" s="131"/>
+      <c r="B51" s="129"/>
       <c r="C51" s="18" t="s">
         <v>158</v>
       </c>
@@ -12378,15 +12437,15 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
-      <c r="B52" s="133" t="s">
+      <c r="B52" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="133"/>
-      <c r="D52" s="133"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="136"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
-      <c r="B53" s="131"/>
+      <c r="B53" s="129"/>
       <c r="C53" s="19" t="s">
         <v>159</v>
       </c>
@@ -12396,7 +12455,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
-      <c r="B54" s="131"/>
+      <c r="B54" s="129"/>
       <c r="C54" s="11" t="s">
         <v>161</v>
       </c>
@@ -12406,7 +12465,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
-      <c r="B55" s="131"/>
+      <c r="B55" s="129"/>
       <c r="C55" s="11" t="s">
         <v>162</v>
       </c>
@@ -12416,7 +12475,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
-      <c r="B56" s="132"/>
+      <c r="B56" s="130"/>
       <c r="C56" s="11" t="s">
         <v>163</v>
       </c>
@@ -12426,15 +12485,15 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
-      <c r="B57" s="134" t="s">
+      <c r="B57" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="135"/>
-      <c r="D57" s="129"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="133"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
-      <c r="B58" s="130"/>
+      <c r="B58" s="128"/>
       <c r="C58" s="11" t="s">
         <v>164</v>
       </c>
@@ -12444,7 +12503,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
-      <c r="B59" s="131"/>
+      <c r="B59" s="129"/>
       <c r="C59" s="11" t="s">
         <v>166</v>
       </c>
@@ -12454,7 +12513,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
-      <c r="B60" s="132"/>
+      <c r="B60" s="130"/>
       <c r="C60" s="11" t="s">
         <v>168</v>
       </c>
@@ -12471,7 +12530,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
-      <c r="B62" s="130"/>
+      <c r="B62" s="128"/>
       <c r="C62" s="11" t="s">
         <v>170</v>
       </c>
@@ -12481,7 +12540,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
-      <c r="B63" s="131"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="11" t="s">
         <v>171</v>
       </c>
@@ -12491,7 +12550,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
-      <c r="B64" s="131"/>
+      <c r="B64" s="129"/>
       <c r="C64" s="11" t="s">
         <v>172</v>
       </c>
@@ -12501,7 +12560,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
-      <c r="B65" s="132"/>
+      <c r="B65" s="130"/>
       <c r="C65" s="11" t="s">
         <v>173</v>
       </c>
@@ -12511,15 +12570,15 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
-      <c r="B66" s="134" t="s">
+      <c r="B66" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="135"/>
-      <c r="D66" s="129"/>
+      <c r="C66" s="132"/>
+      <c r="D66" s="133"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
-      <c r="B67" s="130"/>
+      <c r="B67" s="128"/>
       <c r="C67" s="11" t="s">
         <v>174</v>
       </c>
@@ -12529,7 +12588,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
-      <c r="B68" s="132"/>
+      <c r="B68" s="130"/>
       <c r="C68" s="11" t="s">
         <v>175</v>
       </c>
@@ -12539,15 +12598,15 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
-      <c r="B69" s="134" t="s">
+      <c r="B69" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="135"/>
-      <c r="D69" s="129"/>
+      <c r="C69" s="132"/>
+      <c r="D69" s="133"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
-      <c r="B70" s="130"/>
+      <c r="B70" s="128"/>
       <c r="C70" s="11" t="s">
         <v>176</v>
       </c>
@@ -12557,7 +12616,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
-      <c r="B71" s="131"/>
+      <c r="B71" s="129"/>
       <c r="C71" s="11" t="s">
         <v>177</v>
       </c>
@@ -12567,7 +12626,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
-      <c r="B72" s="131"/>
+      <c r="B72" s="129"/>
       <c r="C72" s="11" t="s">
         <v>178</v>
       </c>
@@ -12577,7 +12636,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
-      <c r="B73" s="132"/>
+      <c r="B73" s="130"/>
       <c r="C73" s="11" t="s">
         <v>179</v>
       </c>
@@ -12587,11 +12646,11 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
-      <c r="B74" s="134" t="s">
+      <c r="B74" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="C74" s="135"/>
-      <c r="D74" s="129"/>
+      <c r="C74" s="132"/>
+      <c r="D74" s="133"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
@@ -12835,15 +12894,15 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
-      <c r="B99" s="134" t="s">
+      <c r="B99" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="C99" s="135"/>
-      <c r="D99" s="129"/>
+      <c r="C99" s="132"/>
+      <c r="D99" s="133"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
-      <c r="B100" s="130"/>
+      <c r="B100" s="128"/>
       <c r="C100" s="11" t="s">
         <v>205</v>
       </c>
@@ -12853,7 +12912,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
-      <c r="B101" s="131"/>
+      <c r="B101" s="129"/>
       <c r="C101" s="11" t="s">
         <v>207</v>
       </c>
@@ -12863,7 +12922,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
-      <c r="B102" s="131"/>
+      <c r="B102" s="129"/>
       <c r="C102" s="11" t="s">
         <v>209</v>
       </c>
@@ -12873,7 +12932,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
-      <c r="B103" s="132"/>
+      <c r="B103" s="130"/>
       <c r="C103" s="11" t="s">
         <v>211</v>
       </c>
@@ -12883,11 +12942,11 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
-      <c r="B104" s="127" t="s">
+      <c r="B104" s="134" t="s">
         <v>251</v>
       </c>
-      <c r="C104" s="128"/>
-      <c r="D104" s="129"/>
+      <c r="C104" s="135"/>
+      <c r="D104" s="133"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
@@ -12901,13 +12960,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B67:B68"/>
     <mergeCell ref="B104:D104"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="B3:B5"/>
@@ -12924,6 +12976,13 @@
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B39:B51"/>
     <mergeCell ref="B22:B37"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B67:B68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12997,7 +13056,7 @@
       <c r="A3" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="84"/>
@@ -13022,7 +13081,7 @@
       <c r="A4" s="84" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="124"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="84"/>
       <c r="D4" s="84"/>
       <c r="E4" s="65" t="s">
@@ -13274,7 +13333,7 @@
       <c r="A3" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="125" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="84"/>
@@ -13299,7 +13358,7 @@
       <c r="A4" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="124"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="84"/>
       <c r="D4" s="84"/>
       <c r="E4" s="65" t="s">
@@ -13320,7 +13379,7 @@
       <c r="A5" s="85" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="125" t="s">
         <v>397</v>
       </c>
       <c r="C5" s="85"/>
@@ -13343,7 +13402,7 @@
       <c r="A6" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="124"/>
+      <c r="B6" s="125"/>
       <c r="C6" s="85"/>
       <c r="D6" s="85"/>
       <c r="E6" s="96" t="s">
@@ -13364,7 +13423,7 @@
       <c r="A7" s="85" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="124"/>
+      <c r="B7" s="125"/>
       <c r="C7" s="85"/>
       <c r="D7" s="85" t="s">
         <v>273</v>
@@ -13387,7 +13446,7 @@
       <c r="A8" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="124"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="85"/>
       <c r="D8" s="85"/>
       <c r="E8" s="26" t="s">
@@ -13408,7 +13467,7 @@
       <c r="A9" s="85" t="s">
         <v>281</v>
       </c>
-      <c r="B9" s="124"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="26" t="s">
@@ -13429,7 +13488,7 @@
       <c r="A10" s="85" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="124"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="26" t="s">
@@ -13450,7 +13509,7 @@
       <c r="A11" s="85" t="s">
         <v>283</v>
       </c>
-      <c r="B11" s="124"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="26" t="s">
@@ -13471,7 +13530,7 @@
       <c r="A12" s="85" t="s">
         <v>284</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="96" t="s">
@@ -13492,7 +13551,7 @@
       <c r="A13" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="124"/>
+      <c r="B13" s="125"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="96" t="s">
@@ -13513,7 +13572,7 @@
       <c r="A14" s="85" t="s">
         <v>286</v>
       </c>
-      <c r="B14" s="124"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="96" t="s">
@@ -13534,7 +13593,7 @@
       <c r="A15" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="B15" s="124"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="96" t="s">
@@ -13555,7 +13614,7 @@
       <c r="A16" s="85" t="s">
         <v>288</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="96" t="s">
@@ -13576,7 +13635,7 @@
       <c r="A17" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="96" t="s">
@@ -13597,7 +13656,7 @@
       <c r="A18" s="85" t="s">
         <v>290</v>
       </c>
-      <c r="B18" s="124"/>
+      <c r="B18" s="125"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="96" t="s">
@@ -13618,7 +13677,7 @@
       <c r="A19" s="85" t="s">
         <v>291</v>
       </c>
-      <c r="B19" s="124"/>
+      <c r="B19" s="125"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="96" t="s">
@@ -13639,7 +13698,7 @@
       <c r="A20" s="85" t="s">
         <v>292</v>
       </c>
-      <c r="B20" s="124"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="96" t="s">
@@ -13961,7 +14020,7 @@
       <c r="A3" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="137" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="85"/>
@@ -13986,7 +14045,7 @@
       <c r="A4" s="112" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="137"/>
+      <c r="B4" s="138"/>
       <c r="C4" s="85"/>
       <c r="D4" s="85"/>
       <c r="E4" s="65" t="s">
@@ -14732,9 +14791,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8632243-8F65-4A22-8934-EB264B136ECB}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14793,7 +14854,7 @@
       <c r="A3" s="113" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="137" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="113"/>
@@ -14818,7 +14879,7 @@
       <c r="A4" s="113" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="137"/>
+      <c r="B4" s="138"/>
       <c r="C4" s="113"/>
       <c r="D4" s="113"/>
       <c r="E4" s="65" t="s">
@@ -15014,19 +15075,17 @@
         <v>610</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>611</v>
+        <v>653</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>613</v>
+        <v>652</v>
       </c>
       <c r="H13" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
         <v>286</v>
       </c>
@@ -15034,22 +15093,20 @@
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="65" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>615</v>
+        <v>657</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>616</v>
+        <v>655</v>
       </c>
       <c r="H14" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A15" s="113" t="s">
         <v>287</v>
       </c>
@@ -15057,20 +15114,18 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="65" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>617</v>
+        <v>659</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>619</v>
+        <v>658</v>
       </c>
       <c r="H15" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>612</v>
-      </c>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="113" t="s">
@@ -15080,13 +15135,13 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="65" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="H16" s="87" t="s">
         <v>5</v>
@@ -15101,13 +15156,13 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="65" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="H17" s="87" t="s">
         <v>5</v>
@@ -15122,13 +15177,13 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="65" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="H18" s="87" t="s">
         <v>5</v>
@@ -15143,13 +15198,13 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="65" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H19" s="87" t="s">
         <v>5</v>
@@ -15164,13 +15219,13 @@
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="65" t="s">
+        <v>625</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="G20" s="27" t="s">
         <v>632</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>631</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>641</v>
       </c>
       <c r="H20" s="87" t="s">
         <v>5</v>
@@ -15185,7 +15240,7 @@
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="65" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F21" s="27" t="s">
         <v>604</v>
@@ -15206,10 +15261,10 @@
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="65" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>609</v>
@@ -15227,22 +15282,20 @@
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="65" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>639</v>
+        <v>660</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>613</v>
+        <v>654</v>
       </c>
       <c r="H23" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="11" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A24" s="113" t="s">
         <v>455</v>
       </c>
@@ -15250,22 +15303,20 @@
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="65" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>615</v>
+        <v>661</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>616</v>
+        <v>656</v>
       </c>
       <c r="H24" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="11" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A25" s="113" t="s">
         <v>456</v>
       </c>
@@ -15273,20 +15324,18 @@
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="65" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>642</v>
+        <v>663</v>
       </c>
       <c r="H25" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="11" t="s">
-        <v>612</v>
-      </c>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="113" t="s">
@@ -15296,13 +15345,13 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="65" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="H26" s="87" t="s">
         <v>5</v>
@@ -15317,13 +15366,13 @@
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="65" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="H27" s="87" t="s">
         <v>5</v>
@@ -15338,20 +15387,20 @@
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="65" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="H28" s="87" t="s">
         <v>5</v>
       </c>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="153" x14ac:dyDescent="0.25">
       <c r="A29" s="113" t="s">
         <v>559</v>
       </c>
@@ -15359,20 +15408,20 @@
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="65" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="H29" s="87" t="s">
         <v>5</v>
       </c>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A30" s="113" t="s">
         <v>560</v>
       </c>
@@ -15380,13 +15429,13 @@
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="65" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="H30" s="87" t="s">
         <v>5</v>
@@ -15401,59 +15450,107 @@
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="65" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="H31" s="87" t="s">
         <v>5</v>
       </c>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A32" s="113" t="s">
         <v>562</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
+      <c r="E32" s="65" t="s">
+        <v>643</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>621</v>
+      </c>
       <c r="H32" s="87" t="s">
         <v>5</v>
       </c>
       <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="115" t="s">
+        <v>650</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="65" t="s">
+        <v>644</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>645</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>646</v>
+      </c>
+      <c r="H33" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="115" t="s">
+        <v>651</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="65" t="s">
+        <v>647</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>648</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>649</v>
+      </c>
+      <c r="H34" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
-  <conditionalFormatting sqref="H3:H32">
-    <cfRule type="cellIs" dxfId="160" priority="8" operator="equal">
+  <conditionalFormatting sqref="H3:H34">
+    <cfRule type="cellIs" dxfId="167" priority="15" operator="equal">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="16" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="17" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="18" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="19" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="20" operator="equal">
       <formula>"Partially Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="21" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15465,7 +15562,7 @@
           <x14:formula1>
             <xm:f>Info!$A$3:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H32</xm:sqref>
+          <xm:sqref>H3:H34</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/App_QC_Regression_Test_Case.xlsx
+++ b/App_QC_Regression_Test_Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shail\Documents\BlueStackTestFiles\automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94DA917-BDC4-4CC7-A0B1-A96C257F09FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AA10B0-D5B0-434B-B1F8-B3C70E277EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="892" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="892" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Page" sheetId="14" r:id="rId1"/>
@@ -13957,8 +13957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:I5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14774,6 +14774,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -14793,8 +14794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8632243-8F65-4A22-8934-EB264B136ECB}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
